--- a/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
@@ -662,16 +662,16 @@
         <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="P2" t="n">
         <v>1.29</v>
@@ -1025,7 +1025,7 @@
         <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
         <v>1.17</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1156,10 +1156,10 @@
         <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1183,7 +1183,7 @@
         <v>9.5</v>
       </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
@@ -1644,10 +1644,10 @@
         <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="O10" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -1888,10 +1888,10 @@
         <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="O12" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="P12" t="n">
         <v>1.36</v>
@@ -1912,16 +1912,16 @@
         <v>29</v>
       </c>
       <c r="V12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X12" t="n">
         <v>41</v>
       </c>
       <c r="Y12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="n">
         <v>10</v>
@@ -2010,10 +2010,10 @@
         <v>3.5</v>
       </c>
       <c r="N13" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="O13" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
         <v>1.04</v>
@@ -2645,7 +2645,7 @@
         <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
         <v>8</v>
@@ -2672,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -2681,7 +2681,7 @@
         <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -2841,19 +2841,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L20" t="n">
         <v>1.1</v>
@@ -2880,7 +2880,7 @@
         <v>3.25</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U20" t="n">
         <v>15</v>
@@ -2898,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
         <v>9</v>
@@ -2925,7 +2925,7 @@
         <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
         <v>21</v>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H21" t="n">
         <v>2.9</v>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H22" t="n">
         <v>3.75</v>
@@ -3104,10 +3104,10 @@
         <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O22" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="P22" t="n">
         <v>1.33</v>
@@ -3334,10 +3334,10 @@
         <v>6.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
         <v>1.44</v>
@@ -3346,10 +3346,10 @@
         <v>2.63</v>
       </c>
       <c r="N24" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P24" t="n">
         <v>1.5</v>
@@ -3565,13 +3565,13 @@
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H26" t="n">
         <v>2.55</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.6</v>
-      </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
         <v>1.2</v>
@@ -3598,22 +3598,22 @@
         <v>1.98</v>
       </c>
       <c r="R26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T26" t="n">
         <v>5</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V26" t="n">
         <v>13</v>
       </c>
       <c r="W26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X26" t="n">
         <v>34</v>
@@ -3622,23 +3622,23 @@
         <v>51</v>
       </c>
       <c r="Z26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
         <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
         <v>126</v>
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
         <v>15</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
         <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
         <v>1.14</v>
@@ -3706,10 +3706,10 @@
         <v>2.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
         <v>1.67</v>
@@ -3727,16 +3727,16 @@
         <v>6</v>
       </c>
       <c r="U27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="n">
         <v>51</v>
@@ -3758,16 +3758,16 @@
         <v>6</v>
       </c>
       <c r="AF27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG27" t="n">
         <v>12</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>29</v>
       </c>
       <c r="AI27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ27" t="n">
         <v>51</v>
@@ -3925,31 +3925,31 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N29" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P29" t="n">
         <v>1.5</v>
@@ -3964,7 +3964,7 @@
         <v>1.53</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U29" t="n">
         <v>6.5</v>
@@ -3973,7 +3973,7 @@
         <v>9</v>
       </c>
       <c r="W29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X29" t="n">
         <v>17</v>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -4054,10 +4054,10 @@
         <v>3.7</v>
       </c>
       <c r="J30" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.8</v>
@@ -4072,7 +4072,7 @@
         <v>1.29</v>
       </c>
       <c r="P30" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q30" t="n">
         <v>2.03</v>
@@ -4540,10 +4540,10 @@
         <v>5.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N34" t="n">
         <v>3.4</v>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H35" t="n">
         <v>3.75</v>
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
         <v>1.05</v>
@@ -4788,10 +4788,10 @@
         <v>3.75</v>
       </c>
       <c r="N36" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -4800,10 +4800,10 @@
         <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T36" t="n">
         <v>8.5</v>
@@ -4815,13 +4815,13 @@
         <v>9</v>
       </c>
       <c r="W36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z36" t="n">
         <v>11</v>
@@ -4836,7 +4836,7 @@
         <v>41</v>
       </c>
       <c r="AD36" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE36" t="n">
         <v>11</v>
@@ -4854,7 +4854,7 @@
         <v>26</v>
       </c>
       <c r="AJ36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -5342,10 +5342,10 @@
         <v>3.75</v>
       </c>
       <c r="N43" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P43" t="n">
         <v>1.33</v>
@@ -5354,7 +5354,7 @@
         <v>3.25</v>
       </c>
       <c r="R43" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S43" t="n">
         <v>2.1</v>
@@ -5396,19 +5396,19 @@
         <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG43" t="n">
         <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI43" t="n">
         <v>26</v>
       </c>
       <c r="AJ43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -5458,16 +5458,16 @@
         <v>15</v>
       </c>
       <c r="L44" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M44" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O44" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P44" t="n">
         <v>1.3</v>
@@ -5476,10 +5476,10 @@
         <v>3.4</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T44" t="n">
         <v>11</v>
@@ -5598,7 +5598,7 @@
         <v>3.5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S45" t="n">
         <v>2.25</v>
@@ -5687,13 +5687,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H46" t="n">
         <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J46" t="n">
         <v>1.04</v>
@@ -5702,16 +5702,16 @@
         <v>13</v>
       </c>
       <c r="L46" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N46" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P46" t="n">
         <v>1.33</v>
@@ -5720,10 +5720,10 @@
         <v>3.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="S46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -5762,7 +5762,7 @@
         <v>11</v>
       </c>
       <c r="AF46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG46" t="n">
         <v>11</v>
@@ -5815,37 +5815,37 @@
         <v>7</v>
       </c>
       <c r="I47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J47" t="n">
         <v>1.02</v>
       </c>
       <c r="K47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L47" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N47" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="O47" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P47" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T47" t="n">
         <v>9</v>
@@ -5934,7 +5934,7 @@
         <v>1.13</v>
       </c>
       <c r="H48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I48" t="n">
         <v>17</v>
@@ -5952,16 +5952,16 @@
         <v>8</v>
       </c>
       <c r="N48" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="O48" t="n">
         <v>3.5</v>
       </c>
       <c r="P48" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Q48" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
         <v>2</v>
@@ -5973,7 +5973,7 @@
         <v>12</v>
       </c>
       <c r="U48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V48" t="n">
         <v>11</v>
@@ -5985,13 +5985,13 @@
         <v>11</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z48" t="n">
         <v>23</v>
       </c>
       <c r="AA48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB48" t="n">
         <v>26</v>
@@ -6074,7 +6074,7 @@
         <v>4.5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O49" t="n">
         <v>2.25</v>
@@ -6778,10 +6778,10 @@
         <v>3.4</v>
       </c>
       <c r="J55" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L55" t="n">
         <v>1.4</v>
@@ -6814,7 +6814,7 @@
         <v>9.5</v>
       </c>
       <c r="V55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W55" t="n">
         <v>19</v>
@@ -6891,67 +6891,67 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H56" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I56" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J56" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K56" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M56" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="N56" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O56" t="n">
         <v>1.62</v>
       </c>
       <c r="P56" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R56" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S56" t="n">
         <v>1.55</v>
       </c>
       <c r="T56" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="U56" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="V56" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W56" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X56" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y56" t="n">
         <v>40</v>
       </c>
       <c r="Z56" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB56" t="n">
         <v>24</v>
@@ -6963,7 +6963,7 @@
         <v>900</v>
       </c>
       <c r="AE56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF56" t="n">
         <v>45</v>
@@ -6975,10 +6975,10 @@
         <v>200</v>
       </c>
       <c r="AI56" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
@@ -7013,34 +7013,34 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I57" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="J57" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K57" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L57" t="n">
         <v>1.5</v>
       </c>
       <c r="M57" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="N57" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="O57" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P57" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q57" t="n">
         <v>2.32</v>
@@ -7052,38 +7052,38 @@
         <v>1.62</v>
       </c>
       <c r="T57" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="U57" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="V57" t="n">
         <v>9</v>
       </c>
       <c r="W57" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X57" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y57" t="n">
         <v>40</v>
       </c>
       <c r="Z57" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB57" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC57" t="n">
         <v>120</v>
       </c>
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF57" t="n">
         <v>21</v>
@@ -7095,7 +7095,7 @@
         <v>75</v>
       </c>
       <c r="AI57" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ57" t="n">
         <v>70</v>
@@ -7133,13 +7133,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I58" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J58" t="n">
         <v>1.11</v>
@@ -7166,7 +7166,7 @@
         <v>2.35</v>
       </c>
       <c r="R58" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S58" t="n">
         <v>1.7</v>
@@ -7175,16 +7175,16 @@
         <v>6.2</v>
       </c>
       <c r="U58" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V58" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W58" t="n">
+        <v>24</v>
+      </c>
+      <c r="X58" t="n">
         <v>23</v>
-      </c>
-      <c r="X58" t="n">
-        <v>22</v>
       </c>
       <c r="Y58" t="n">
         <v>40</v>
@@ -7196,7 +7196,7 @@
         <v>5.8</v>
       </c>
       <c r="AB58" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC58" t="n">
         <v>110</v>
@@ -7209,13 +7209,13 @@
         <v>14.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI58" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ58" t="n">
         <v>50</v>
@@ -7253,70 +7253,70 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J59" t="n">
         <v>1.09</v>
       </c>
       <c r="K59" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="L59" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M59" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="N59" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O59" t="n">
         <v>1.6</v>
       </c>
       <c r="P59" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R59" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S59" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T59" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="U59" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="V59" t="n">
         <v>8.5</v>
       </c>
       <c r="W59" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="X59" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y59" t="n">
         <v>35</v>
       </c>
       <c r="Z59" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA59" t="n">
         <v>6.3</v>
       </c>
-      <c r="AA59" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AB59" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC59" t="n">
         <v>110</v>
@@ -7325,16 +7325,16 @@
         <v>900</v>
       </c>
       <c r="AE59" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AF59" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AG59" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="n">
         <v>55</v>
@@ -7402,10 +7402,10 @@
         <v>1.7</v>
       </c>
       <c r="P60" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R60" t="n">
         <v>2</v>
@@ -7506,10 +7506,10 @@
         <v>4.2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L61" t="n">
         <v>1.4</v>
@@ -7518,13 +7518,13 @@
         <v>2.75</v>
       </c>
       <c r="N61" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O61" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P61" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q61" t="n">
         <v>2.5</v>
@@ -7640,13 +7640,13 @@
         <v>4</v>
       </c>
       <c r="N62" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O62" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P62" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q62" t="n">
         <v>3.25</v>
@@ -8237,13 +8237,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H71" t="n">
         <v>3.3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J71" t="n">
         <v>1.05</v>
@@ -8276,16 +8276,16 @@
         <v>2.1</v>
       </c>
       <c r="T71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X71" t="n">
         <v>23</v>
@@ -8300,7 +8300,7 @@
         <v>6.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC71" t="n">
         <v>41</v>
@@ -8312,19 +8312,19 @@
         <v>9</v>
       </c>
       <c r="AF71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH71" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ71" t="n">
         <v>23</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="72">
@@ -8481,19 +8481,19 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I73" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
         <v>1.04</v>
       </c>
       <c r="K73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L73" t="n">
         <v>1.25</v>
@@ -8526,7 +8526,7 @@
         <v>12</v>
       </c>
       <c r="V73" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W73" t="n">
         <v>21</v>
@@ -8562,7 +8562,7 @@
         <v>11</v>
       </c>
       <c r="AH73" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI73" t="n">
         <v>23</v>
@@ -8602,36 +8602,88 @@
           <t>Dalian K'un City</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4.6</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.87</v>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
-      <c r="AH74" t="inlineStr"/>
-      <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T74" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U74" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="V74" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W74" t="n">
+        <v>12</v>
+      </c>
+      <c r="X74" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8664,36 +8716,92 @@
           <t>Shaanxi Union</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.25</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
-      <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="inlineStr"/>
-      <c r="AG75" t="inlineStr"/>
-      <c r="AH75" t="inlineStr"/>
-      <c r="AI75" t="inlineStr"/>
-      <c r="AJ75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U75" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W75" t="n">
+        <v>40</v>
+      </c>
+      <c r="X75" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8726,36 +8834,90 @@
           <t>Suzhou Dongwu</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.7</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
-      <c r="AC76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T76" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="U76" t="n">
+        <v>29</v>
+      </c>
+      <c r="V76" t="n">
+        <v>18</v>
+      </c>
+      <c r="W76" t="n">
+        <v>110</v>
+      </c>
+      <c r="X76" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>120</v>
+      </c>
       <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="inlineStr"/>
-      <c r="AG76" t="inlineStr"/>
-      <c r="AH76" t="inlineStr"/>
-      <c r="AI76" t="inlineStr"/>
-      <c r="AJ76" t="inlineStr"/>
+      <c r="AE76" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8788,36 +8950,92 @@
           <t>Nanjing City</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.1</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U77" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>12</v>
+      </c>
+      <c r="W77" t="n">
+        <v>45</v>
+      </c>
+      <c r="X77" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8851,13 +9069,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I78" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J78" t="n">
         <v>1.11</v>
@@ -8890,16 +9108,16 @@
         <v>1.67</v>
       </c>
       <c r="T78" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V78" t="n">
         <v>11</v>
       </c>
       <c r="W78" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X78" t="n">
         <v>26</v>
@@ -8924,7 +9142,7 @@
         <v>7</v>
       </c>
       <c r="AF78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG78" t="n">
         <v>12</v>
@@ -8971,7 +9189,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="H79" t="n">
         <v>6</v>
@@ -9109,28 +9327,28 @@
         <v>1.42</v>
       </c>
       <c r="M80" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="N80" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O80" t="n">
         <v>1.6</v>
       </c>
       <c r="P80" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="R80" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S80" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T80" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U80" t="n">
         <v>13</v>
@@ -9154,7 +9372,7 @@
         <v>5.4</v>
       </c>
       <c r="AB80" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC80" t="n">
         <v>75</v>
@@ -9213,13 +9431,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H81" t="n">
         <v>3.1</v>
       </c>
       <c r="I81" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -9242,25 +9460,25 @@
         <v>2.32</v>
       </c>
       <c r="R81" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S81" t="n">
         <v>1.75</v>
       </c>
       <c r="T81" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U81" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V81" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W81" t="n">
         <v>45</v>
       </c>
       <c r="X81" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y81" t="n">
         <v>45</v>
@@ -9269,7 +9487,7 @@
         <v>7.7</v>
       </c>
       <c r="AA81" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB81" t="n">
         <v>16</v>
@@ -9281,7 +9499,7 @@
         <v>800</v>
       </c>
       <c r="AE81" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF81" t="n">
         <v>9.75</v>
@@ -9458,22 +9676,22 @@
         <v>4.5</v>
       </c>
       <c r="J83" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L83" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M83" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N83" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O83" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P83" t="n">
         <v>1.4</v>
@@ -9482,16 +9700,16 @@
         <v>2.75</v>
       </c>
       <c r="R83" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S83" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T83" t="n">
         <v>6.5</v>
       </c>
       <c r="U83" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V83" t="n">
         <v>8.5</v>
@@ -9506,7 +9724,7 @@
         <v>29</v>
       </c>
       <c r="Z83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA83" t="n">
         <v>7</v>
@@ -9518,10 +9736,10 @@
         <v>51</v>
       </c>
       <c r="AD83" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF83" t="n">
         <v>23</v>
@@ -9935,19 +10153,19 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="H87" t="n">
         <v>4.33</v>
       </c>
       <c r="I87" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="J87" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L87" t="n">
         <v>1.29</v>
@@ -9974,25 +10192,25 @@
         <v>1.5</v>
       </c>
       <c r="T87" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U87" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="V87" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W87" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="X87" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="Y87" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="Z87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA87" t="n">
         <v>9.5</v>
@@ -10005,13 +10223,13 @@
       </c>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF87" t="n">
         <v>5.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH87" t="n">
         <v>7.5</v>
@@ -10173,80 +10391,80 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="H89" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I89" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O89" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="S89" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T89" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="U89" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="V89" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W89" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="X89" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y89" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z89" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AA89" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB89" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC89" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF89" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AG89" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AH89" t="n">
         <v>900</v>
       </c>
       <c r="AI89" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AJ89" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -10281,13 +10499,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H90" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I90" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -10298,10 +10516,10 @@
         <v>3.25</v>
       </c>
       <c r="N90" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O90" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P90" t="n">
         <v>1.38</v>
@@ -10322,25 +10540,25 @@
         <v>6.1</v>
       </c>
       <c r="V90" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W90" t="n">
         <v>8.5</v>
       </c>
       <c r="X90" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y90" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z90" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA90" t="n">
         <v>8.75</v>
       </c>
       <c r="AB90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC90" t="n">
         <v>120</v>
@@ -10349,22 +10567,22 @@
         <v>700</v>
       </c>
       <c r="AE90" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF90" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AG90" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH90" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AI90" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AJ90" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
@@ -10420,7 +10638,7 @@
         <v>4.33</v>
       </c>
       <c r="N91" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O91" t="n">
         <v>2.2</v>
@@ -10545,7 +10763,7 @@
         <v>2.15</v>
       </c>
       <c r="O92" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P92" t="n">
         <v>1.44</v>
@@ -10768,7 +10986,7 @@
         <v>1.62</v>
       </c>
       <c r="H94" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I94" t="n">
         <v>5.25</v>
@@ -10804,7 +11022,7 @@
         <v>2.05</v>
       </c>
       <c r="T94" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U94" t="n">
         <v>8.5</v>
@@ -10813,7 +11031,7 @@
         <v>8.5</v>
       </c>
       <c r="W94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X94" t="n">
         <v>12</v>
@@ -10825,7 +11043,7 @@
         <v>13</v>
       </c>
       <c r="AA94" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB94" t="n">
         <v>15</v>
@@ -10834,10 +11052,10 @@
         <v>41</v>
       </c>
       <c r="AD94" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE94" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF94" t="n">
         <v>29</v>
@@ -10887,19 +11105,19 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H95" t="n">
         <v>3.4</v>
       </c>
       <c r="I95" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J95" t="n">
         <v>1.04</v>
       </c>
       <c r="K95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L95" t="n">
         <v>1.25</v>
@@ -10914,55 +11132,55 @@
         <v>2</v>
       </c>
       <c r="P95" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R95" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S95" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T95" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U95" t="n">
         <v>13</v>
       </c>
       <c r="V95" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W95" t="n">
         <v>23</v>
       </c>
       <c r="X95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA95" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC95" t="n">
         <v>41</v>
       </c>
       <c r="AD95" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF95" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG95" t="n">
         <v>10</v>
@@ -10974,7 +11192,7 @@
         <v>21</v>
       </c>
       <c r="AJ95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
@@ -11253,13 +11471,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="H98" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I98" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="J98" t="n">
         <v>1.04</v>
@@ -11274,10 +11492,10 @@
         <v>4</v>
       </c>
       <c r="N98" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O98" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P98" t="n">
         <v>1.33</v>
@@ -11286,25 +11504,25 @@
         <v>3.25</v>
       </c>
       <c r="R98" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S98" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T98" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U98" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V98" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W98" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X98" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y98" t="n">
         <v>23</v>
@@ -11313,7 +11531,7 @@
         <v>12</v>
       </c>
       <c r="AA98" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB98" t="n">
         <v>13</v>
@@ -11325,19 +11543,19 @@
         <v>151</v>
       </c>
       <c r="AE98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF98" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH98" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI98" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ98" t="n">
         <v>29</v>
@@ -11521,7 +11739,7 @@
         <v>2.15</v>
       </c>
       <c r="O100" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P100" t="n">
         <v>1.44</v>
@@ -11530,10 +11748,10 @@
         <v>2.63</v>
       </c>
       <c r="R100" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S100" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T100" t="n">
         <v>7.5</v>
@@ -11628,13 +11846,13 @@
         <v>5.25</v>
       </c>
       <c r="J101" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K101" t="n">
         <v>15</v>
       </c>
       <c r="L101" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M101" t="n">
         <v>4.33</v>
@@ -11747,31 +11965,31 @@
         <v>3.8</v>
       </c>
       <c r="I102" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K102" t="n">
         <v>15</v>
       </c>
       <c r="L102" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M102" t="n">
         <v>4.5</v>
       </c>
       <c r="N102" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O102" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P102" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q102" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R102" t="n">
         <v>1.62</v>
@@ -11780,10 +11998,10 @@
         <v>2.2</v>
       </c>
       <c r="T102" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U102" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V102" t="n">
         <v>8.5</v>
@@ -11828,7 +12046,7 @@
         <v>29</v>
       </c>
       <c r="AJ102" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
@@ -11872,13 +12090,13 @@
         <v>3.1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K103" t="n">
         <v>15</v>
       </c>
       <c r="L103" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M103" t="n">
         <v>4.5</v>
@@ -11994,13 +12212,13 @@
         <v>3.6</v>
       </c>
       <c r="J104" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K104" t="n">
         <v>11</v>
       </c>
       <c r="L104" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M104" t="n">
         <v>3.5</v>
@@ -12110,13 +12328,13 @@
         <v>1.95</v>
       </c>
       <c r="H105" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I105" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J105" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K105" t="n">
         <v>13</v>
@@ -12125,13 +12343,13 @@
         <v>1.22</v>
       </c>
       <c r="M105" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N105" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O105" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P105" t="n">
         <v>1.33</v>
@@ -12179,7 +12397,7 @@
         <v>151</v>
       </c>
       <c r="AE105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF105" t="n">
         <v>21</v>
@@ -12229,19 +12447,19 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H106" t="n">
         <v>3.2</v>
       </c>
       <c r="I106" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J106" t="n">
         <v>1.07</v>
       </c>
       <c r="K106" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L106" t="n">
         <v>1.36</v>
@@ -12253,7 +12471,7 @@
         <v>2.15</v>
       </c>
       <c r="O106" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P106" t="n">
         <v>1.44</v>
@@ -12351,13 +12569,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="H107" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I107" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J107" t="n">
         <v>1.05</v>
@@ -12384,25 +12602,25 @@
         <v>3</v>
       </c>
       <c r="R107" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S107" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T107" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U107" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V107" t="n">
         <v>9</v>
       </c>
       <c r="W107" t="n">
+        <v>19</v>
+      </c>
+      <c r="X107" t="n">
         <v>17</v>
-      </c>
-      <c r="X107" t="n">
-        <v>15</v>
       </c>
       <c r="Y107" t="n">
         <v>26</v>
@@ -12420,22 +12638,22 @@
         <v>51</v>
       </c>
       <c r="AD107" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF107" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG107" t="n">
         <v>12</v>
       </c>
       <c r="AH107" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI107" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ107" t="n">
         <v>34</v>
@@ -12473,7 +12691,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H108" t="n">
         <v>3.1</v>
@@ -12497,7 +12715,7 @@
         <v>2.25</v>
       </c>
       <c r="O108" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P108" t="n">
         <v>1.44</v>
@@ -12595,13 +12813,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H109" t="n">
         <v>2.62</v>
       </c>
       <c r="I109" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J109" t="n">
         <v>1.17</v>
@@ -12628,7 +12846,7 @@
         <v>2.05</v>
       </c>
       <c r="R109" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="S109" t="n">
         <v>1.53</v>
@@ -12637,13 +12855,13 @@
         <v>5.2</v>
       </c>
       <c r="U109" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V109" t="n">
         <v>10.25</v>
       </c>
       <c r="W109" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X109" t="n">
         <v>27</v>
@@ -12665,7 +12883,7 @@
       </c>
       <c r="AD109" t="inlineStr"/>
       <c r="AE109" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF109" t="n">
         <v>17</v>
@@ -12715,19 +12933,19 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="I110" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="J110" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="K110" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="L110" t="n">
         <v>1.65</v>
@@ -12736,10 +12954,10 @@
         <v>2.1</v>
       </c>
       <c r="N110" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="O110" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P110" t="n">
         <v>1.65</v>
@@ -12748,22 +12966,22 @@
         <v>2.1</v>
       </c>
       <c r="R110" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S110" t="n">
         <v>1.6</v>
       </c>
       <c r="T110" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U110" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V110" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W110" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X110" t="n">
         <v>37</v>
@@ -12772,29 +12990,29 @@
         <v>60</v>
       </c>
       <c r="Z110" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AA110" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB110" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC110" t="n">
         <v>150</v>
       </c>
       <c r="AD110" t="inlineStr"/>
       <c r="AE110" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AF110" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG110" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH110" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI110" t="n">
         <v>32</v>
@@ -12955,13 +13173,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H112" t="n">
         <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J112" t="n">
         <v>1.08</v>
@@ -13077,13 +13295,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I113" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J113" t="n">
         <v>1.06</v>
@@ -13110,16 +13328,16 @@
         <v>2.75</v>
       </c>
       <c r="R113" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S113" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T113" t="n">
         <v>7.5</v>
       </c>
       <c r="U113" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V113" t="n">
         <v>9</v>
@@ -13146,7 +13364,7 @@
         <v>51</v>
       </c>
       <c r="AD113" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE113" t="n">
         <v>11</v>
@@ -13164,7 +13382,7 @@
         <v>29</v>
       </c>
       <c r="AJ113" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -13323,13 +13541,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H116" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I116" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J116" t="n">
         <v>1.05</v>
@@ -13350,10 +13568,10 @@
         <v>1.88</v>
       </c>
       <c r="P116" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R116" t="n">
         <v>1.95</v>
@@ -13392,7 +13610,7 @@
         <v>51</v>
       </c>
       <c r="AD116" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE116" t="n">
         <v>6.5</v>
@@ -13404,13 +13622,13 @@
         <v>8.5</v>
       </c>
       <c r="AH116" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI116" t="n">
         <v>13</v>
       </c>
-      <c r="AI116" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ116" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
@@ -13569,13 +13787,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H119" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I119" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J119" t="n">
         <v>1.03</v>
@@ -13590,10 +13808,10 @@
         <v>4.33</v>
       </c>
       <c r="N119" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O119" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P119" t="n">
         <v>1.3</v>
@@ -13602,10 +13820,10 @@
         <v>3.4</v>
       </c>
       <c r="R119" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S119" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T119" t="n">
         <v>9.5</v>
@@ -13644,7 +13862,7 @@
         <v>12</v>
       </c>
       <c r="AF119" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG119" t="n">
         <v>11</v>
@@ -13694,16 +13912,16 @@
         <v>1.95</v>
       </c>
       <c r="H120" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I120" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J120" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L120" t="n">
         <v>1.14</v>
@@ -13763,7 +13981,7 @@
         <v>101</v>
       </c>
       <c r="AE120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF120" t="n">
         <v>21</v>
@@ -13778,7 +13996,7 @@
         <v>23</v>
       </c>
       <c r="AJ120" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
@@ -14301,10 +14519,10 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H125" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I125" t="n">
         <v>2.9</v>
@@ -14316,16 +14534,16 @@
         <v>9</v>
       </c>
       <c r="L125" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M125" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N125" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O125" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P125" t="n">
         <v>1.44</v>
@@ -14358,10 +14576,10 @@
         <v>34</v>
       </c>
       <c r="Z125" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA125" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB125" t="n">
         <v>15</v>
@@ -14385,7 +14603,7 @@
         <v>29</v>
       </c>
       <c r="AI125" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ125" t="n">
         <v>34</v>
@@ -14423,31 +14641,31 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="H126" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I126" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="J126" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L126" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M126" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O126" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P126" t="n">
         <v>1.4</v>
@@ -14465,25 +14683,25 @@
         <v>7.5</v>
       </c>
       <c r="U126" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V126" t="n">
         <v>9</v>
       </c>
       <c r="W126" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X126" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z126" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA126" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB126" t="n">
         <v>15</v>
@@ -14495,22 +14713,22 @@
         <v>251</v>
       </c>
       <c r="AE126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF126" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH126" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI126" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ126" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127">
@@ -14808,7 +15026,7 @@
         <v>4</v>
       </c>
       <c r="N129" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O129" t="n">
         <v>2.05</v>
@@ -14909,13 +15127,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="H130" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I130" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J130" t="n">
         <v>1.03</v>
@@ -14924,22 +15142,22 @@
         <v>9.5</v>
       </c>
       <c r="L130" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M130" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="N130" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O130" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="P130" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="Q130" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="R130" t="n">
         <v>1.5</v>
@@ -14963,16 +15181,16 @@
         <v>35</v>
       </c>
       <c r="Y130" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z130" t="n">
         <v>9.5</v>
       </c>
       <c r="AA130" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB130" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC130" t="n">
         <v>37</v>
@@ -15031,52 +15249,52 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H131" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="I131" t="n">
         <v>4.85</v>
       </c>
       <c r="J131" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K131" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L131" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="M131" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="N131" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="O131" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="P131" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="Q131" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="R131" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="S131" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="T131" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="U131" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="V131" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W131" t="n">
         <v>13</v>
@@ -15085,40 +15303,40 @@
         <v>11</v>
       </c>
       <c r="Y131" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z131" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA131" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB131" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC131" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AD131" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AE131" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF131" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AG131" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH131" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI131" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ131" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
@@ -15526,16 +15744,16 @@
         <v>2.25</v>
       </c>
       <c r="P135" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q135" t="n">
         <v>3.5</v>
       </c>
       <c r="R135" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S135" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T135" t="n">
         <v>13</v>
@@ -15952,10 +16170,10 @@
         <v>3.5</v>
       </c>
       <c r="N141" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="O141" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -16053,19 +16271,19 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H142" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I142" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J142" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K142" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L142" t="n">
         <v>1.5</v>
@@ -16074,22 +16292,22 @@
         <v>2.5</v>
       </c>
       <c r="N142" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O142" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P142" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R142" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S142" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -16098,7 +16316,7 @@
         <v>13</v>
       </c>
       <c r="V142" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W142" t="n">
         <v>34</v>
@@ -16110,22 +16328,22 @@
         <v>41</v>
       </c>
       <c r="Z142" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA142" t="n">
         <v>6.5</v>
       </c>
       <c r="AB142" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC142" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD142" t="n">
         <v>501</v>
       </c>
       <c r="AE142" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF142" t="n">
         <v>10</v>
@@ -16187,7 +16405,7 @@
         <v>1.07</v>
       </c>
       <c r="K143" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L143" t="n">
         <v>1.36</v>
@@ -16309,7 +16527,7 @@
         <v>1.07</v>
       </c>
       <c r="K144" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L144" t="n">
         <v>1.4</v>
@@ -16324,16 +16542,16 @@
         <v>1.62</v>
       </c>
       <c r="P144" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q144" t="n">
         <v>2.5</v>
       </c>
       <c r="R144" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S144" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T144" t="n">
         <v>7.5</v>
@@ -16354,7 +16572,7 @@
         <v>41</v>
       </c>
       <c r="Z144" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA144" t="n">
         <v>6.5</v>
@@ -16366,7 +16584,7 @@
         <v>67</v>
       </c>
       <c r="AD144" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE144" t="n">
         <v>7</v>
@@ -16446,7 +16664,7 @@
         <v>2.1</v>
       </c>
       <c r="P145" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q145" t="n">
         <v>3.4</v>
@@ -16568,10 +16786,10 @@
         <v>1.7</v>
       </c>
       <c r="P146" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R146" t="n">
         <v>1.91</v>
@@ -16669,7 +16887,7 @@
         <v>3.1</v>
       </c>
       <c r="I147" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J147" t="n">
         <v>1.11</v>
@@ -16690,10 +16908,10 @@
         <v>1.5</v>
       </c>
       <c r="P147" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R147" t="n">
         <v>2.1</v>
@@ -16705,7 +16923,7 @@
         <v>6.5</v>
       </c>
       <c r="U147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V147" t="n">
         <v>10</v>
@@ -16735,7 +16953,7 @@
         <v>501</v>
       </c>
       <c r="AE147" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF147" t="n">
         <v>13</v>
@@ -16812,7 +17030,7 @@
         <v>1.83</v>
       </c>
       <c r="P148" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q148" t="n">
         <v>2.75</v>
@@ -16913,7 +17131,7 @@
         <v>3.5</v>
       </c>
       <c r="I149" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J149" t="n">
         <v>1.04</v>
@@ -16922,10 +17140,10 @@
         <v>12</v>
       </c>
       <c r="L149" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M149" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N149" t="n">
         <v>1.8</v>
@@ -16934,7 +17152,7 @@
         <v>2</v>
       </c>
       <c r="P149" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q149" t="n">
         <v>3.25</v>
@@ -17056,7 +17274,7 @@
         <v>1.78</v>
       </c>
       <c r="P150" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q150" t="n">
         <v>2.75</v>
@@ -18097,13 +18315,13 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="H159" t="n">
         <v>2.85</v>
       </c>
       <c r="I159" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -18111,7 +18329,7 @@
         <v>1.5</v>
       </c>
       <c r="M159" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -18119,58 +18337,58 @@
         <v>1.55</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="U159" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="V159" t="n">
         <v>8.5</v>
       </c>
       <c r="W159" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="X159" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y159" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z159" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AA159" t="n">
         <v>5</v>
       </c>
       <c r="AB159" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC159" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD159" t="inlineStr"/>
       <c r="AE159" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AF159" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG159" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH159" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI159" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ159" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160">
@@ -18205,39 +18423,43 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H160" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I160" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="O160" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
+        <v>1.78</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="U160" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V160" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W160" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X160" t="n">
         <v>22</v>
@@ -18246,10 +18468,10 @@
         <v>26</v>
       </c>
       <c r="Z160" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA160" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB160" t="n">
         <v>11.5</v>
@@ -18258,25 +18480,25 @@
         <v>45</v>
       </c>
       <c r="AD160" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE160" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AF160" t="n">
         <v>8.25</v>
       </c>
       <c r="AG160" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AH160" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI160" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AJ160" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161">
@@ -18311,19 +18533,19 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H161" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I161" t="n">
         <v>5.25</v>
       </c>
       <c r="J161" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K161" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L161" t="n">
         <v>1.25</v>
@@ -18350,7 +18572,7 @@
         <v>1.95</v>
       </c>
       <c r="T161" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U161" t="n">
         <v>8</v>
@@ -18371,7 +18593,7 @@
         <v>10</v>
       </c>
       <c r="AA161" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB161" t="n">
         <v>15</v>
@@ -18383,7 +18605,7 @@
         <v>251</v>
       </c>
       <c r="AE161" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF161" t="n">
         <v>26</v>
@@ -18561,7 +18783,7 @@
         <v>3.5</v>
       </c>
       <c r="I163" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -18569,7 +18791,7 @@
         <v>1.22</v>
       </c>
       <c r="M163" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N163" t="n">
         <v>1.65</v>
@@ -18589,7 +18811,7 @@
         <v>8.5</v>
       </c>
       <c r="U163" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V163" t="n">
         <v>8</v>
@@ -18616,7 +18838,7 @@
         <v>50</v>
       </c>
       <c r="AD163" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE163" t="n">
         <v>13</v>
@@ -18631,7 +18853,7 @@
         <v>60</v>
       </c>
       <c r="AI163" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ163" t="n">
         <v>35</v>
@@ -18697,13 +18919,13 @@
         <v>1.78</v>
       </c>
       <c r="S164" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T164" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U164" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="V164" t="n">
         <v>8.25</v>
@@ -18712,13 +18934,13 @@
         <v>12.5</v>
       </c>
       <c r="X164" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y164" t="n">
         <v>26</v>
       </c>
       <c r="Z164" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA164" t="n">
         <v>7.2</v>
@@ -18733,7 +18955,7 @@
         <v>600</v>
       </c>
       <c r="AE164" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF164" t="n">
         <v>26</v>
@@ -18748,7 +18970,7 @@
         <v>45</v>
       </c>
       <c r="AJ164" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165">
@@ -19226,13 +19448,13 @@
         <v>3</v>
       </c>
       <c r="J172" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K172" t="n">
         <v>15</v>
       </c>
       <c r="L172" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M172" t="n">
         <v>4.33</v>
@@ -19339,22 +19561,22 @@
         </is>
       </c>
       <c r="G173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H173" t="n">
         <v>3.5</v>
       </c>
-      <c r="H173" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J173" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K173" t="n">
         <v>11</v>
       </c>
       <c r="L173" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M173" t="n">
         <v>3.5</v>
@@ -19390,7 +19612,7 @@
         <v>41</v>
       </c>
       <c r="X173" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y173" t="n">
         <v>34</v>
@@ -19399,7 +19621,7 @@
         <v>11</v>
       </c>
       <c r="AA173" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB173" t="n">
         <v>15</v>
@@ -19461,31 +19683,31 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H174" t="n">
         <v>3</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J174" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K174" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L174" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M174" t="n">
         <v>2.75</v>
       </c>
       <c r="N174" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O174" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P174" t="n">
         <v>1.5</v>
@@ -19509,16 +19731,16 @@
         <v>10</v>
       </c>
       <c r="W174" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X174" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y174" t="n">
         <v>34</v>
       </c>
       <c r="Z174" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA174" t="n">
         <v>6</v>
@@ -19536,16 +19758,16 @@
         <v>8</v>
       </c>
       <c r="AF174" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG174" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH174" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI174" t="n">
         <v>29</v>
-      </c>
-      <c r="AI174" t="n">
-        <v>26</v>
       </c>
       <c r="AJ174" t="n">
         <v>41</v>
@@ -19583,19 +19805,19 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H175" t="n">
         <v>3.5</v>
       </c>
       <c r="I175" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J175" t="n">
         <v>1.06</v>
       </c>
       <c r="K175" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L175" t="n">
         <v>1.33</v>
@@ -19628,7 +19850,7 @@
         <v>13</v>
       </c>
       <c r="V175" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W175" t="n">
         <v>29</v>
@@ -19646,7 +19868,7 @@
         <v>6.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC175" t="n">
         <v>51</v>
@@ -19658,10 +19880,10 @@
         <v>7.5</v>
       </c>
       <c r="AF175" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG175" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH175" t="n">
         <v>23</v>
@@ -19670,7 +19892,7 @@
         <v>21</v>
       </c>
       <c r="AJ175" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176">
@@ -19705,13 +19927,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H176" t="n">
         <v>3.5</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J176" t="n">
         <v>1.04</v>
@@ -19726,10 +19948,10 @@
         <v>4.33</v>
       </c>
       <c r="N176" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O176" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P176" t="n">
         <v>1.3</v>
@@ -19765,7 +19987,7 @@
         <v>13</v>
       </c>
       <c r="AA176" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB176" t="n">
         <v>12</v>
@@ -19958,10 +20180,10 @@
         <v>1.53</v>
       </c>
       <c r="J178" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K178" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L178" t="n">
         <v>1.14</v>
@@ -19970,10 +20192,10 @@
         <v>5.5</v>
       </c>
       <c r="N178" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O178" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P178" t="n">
         <v>1.25</v>
@@ -20080,10 +20302,10 @@
         <v>2.35</v>
       </c>
       <c r="J179" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K179" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L179" t="n">
         <v>1.25</v>
@@ -20092,10 +20314,10 @@
         <v>3.75</v>
       </c>
       <c r="N179" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O179" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P179" t="n">
         <v>1.33</v>
@@ -20208,10 +20430,10 @@
         <v>13</v>
       </c>
       <c r="L180" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M180" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N180" t="n">
         <v>1.7</v>
@@ -20437,13 +20659,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H182" t="n">
         <v>3.3</v>
       </c>
       <c r="I182" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J182" t="n">
         <v>1.05</v>
@@ -20470,22 +20692,22 @@
         <v>3</v>
       </c>
       <c r="R182" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S182" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T182" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U182" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V182" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W182" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X182" t="n">
         <v>21</v>
@@ -20512,19 +20734,19 @@
         <v>9</v>
       </c>
       <c r="AF182" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG182" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH182" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ182" t="n">
         <v>26</v>
-      </c>
-      <c r="AI182" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ182" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="183">
@@ -20568,13 +20790,13 @@
         <v>5.75</v>
       </c>
       <c r="J183" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K183" t="n">
         <v>8</v>
       </c>
       <c r="L183" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M183" t="n">
         <v>3</v>
@@ -20688,13 +20910,13 @@
         <v>1.62</v>
       </c>
       <c r="J184" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K184" t="n">
         <v>8.5</v>
       </c>
       <c r="L184" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M184" t="n">
         <v>3</v>
@@ -20934,13 +21156,13 @@
         <v>4.2</v>
       </c>
       <c r="J187" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K187" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L187" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M187" t="n">
         <v>3.5</v>
@@ -21056,13 +21278,13 @@
         <v>9.5</v>
       </c>
       <c r="J188" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K188" t="n">
         <v>15</v>
       </c>
       <c r="L188" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M188" t="n">
         <v>4.5</v>
@@ -21300,10 +21522,10 @@
         <v>6.5</v>
       </c>
       <c r="J190" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K190" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L190" t="n">
         <v>1.29</v>
@@ -21324,10 +21546,10 @@
         <v>3</v>
       </c>
       <c r="R190" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S190" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T190" t="n">
         <v>6</v>
@@ -21345,7 +21567,7 @@
         <v>13</v>
       </c>
       <c r="Y190" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z190" t="n">
         <v>10</v>
@@ -21354,10 +21576,10 @@
         <v>8.5</v>
       </c>
       <c r="AB190" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC190" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD190" t="n">
         <v>351</v>
@@ -21464,7 +21686,7 @@
         <v>19</v>
       </c>
       <c r="X191" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y191" t="n">
         <v>26</v>
@@ -21497,7 +21719,7 @@
         <v>41</v>
       </c>
       <c r="AI191" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ191" t="n">
         <v>34</v>
@@ -21556,10 +21778,10 @@
         <v>4.33</v>
       </c>
       <c r="N192" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O192" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P192" t="n">
         <v>1.3</v>
@@ -21684,19 +21906,19 @@
         <v>2.35</v>
       </c>
       <c r="P193" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q193" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R193" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S193" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T193" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U193" t="n">
         <v>15</v>
@@ -21708,28 +21930,28 @@
         <v>26</v>
       </c>
       <c r="X193" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y193" t="n">
         <v>21</v>
       </c>
       <c r="Z193" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA193" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB193" t="n">
         <v>11</v>
       </c>
       <c r="AC193" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD193" t="n">
         <v>101</v>
       </c>
       <c r="AE193" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF193" t="n">
         <v>15</v>
@@ -21744,7 +21966,7 @@
         <v>19</v>
       </c>
       <c r="AJ193" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
@@ -22154,13 +22376,13 @@
         <v>3.8</v>
       </c>
       <c r="J197" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K197" t="n">
         <v>10</v>
       </c>
       <c r="L197" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M197" t="n">
         <v>3</v>
@@ -22181,7 +22403,7 @@
         <v>2</v>
       </c>
       <c r="S197" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T197" t="n">
         <v>6.5</v>
@@ -22276,22 +22498,22 @@
         <v>2.9</v>
       </c>
       <c r="J198" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K198" t="n">
         <v>10</v>
       </c>
       <c r="L198" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M198" t="n">
         <v>3.25</v>
       </c>
       <c r="N198" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O198" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P198" t="n">
         <v>1.44</v>
@@ -22300,10 +22522,10 @@
         <v>2.63</v>
       </c>
       <c r="R198" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S198" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T198" t="n">
         <v>7.5</v>
@@ -22398,13 +22620,13 @@
         <v>5.75</v>
       </c>
       <c r="J199" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K199" t="n">
         <v>11</v>
       </c>
       <c r="L199" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M199" t="n">
         <v>3.5</v>
@@ -22422,10 +22644,10 @@
         <v>3</v>
       </c>
       <c r="R199" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S199" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T199" t="n">
         <v>6.5</v>
@@ -22520,16 +22742,16 @@
         <v>1.4</v>
       </c>
       <c r="J200" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K200" t="n">
         <v>15</v>
       </c>
       <c r="L200" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M200" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N200" t="n">
         <v>1.7</v>
@@ -22538,19 +22760,19 @@
         <v>2.1</v>
       </c>
       <c r="P200" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q200" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R200" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="S200" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="T200" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U200" t="n">
         <v>41</v>
@@ -22568,37 +22790,37 @@
         <v>51</v>
       </c>
       <c r="Z200" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA200" t="n">
         <v>9</v>
       </c>
       <c r="AB200" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC200" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD200" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE200" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF200" t="n">
         <v>7</v>
-      </c>
-      <c r="AF200" t="n">
-        <v>6.5</v>
       </c>
       <c r="AG200" t="n">
         <v>8.5</v>
       </c>
       <c r="AH200" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI200" t="n">
         <v>12</v>
       </c>
       <c r="AJ200" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201">
@@ -22642,22 +22864,22 @@
         <v>3.4</v>
       </c>
       <c r="J201" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K201" t="n">
         <v>9</v>
       </c>
       <c r="L201" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M201" t="n">
         <v>3</v>
       </c>
       <c r="N201" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O201" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P201" t="n">
         <v>1.44</v>
@@ -22666,10 +22888,10 @@
         <v>2.63</v>
       </c>
       <c r="R201" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S201" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T201" t="n">
         <v>7</v>
@@ -22755,16 +22977,16 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H202" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I202" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J202" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K202" t="n">
         <v>10</v>
@@ -22773,31 +22995,31 @@
         <v>1.25</v>
       </c>
       <c r="M202" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N202" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O202" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P202" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q202" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R202" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S202" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T202" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U202" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V202" t="n">
         <v>9</v>
@@ -22812,7 +23034,7 @@
         <v>26</v>
       </c>
       <c r="Z202" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA202" t="n">
         <v>6</v>
@@ -22827,7 +23049,7 @@
         <v>201</v>
       </c>
       <c r="AE202" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF202" t="n">
         <v>19</v>
@@ -22880,43 +23102,43 @@
         <v>1.5</v>
       </c>
       <c r="H203" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I203" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J203" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K203" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L203" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M203" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N203" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="O203" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="P203" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q203" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R203" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S203" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="T203" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U203" t="n">
         <v>6.5</v>
@@ -22931,10 +23153,10 @@
         <v>13</v>
       </c>
       <c r="Y203" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z203" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA203" t="n">
         <v>8</v>
@@ -22943,7 +23165,7 @@
         <v>21</v>
       </c>
       <c r="AC203" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD203" t="n">
         <v>1250</v>
@@ -22999,19 +23221,19 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H204" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I204" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J204" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K204" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L204" t="n">
         <v>1.29</v>
@@ -23020,22 +23242,22 @@
         <v>3.5</v>
       </c>
       <c r="N204" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O204" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P204" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R204" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S204" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T204" t="n">
         <v>7</v>
@@ -23056,10 +23278,10 @@
         <v>26</v>
       </c>
       <c r="Z204" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA204" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB204" t="n">
         <v>15</v>
@@ -23071,16 +23293,16 @@
         <v>251</v>
       </c>
       <c r="AE204" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF204" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG204" t="n">
         <v>15</v>
       </c>
       <c r="AH204" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI204" t="n">
         <v>34</v>
@@ -23121,49 +23343,49 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J205" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K205" t="n">
+        <v>10</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P205" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S205" t="n">
+        <v>2</v>
+      </c>
+      <c r="T205" t="n">
         <v>8.5</v>
       </c>
-      <c r="L205" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M205" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N205" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O205" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P205" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q205" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R205" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S205" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T205" t="n">
-        <v>8</v>
-      </c>
       <c r="U205" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V205" t="n">
         <v>10</v>
@@ -23178,7 +23400,7 @@
         <v>29</v>
       </c>
       <c r="Z205" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA205" t="n">
         <v>6</v>
@@ -23187,13 +23409,13 @@
         <v>13</v>
       </c>
       <c r="AC205" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD205" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE205" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF205" t="n">
         <v>15</v>
@@ -23205,7 +23427,7 @@
         <v>29</v>
       </c>
       <c r="AI205" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ205" t="n">
         <v>34</v>
@@ -23270,7 +23492,7 @@
         <v>1.62</v>
       </c>
       <c r="P206" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q206" t="n">
         <v>2.5</v>
@@ -24054,10 +24276,10 @@
         <v>1.65</v>
       </c>
       <c r="J217" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K217" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L217" t="n">
         <v>1.13</v>
@@ -24188,10 +24410,10 @@
         <v>3.5</v>
       </c>
       <c r="N218" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O218" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P218" t="n">
         <v>1.36</v>
@@ -24295,13 +24517,13 @@
         <v>4.5</v>
       </c>
       <c r="I219" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J219" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K219" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L219" t="n">
         <v>1.25</v>
@@ -24411,19 +24633,19 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H220" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I220" t="n">
         <v>5</v>
       </c>
-      <c r="I220" t="n">
-        <v>5.25</v>
-      </c>
       <c r="J220" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K220" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L220" t="n">
         <v>1.17</v>
@@ -24453,40 +24675,40 @@
         <v>9</v>
       </c>
       <c r="U220" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V220" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W220" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X220" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y220" t="n">
         <v>21</v>
       </c>
       <c r="Z220" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA220" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB220" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC220" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD220" t="n">
         <v>151</v>
       </c>
       <c r="AE220" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF220" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG220" t="n">
         <v>17</v>
@@ -24533,10 +24755,10 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H221" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I221" t="n">
         <v>5.25</v>
@@ -24545,7 +24767,7 @@
         <v>1.03</v>
       </c>
       <c r="K221" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L221" t="n">
         <v>1.17</v>
@@ -24554,34 +24776,34 @@
         <v>5</v>
       </c>
       <c r="N221" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O221" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P221" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q221" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R221" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S221" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T221" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U221" t="n">
         <v>9</v>
-      </c>
-      <c r="U221" t="n">
-        <v>8.5</v>
       </c>
       <c r="V221" t="n">
         <v>8.5</v>
       </c>
       <c r="W221" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X221" t="n">
         <v>12</v>
@@ -24590,13 +24812,13 @@
         <v>21</v>
       </c>
       <c r="Z221" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA221" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB221" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC221" t="n">
         <v>41</v>
@@ -24605,7 +24827,7 @@
         <v>151</v>
       </c>
       <c r="AE221" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF221" t="n">
         <v>29</v>
@@ -24617,7 +24839,7 @@
         <v>51</v>
       </c>
       <c r="AI221" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ221" t="n">
         <v>34</v>
@@ -24902,36 +25124,96 @@
           <t>DPMM</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr"/>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="inlineStr"/>
-      <c r="T226" t="inlineStr"/>
-      <c r="U226" t="inlineStr"/>
-      <c r="V226" t="inlineStr"/>
-      <c r="W226" t="inlineStr"/>
-      <c r="X226" t="inlineStr"/>
-      <c r="Y226" t="inlineStr"/>
-      <c r="Z226" t="inlineStr"/>
-      <c r="AA226" t="inlineStr"/>
-      <c r="AB226" t="inlineStr"/>
-      <c r="AC226" t="inlineStr"/>
-      <c r="AD226" t="inlineStr"/>
-      <c r="AE226" t="inlineStr"/>
-      <c r="AF226" t="inlineStr"/>
-      <c r="AG226" t="inlineStr"/>
-      <c r="AH226" t="inlineStr"/>
-      <c r="AI226" t="inlineStr"/>
-      <c r="AJ226" t="inlineStr"/>
+      <c r="G226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H226" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I226" t="n">
+        <v>4</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K226" t="n">
+        <v>34</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M226" t="n">
+        <v>9</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O226" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P226" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>5</v>
+      </c>
+      <c r="R226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S226" t="n">
+        <v>3</v>
+      </c>
+      <c r="T226" t="n">
+        <v>17</v>
+      </c>
+      <c r="U226" t="n">
+        <v>13</v>
+      </c>
+      <c r="V226" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W226" t="n">
+        <v>15</v>
+      </c>
+      <c r="X226" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -24964,36 +25246,96 @@
           <t>Albirex Niigata</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="inlineStr"/>
-      <c r="N227" t="inlineStr"/>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="inlineStr"/>
-      <c r="T227" t="inlineStr"/>
-      <c r="U227" t="inlineStr"/>
-      <c r="V227" t="inlineStr"/>
-      <c r="W227" t="inlineStr"/>
-      <c r="X227" t="inlineStr"/>
-      <c r="Y227" t="inlineStr"/>
-      <c r="Z227" t="inlineStr"/>
-      <c r="AA227" t="inlineStr"/>
-      <c r="AB227" t="inlineStr"/>
-      <c r="AC227" t="inlineStr"/>
-      <c r="AD227" t="inlineStr"/>
-      <c r="AE227" t="inlineStr"/>
-      <c r="AF227" t="inlineStr"/>
-      <c r="AG227" t="inlineStr"/>
-      <c r="AH227" t="inlineStr"/>
-      <c r="AI227" t="inlineStr"/>
-      <c r="AJ227" t="inlineStr"/>
+      <c r="G227" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H227" t="n">
+        <v>5</v>
+      </c>
+      <c r="I227" t="n">
+        <v>4</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K227" t="n">
+        <v>34</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="M227" t="n">
+        <v>13</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O227" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P227" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>6</v>
+      </c>
+      <c r="R227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S227" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T227" t="n">
+        <v>21</v>
+      </c>
+      <c r="U227" t="n">
+        <v>17</v>
+      </c>
+      <c r="V227" t="n">
+        <v>10</v>
+      </c>
+      <c r="W227" t="n">
+        <v>19</v>
+      </c>
+      <c r="X227" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -25661,7 +26003,7 @@
         <v>2.1</v>
       </c>
       <c r="O233" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P233" t="n">
         <v>1.44</v>
@@ -25783,7 +26125,7 @@
         <v>2.35</v>
       </c>
       <c r="O234" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P234" t="n">
         <v>1.5</v>
@@ -25887,7 +26229,7 @@
         <v>3.2</v>
       </c>
       <c r="I235" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J235" t="n">
         <v>1.08</v>
@@ -26003,7 +26345,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H236" t="n">
         <v>3.4</v>
@@ -26125,7 +26467,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H237" t="n">
         <v>4.5</v>
@@ -26247,7 +26589,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H238" t="n">
         <v>3.3</v>
@@ -26375,13 +26717,13 @@
         <v>3.5</v>
       </c>
       <c r="I239" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J239" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K239" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L239" t="n">
         <v>1.3</v>
@@ -26390,10 +26732,10 @@
         <v>3.4</v>
       </c>
       <c r="N239" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O239" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P239" t="n">
         <v>1.4</v>
@@ -26402,16 +26744,16 @@
         <v>2.75</v>
       </c>
       <c r="R239" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S239" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T239" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U239" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V239" t="n">
         <v>9</v>
@@ -26423,10 +26765,10 @@
         <v>17</v>
       </c>
       <c r="Y239" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z239" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA239" t="n">
         <v>6.5</v>
@@ -26438,7 +26780,7 @@
         <v>51</v>
       </c>
       <c r="AD239" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE239" t="n">
         <v>11</v>
@@ -26453,7 +26795,7 @@
         <v>41</v>
       </c>
       <c r="AI239" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ239" t="n">
         <v>41</v>
@@ -26491,13 +26833,13 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H240" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I240" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J240" t="n">
         <v>1.06</v>
@@ -26506,22 +26848,22 @@
         <v>10</v>
       </c>
       <c r="L240" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M240" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N240" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O240" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P240" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q240" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R240" t="n">
         <v>2</v>
@@ -26530,13 +26872,13 @@
         <v>1.73</v>
       </c>
       <c r="T240" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U240" t="n">
         <v>7.5</v>
       </c>
       <c r="V240" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W240" t="n">
         <v>13</v>
@@ -26545,10 +26887,10 @@
         <v>15</v>
       </c>
       <c r="Y240" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z240" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA240" t="n">
         <v>7</v>
@@ -26566,7 +26908,7 @@
         <v>11</v>
       </c>
       <c r="AF240" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG240" t="n">
         <v>15</v>
@@ -26613,19 +26955,19 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H241" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J241" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K241" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L241" t="n">
         <v>1.4</v>
@@ -26634,22 +26976,22 @@
         <v>2.75</v>
       </c>
       <c r="N241" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O241" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P241" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q241" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R241" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S241" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T241" t="n">
         <v>5</v>
@@ -26670,20 +27012,20 @@
         <v>41</v>
       </c>
       <c r="Z241" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA241" t="n">
         <v>8</v>
       </c>
       <c r="AB241" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC241" t="n">
         <v>101</v>
       </c>
       <c r="AD241" t="inlineStr"/>
       <c r="AE241" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF241" t="n">
         <v>34</v>
@@ -26766,10 +27108,10 @@
         <v>2.75</v>
       </c>
       <c r="R242" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S242" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T242" t="n">
         <v>10</v>
@@ -26891,7 +27233,7 @@
         <v>2</v>
       </c>
       <c r="S243" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T243" t="n">
         <v>7.5</v>
@@ -27013,7 +27355,7 @@
         <v>2.1</v>
       </c>
       <c r="S244" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T244" t="n">
         <v>6</v>
@@ -27135,7 +27477,7 @@
         <v>2</v>
       </c>
       <c r="S245" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T245" t="n">
         <v>7</v>
@@ -27224,16 +27566,16 @@
         <v>1.55</v>
       </c>
       <c r="H246" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I246" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J246" t="n">
         <v>1.03</v>
       </c>
       <c r="K246" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L246" t="n">
         <v>1.29</v>
@@ -27242,10 +27584,10 @@
         <v>3.5</v>
       </c>
       <c r="N246" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O246" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P246" t="n">
         <v>1.36</v>
@@ -27254,19 +27596,19 @@
         <v>3</v>
       </c>
       <c r="R246" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S246" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T246" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U246" t="n">
         <v>7.5</v>
       </c>
       <c r="V246" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W246" t="n">
         <v>11</v>
@@ -27278,10 +27620,10 @@
         <v>29</v>
       </c>
       <c r="Z246" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA246" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB246" t="n">
         <v>17</v>
@@ -27308,7 +27650,7 @@
         <v>41</v>
       </c>
       <c r="AJ246" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="247">
@@ -27376,10 +27718,10 @@
         <v>2.63</v>
       </c>
       <c r="R247" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S247" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T247" t="n">
         <v>8.5</v>
@@ -27656,7 +27998,7 @@
         <v>67</v>
       </c>
       <c r="AD249" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE249" t="n">
         <v>9</v>
@@ -27831,7 +28173,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H251" t="n">
         <v>3.25</v>
@@ -27840,13 +28182,13 @@
         <v>3.2</v>
       </c>
       <c r="J251" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K251" t="n">
         <v>7</v>
       </c>
       <c r="L251" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M251" t="n">
         <v>2.5</v>
@@ -27951,7 +28293,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H252" t="n">
         <v>4.75</v>
@@ -27960,13 +28302,13 @@
         <v>6.5</v>
       </c>
       <c r="J252" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K252" t="n">
         <v>17</v>
       </c>
       <c r="L252" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M252" t="n">
         <v>5</v>
@@ -28079,25 +28421,25 @@
         <v>4.1</v>
       </c>
       <c r="I253" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J253" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K253" t="n">
         <v>11</v>
       </c>
       <c r="L253" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M253" t="n">
         <v>3.5</v>
       </c>
       <c r="N253" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O253" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P253" t="n">
         <v>1.4</v>
@@ -28195,40 +28537,40 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H254" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I254" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J254" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K254" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L254" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M254" t="n">
         <v>3.75</v>
       </c>
       <c r="N254" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="O254" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="P254" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q254" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R254" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S254" t="n">
         <v>2</v>
@@ -28252,7 +28594,7 @@
         <v>41</v>
       </c>
       <c r="Z254" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA254" t="n">
         <v>7</v>
@@ -28261,16 +28603,16 @@
         <v>15</v>
       </c>
       <c r="AC254" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD254" t="n">
         <v>201</v>
       </c>
       <c r="AE254" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF254" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG254" t="n">
         <v>8.5</v>
@@ -28279,7 +28621,7 @@
         <v>15</v>
       </c>
       <c r="AI254" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ254" t="n">
         <v>23</v>
@@ -28326,22 +28668,22 @@
         <v>2.7</v>
       </c>
       <c r="J255" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K255" t="n">
         <v>11</v>
       </c>
       <c r="L255" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M255" t="n">
         <v>3.5</v>
       </c>
       <c r="N255" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O255" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P255" t="n">
         <v>1.4</v>
@@ -28350,7 +28692,7 @@
         <v>2.75</v>
       </c>
       <c r="R255" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S255" t="n">
         <v>2</v>
@@ -28442,10 +28784,10 @@
         <v>1.53</v>
       </c>
       <c r="H256" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I256" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J256" t="n">
         <v>1.04</v>
@@ -28460,10 +28802,10 @@
         <v>3.75</v>
       </c>
       <c r="N256" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O256" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P256" t="n">
         <v>1.36</v>
@@ -28472,13 +28814,13 @@
         <v>3</v>
       </c>
       <c r="R256" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S256" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="T256" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U256" t="n">
         <v>7</v>
@@ -28493,7 +28835,7 @@
         <v>13</v>
       </c>
       <c r="Y256" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z256" t="n">
         <v>12</v>
@@ -28502,13 +28844,13 @@
         <v>8.5</v>
       </c>
       <c r="AB256" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC256" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD256" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE256" t="n">
         <v>13</v>
@@ -28594,7 +28936,7 @@
         <v>3.4</v>
       </c>
       <c r="R257" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S257" t="n">
         <v>2.25</v>
@@ -28716,7 +29058,7 @@
         <v>3.5</v>
       </c>
       <c r="R258" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S258" t="n">
         <v>2.5</v>
@@ -28936,13 +29278,13 @@
         <v>3.25</v>
       </c>
       <c r="J260" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K260" t="n">
         <v>10</v>
       </c>
       <c r="L260" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M260" t="n">
         <v>3.25</v>
@@ -28960,10 +29302,10 @@
         <v>2.75</v>
       </c>
       <c r="R260" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S260" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T260" t="n">
         <v>7.5</v>
@@ -29049,7 +29391,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="H261" t="n">
         <v>10</v>
@@ -29064,10 +29406,10 @@
         <v>1.01</v>
       </c>
       <c r="L261" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="M261" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N261" t="n">
         <v>1.18</v>
@@ -29082,22 +29424,22 @@
         <v>6</v>
       </c>
       <c r="R261" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S261" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T261" t="n">
         <v>17</v>
       </c>
       <c r="U261" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V261" t="n">
         <v>13</v>
       </c>
       <c r="W261" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X261" t="n">
         <v>11</v>
@@ -29115,10 +29457,10 @@
         <v>29</v>
       </c>
       <c r="AC261" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD261" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE261" t="n">
         <v>51</v>
@@ -29171,7 +29513,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H262" t="n">
         <v>7</v>
@@ -29183,19 +29525,19 @@
         <v>1.01</v>
       </c>
       <c r="K262" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L262" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="M262" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N262" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O262" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P262" t="n">
         <v>1.18</v>
@@ -29204,7 +29546,7 @@
         <v>4.5</v>
       </c>
       <c r="R262" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S262" t="n">
         <v>2</v>
@@ -29299,43 +29641,43 @@
         <v>4.2</v>
       </c>
       <c r="I263" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J263" t="n">
         <v>1.03</v>
       </c>
       <c r="K263" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L263" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="M263" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="N263" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O263" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P263" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q263" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R263" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S263" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="T263" t="n">
+        <v>10</v>
+      </c>
+      <c r="U263" t="n">
         <v>9.5</v>
-      </c>
-      <c r="U263" t="n">
-        <v>9</v>
       </c>
       <c r="V263" t="n">
         <v>8.5</v>
@@ -29344,10 +29686,10 @@
         <v>12</v>
       </c>
       <c r="X263" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y263" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z263" t="n">
         <v>19</v>
@@ -29362,10 +29704,10 @@
         <v>41</v>
       </c>
       <c r="AD263" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE263" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF263" t="n">
         <v>29</v>
@@ -29674,10 +30016,10 @@
         <v>4</v>
       </c>
       <c r="N266" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O266" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P266" t="n">
         <v>1.3</v>
@@ -29686,7 +30028,7 @@
         <v>3.4</v>
       </c>
       <c r="R266" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S266" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
@@ -1644,10 +1644,10 @@
         <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="O10" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1888,10 +1888,10 @@
         <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="O12" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="P12" t="n">
         <v>1.36</v>
@@ -2016,7 +2016,7 @@
         <v>1.89</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q13" t="n">
         <v>2.75</v>
@@ -2136,7 +2136,7 @@
         <v>2.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
         <v>3.5</v>
@@ -2258,7 +2258,7 @@
         <v>2.88</v>
       </c>
       <c r="P15" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="Q15" t="n">
         <v>4</v>
@@ -2380,7 +2380,7 @@
         <v>2.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
         <v>3.5</v>
@@ -2502,7 +2502,7 @@
         <v>2.6</v>
       </c>
       <c r="P17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="Q17" t="n">
         <v>4</v>
@@ -2624,7 +2624,7 @@
         <v>2.05</v>
       </c>
       <c r="P18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q18" t="n">
         <v>3.25</v>
@@ -2841,13 +2841,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.01</v>
@@ -2880,7 +2880,7 @@
         <v>3.25</v>
       </c>
       <c r="T20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U20" t="n">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>21</v>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>2.9</v>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H22" t="n">
         <v>3.75</v>
@@ -3925,10 +3925,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
@@ -3937,7 +3937,7 @@
         <v>1.07</v>
       </c>
       <c r="K29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.4</v>
@@ -3946,16 +3946,16 @@
         <v>2.75</v>
       </c>
       <c r="N29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P29" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R29" t="n">
         <v>2.38</v>
@@ -3976,19 +3976,19 @@
         <v>11</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
         <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
         <v>101</v>
@@ -3998,13 +3998,13 @@
         <v>10</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
         <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI29" t="n">
         <v>51</v>
@@ -4072,7 +4072,7 @@
         <v>1.29</v>
       </c>
       <c r="P30" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q30" t="n">
         <v>2.03</v>
@@ -4540,10 +4540,10 @@
         <v>5.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N34" t="n">
         <v>3.4</v>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H35" t="n">
         <v>3.75</v>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
@@ -4910,10 +4910,10 @@
         <v>5.4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="O37" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="P37" t="n">
         <v>1.23</v>
@@ -5342,10 +5342,10 @@
         <v>3.75</v>
       </c>
       <c r="N43" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
         <v>1.33</v>
@@ -5354,7 +5354,7 @@
         <v>3.25</v>
       </c>
       <c r="R43" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S43" t="n">
         <v>2.1</v>
@@ -5476,10 +5476,10 @@
         <v>3.4</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S44" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T44" t="n">
         <v>11</v>
@@ -5598,7 +5598,7 @@
         <v>3.5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S45" t="n">
         <v>2.25</v>
@@ -5720,7 +5720,7 @@
         <v>3.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S46" t="n">
         <v>2.25</v>
@@ -5830,7 +5830,7 @@
         <v>6</v>
       </c>
       <c r="N47" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O47" t="n">
         <v>2.7</v>
@@ -5952,7 +5952,7 @@
         <v>8</v>
       </c>
       <c r="N48" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="O48" t="n">
         <v>3.5</v>
@@ -6074,7 +6074,7 @@
         <v>4.5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O49" t="n">
         <v>2.25</v>
@@ -6781,7 +6781,7 @@
         <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.4</v>
@@ -7402,10 +7402,10 @@
         <v>1.7</v>
       </c>
       <c r="P60" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R60" t="n">
         <v>2</v>
@@ -7524,7 +7524,7 @@
         <v>1.62</v>
       </c>
       <c r="P61" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q61" t="n">
         <v>2.5</v>
@@ -7646,7 +7646,7 @@
         <v>2.08</v>
       </c>
       <c r="P62" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q62" t="n">
         <v>3.25</v>
@@ -9069,13 +9069,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H78" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I78" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J78" t="n">
         <v>1.11</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="H79" t="n">
         <v>6</v>
@@ -10273,13 +10273,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="I88" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -10305,58 +10305,58 @@
         <v>1.62</v>
       </c>
       <c r="S88" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T88" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U88" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="V88" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W88" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X88" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y88" t="n">
         <v>30</v>
       </c>
       <c r="Z88" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA88" t="n">
         <v>5.3</v>
       </c>
       <c r="AB88" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC88" t="n">
         <v>50</v>
       </c>
       <c r="AD88" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE88" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF88" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG88" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH88" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AI88" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ88" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
@@ -10502,10 +10502,10 @@
         <v>1.38</v>
       </c>
       <c r="H90" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I90" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -10534,7 +10534,7 @@
         <v>1.62</v>
       </c>
       <c r="T90" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U90" t="n">
         <v>6.1</v>
@@ -10558,7 +10558,7 @@
         <v>8.75</v>
       </c>
       <c r="AB90" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC90" t="n">
         <v>120</v>
@@ -10567,7 +10567,7 @@
         <v>700</v>
       </c>
       <c r="AE90" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF90" t="n">
         <v>45</v>
@@ -10638,7 +10638,7 @@
         <v>4.33</v>
       </c>
       <c r="N91" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O91" t="n">
         <v>2.2</v>
@@ -10763,7 +10763,7 @@
         <v>2.15</v>
       </c>
       <c r="O92" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P92" t="n">
         <v>1.44</v>
@@ -11593,13 +11593,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H99" t="n">
         <v>3.3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J99" t="n">
         <v>1.07</v>
@@ -11632,19 +11632,19 @@
         <v>1.8</v>
       </c>
       <c r="T99" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V99" t="n">
         <v>10</v>
       </c>
       <c r="W99" t="n">
+        <v>26</v>
+      </c>
+      <c r="X99" t="n">
         <v>23</v>
-      </c>
-      <c r="X99" t="n">
-        <v>21</v>
       </c>
       <c r="Y99" t="n">
         <v>34</v>
@@ -11668,19 +11668,19 @@
         <v>7.5</v>
       </c>
       <c r="AF99" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH99" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI99" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
@@ -11739,7 +11739,7 @@
         <v>2.15</v>
       </c>
       <c r="O100" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P100" t="n">
         <v>1.44</v>
@@ -11748,10 +11748,10 @@
         <v>2.63</v>
       </c>
       <c r="R100" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S100" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T100" t="n">
         <v>7.5</v>
@@ -11846,13 +11846,13 @@
         <v>5.25</v>
       </c>
       <c r="J101" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K101" t="n">
         <v>15</v>
       </c>
       <c r="L101" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M101" t="n">
         <v>4.33</v>
@@ -11870,7 +11870,7 @@
         <v>3.4</v>
       </c>
       <c r="R101" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S101" t="n">
         <v>2.05</v>
@@ -11968,13 +11968,13 @@
         <v>4.1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K102" t="n">
         <v>15</v>
       </c>
       <c r="L102" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M102" t="n">
         <v>4.5</v>
@@ -12090,13 +12090,13 @@
         <v>3.1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K103" t="n">
         <v>15</v>
       </c>
       <c r="L103" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M103" t="n">
         <v>4.5</v>
@@ -12212,13 +12212,13 @@
         <v>3.6</v>
       </c>
       <c r="J104" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K104" t="n">
         <v>11</v>
       </c>
       <c r="L104" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M104" t="n">
         <v>3.5</v>
@@ -12334,13 +12334,13 @@
         <v>3.7</v>
       </c>
       <c r="J105" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K105" t="n">
         <v>13</v>
       </c>
       <c r="L105" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M105" t="n">
         <v>3.75</v>
@@ -12447,13 +12447,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H106" t="n">
         <v>3.2</v>
       </c>
       <c r="I106" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="J106" t="n">
         <v>1.07</v>
@@ -12471,7 +12471,7 @@
         <v>2.15</v>
       </c>
       <c r="O106" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P106" t="n">
         <v>1.44</v>
@@ -12569,7 +12569,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H107" t="n">
         <v>3.6</v>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H108" t="n">
         <v>3.1</v>
@@ -12715,7 +12715,7 @@
         <v>2.25</v>
       </c>
       <c r="O108" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P108" t="n">
         <v>1.44</v>
@@ -14409,19 +14409,19 @@
         <v>1.03</v>
       </c>
       <c r="K124" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L124" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M124" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N124" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O124" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P124" t="n">
         <v>1.29</v>
@@ -14528,16 +14528,16 @@
         <v>2.9</v>
       </c>
       <c r="J125" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L125" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M125" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N125" t="n">
         <v>2.1</v>
@@ -14546,10 +14546,10 @@
         <v>1.7</v>
       </c>
       <c r="P125" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R125" t="n">
         <v>1.91</v>
@@ -14668,7 +14668,7 @@
         <v>1.85</v>
       </c>
       <c r="P126" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q126" t="n">
         <v>2.75</v>
@@ -14898,16 +14898,16 @@
         <v>11</v>
       </c>
       <c r="L128" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M128" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N128" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O128" t="n">
         <v>1.88</v>
-      </c>
-      <c r="O128" t="n">
-        <v>1.98</v>
       </c>
       <c r="P128" t="n">
         <v>1.4</v>
@@ -15005,13 +15005,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I129" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J129" t="n">
         <v>1.04</v>
@@ -15026,7 +15026,7 @@
         <v>4</v>
       </c>
       <c r="N129" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O129" t="n">
         <v>2.05</v>
@@ -15053,10 +15053,10 @@
         <v>9</v>
       </c>
       <c r="W129" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y129" t="n">
         <v>23</v>
@@ -15077,10 +15077,10 @@
         <v>151</v>
       </c>
       <c r="AE129" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF129" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG129" t="n">
         <v>12</v>
@@ -15089,7 +15089,7 @@
         <v>34</v>
       </c>
       <c r="AI129" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ129" t="n">
         <v>29</v>
@@ -15485,13 +15485,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H133" t="n">
         <v>3.3</v>
       </c>
       <c r="I133" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -15502,10 +15502,10 @@
         <v>3.25</v>
       </c>
       <c r="N133" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O133" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
@@ -15513,7 +15513,7 @@
         <v>1.6</v>
       </c>
       <c r="S133" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T133" t="n">
         <v>8.75</v>
@@ -15522,16 +15522,16 @@
         <v>11.5</v>
       </c>
       <c r="V133" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W133" t="n">
         <v>22</v>
       </c>
       <c r="X133" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y133" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z133" t="n">
         <v>10.75</v>
@@ -15549,7 +15549,7 @@
         <v>350</v>
       </c>
       <c r="AE133" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF133" t="n">
         <v>17</v>
@@ -15561,7 +15561,7 @@
         <v>40</v>
       </c>
       <c r="AI133" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ133" t="n">
         <v>30</v>
@@ -15744,16 +15744,16 @@
         <v>2.25</v>
       </c>
       <c r="P135" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q135" t="n">
         <v>3.5</v>
       </c>
       <c r="R135" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S135" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T135" t="n">
         <v>13</v>
@@ -16170,10 +16170,10 @@
         <v>3.5</v>
       </c>
       <c r="N141" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="O141" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -16542,7 +16542,7 @@
         <v>1.62</v>
       </c>
       <c r="P144" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q144" t="n">
         <v>2.5</v>
@@ -16664,7 +16664,7 @@
         <v>2.1</v>
       </c>
       <c r="P145" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q145" t="n">
         <v>3.4</v>
@@ -16786,10 +16786,10 @@
         <v>1.7</v>
       </c>
       <c r="P146" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R146" t="n">
         <v>1.91</v>
@@ -16908,10 +16908,10 @@
         <v>1.5</v>
       </c>
       <c r="P147" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R147" t="n">
         <v>2.1</v>
@@ -17030,7 +17030,7 @@
         <v>1.83</v>
       </c>
       <c r="P148" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q148" t="n">
         <v>2.75</v>
@@ -17125,19 +17125,19 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H149" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I149" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3.4</v>
       </c>
       <c r="J149" t="n">
         <v>1.04</v>
       </c>
       <c r="K149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L149" t="n">
         <v>1.22</v>
@@ -17146,13 +17146,13 @@
         <v>4</v>
       </c>
       <c r="N149" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O149" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P149" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q149" t="n">
         <v>3.25</v>
@@ -17203,13 +17203,13 @@
         <v>19</v>
       </c>
       <c r="AG149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH149" t="n">
         <v>41</v>
       </c>
       <c r="AI149" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ149" t="n">
         <v>34</v>
@@ -17274,7 +17274,7 @@
         <v>1.78</v>
       </c>
       <c r="P150" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q150" t="n">
         <v>2.75</v>
@@ -17381,7 +17381,7 @@
         <v>1.08</v>
       </c>
       <c r="K151" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L151" t="n">
         <v>1.4</v>
@@ -17866,22 +17866,22 @@
         <v>2.75</v>
       </c>
       <c r="J155" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K155" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L155" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M155" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N155" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O155" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P155" t="n">
         <v>1.57</v>
@@ -17986,22 +17986,22 @@
         <v>4.1</v>
       </c>
       <c r="J156" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K156" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L156" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M156" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N156" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O156" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P156" t="n">
         <v>1.44</v>
@@ -18533,13 +18533,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="H161" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I161" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J161" t="n">
         <v>1.05</v>
@@ -18575,7 +18575,7 @@
         <v>7.5</v>
       </c>
       <c r="U161" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V161" t="n">
         <v>8.5</v>
@@ -18584,7 +18584,7 @@
         <v>13</v>
       </c>
       <c r="X161" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y161" t="n">
         <v>26</v>
@@ -18605,7 +18605,7 @@
         <v>251</v>
       </c>
       <c r="AE161" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF161" t="n">
         <v>26</v>
@@ -18777,13 +18777,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H163" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I163" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -18802,58 +18802,58 @@
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S163" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T163" t="n">
         <v>8.5</v>
       </c>
       <c r="U163" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V163" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W163" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X163" t="n">
         <v>13.5</v>
       </c>
       <c r="Y163" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z163" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA163" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB163" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC163" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD163" t="n">
         <v>350</v>
       </c>
       <c r="AE163" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF163" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG163" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH163" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI163" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ163" t="n">
         <v>35</v>
@@ -18894,10 +18894,10 @@
         <v>1.65</v>
       </c>
       <c r="H164" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I164" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -18911,7 +18911,7 @@
         <v>1.78</v>
       </c>
       <c r="O164" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
@@ -18919,22 +18919,22 @@
         <v>1.78</v>
       </c>
       <c r="S164" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T164" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="U164" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="V164" t="n">
         <v>8.25</v>
       </c>
       <c r="W164" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X164" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y164" t="n">
         <v>26</v>
@@ -18943,7 +18943,7 @@
         <v>10.75</v>
       </c>
       <c r="AA164" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB164" t="n">
         <v>16</v>
@@ -18955,10 +18955,10 @@
         <v>600</v>
       </c>
       <c r="AE164" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF164" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG164" t="n">
         <v>15</v>
@@ -18970,7 +18970,7 @@
         <v>45</v>
       </c>
       <c r="AJ164" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165">
@@ -19448,13 +19448,13 @@
         <v>3</v>
       </c>
       <c r="J172" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K172" t="n">
         <v>15</v>
       </c>
       <c r="L172" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M172" t="n">
         <v>4.33</v>
@@ -19570,13 +19570,13 @@
         <v>2.05</v>
       </c>
       <c r="J173" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K173" t="n">
         <v>11</v>
       </c>
       <c r="L173" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M173" t="n">
         <v>3.5</v>
@@ -19683,31 +19683,31 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>3</v>
       </c>
       <c r="I174" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J174" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K174" t="n">
         <v>8</v>
       </c>
       <c r="L174" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M174" t="n">
         <v>2.75</v>
       </c>
       <c r="N174" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O174" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P174" t="n">
         <v>1.5</v>
@@ -19734,7 +19734,7 @@
         <v>23</v>
       </c>
       <c r="X174" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y174" t="n">
         <v>34</v>
@@ -19746,28 +19746,28 @@
         <v>6</v>
       </c>
       <c r="AB174" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC174" t="n">
         <v>51</v>
       </c>
       <c r="AD174" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE174" t="n">
         <v>8</v>
       </c>
       <c r="AF174" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG174" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH174" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI174" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ174" t="n">
         <v>41</v>
@@ -22376,13 +22376,13 @@
         <v>3.8</v>
       </c>
       <c r="J197" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K197" t="n">
         <v>10</v>
       </c>
       <c r="L197" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M197" t="n">
         <v>3</v>
@@ -22403,7 +22403,7 @@
         <v>2</v>
       </c>
       <c r="S197" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T197" t="n">
         <v>6.5</v>
@@ -22498,13 +22498,13 @@
         <v>2.9</v>
       </c>
       <c r="J198" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K198" t="n">
         <v>10</v>
       </c>
       <c r="L198" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M198" t="n">
         <v>3.25</v>
@@ -22522,10 +22522,10 @@
         <v>2.63</v>
       </c>
       <c r="R198" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S198" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T198" t="n">
         <v>7.5</v>
@@ -22620,13 +22620,13 @@
         <v>5.75</v>
       </c>
       <c r="J199" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K199" t="n">
         <v>11</v>
       </c>
       <c r="L199" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M199" t="n">
         <v>3.5</v>
@@ -22644,10 +22644,10 @@
         <v>3</v>
       </c>
       <c r="R199" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S199" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T199" t="n">
         <v>6.5</v>
@@ -22742,13 +22742,13 @@
         <v>1.4</v>
       </c>
       <c r="J200" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K200" t="n">
         <v>15</v>
       </c>
       <c r="L200" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M200" t="n">
         <v>4.33</v>
@@ -22766,10 +22766,10 @@
         <v>3.4</v>
       </c>
       <c r="R200" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S200" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T200" t="n">
         <v>19</v>
@@ -22864,13 +22864,13 @@
         <v>3.4</v>
       </c>
       <c r="J201" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K201" t="n">
         <v>9</v>
       </c>
       <c r="L201" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M201" t="n">
         <v>3</v>
@@ -22888,10 +22888,10 @@
         <v>2.63</v>
       </c>
       <c r="R201" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S201" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T201" t="n">
         <v>7</v>
@@ -22977,22 +22977,22 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H202" t="n">
         <v>3</v>
       </c>
       <c r="I202" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J202" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K202" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L202" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M202" t="n">
         <v>3.5</v>
@@ -23010,7 +23010,7 @@
         <v>2.75</v>
       </c>
       <c r="R202" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S202" t="n">
         <v>2</v>
@@ -23019,13 +23019,13 @@
         <v>8</v>
       </c>
       <c r="U202" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V202" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W202" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X202" t="n">
         <v>17</v>
@@ -23052,16 +23052,16 @@
         <v>11</v>
       </c>
       <c r="AF202" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG202" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH202" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI202" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ202" t="n">
         <v>34</v>
@@ -23108,13 +23108,13 @@
         <v>5.75</v>
       </c>
       <c r="J203" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K203" t="n">
         <v>11</v>
       </c>
       <c r="L203" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M203" t="n">
         <v>3.5</v>
@@ -23135,7 +23135,7 @@
         <v>2.1</v>
       </c>
       <c r="S203" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T203" t="n">
         <v>6.5</v>
@@ -23248,7 +23248,7 @@
         <v>1.88</v>
       </c>
       <c r="P204" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q204" t="n">
         <v>3</v>
@@ -23370,7 +23370,7 @@
         <v>1.8</v>
       </c>
       <c r="P205" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q205" t="n">
         <v>2.75</v>
@@ -23492,7 +23492,7 @@
         <v>1.62</v>
       </c>
       <c r="P206" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q206" t="n">
         <v>2.5</v>
@@ -24517,7 +24517,7 @@
         <v>4.5</v>
       </c>
       <c r="I219" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J219" t="n">
         <v>1.04</v>
@@ -24633,7 +24633,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H220" t="n">
         <v>4.75</v>
@@ -24642,10 +24642,10 @@
         <v>5</v>
       </c>
       <c r="J220" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K220" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L220" t="n">
         <v>1.17</v>
@@ -24666,10 +24666,10 @@
         <v>3.75</v>
       </c>
       <c r="R220" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S220" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T220" t="n">
         <v>9</v>
@@ -24720,7 +24720,7 @@
         <v>41</v>
       </c>
       <c r="AJ220" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="221">
@@ -24755,7 +24755,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H221" t="n">
         <v>4.2</v>
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H226" t="n">
         <v>4.75</v>
@@ -25146,7 +25146,7 @@
         <v>9</v>
       </c>
       <c r="N226" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="O226" t="n">
         <v>3.6</v>
@@ -25247,7 +25247,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H227" t="n">
         <v>5</v>
@@ -25268,7 +25268,7 @@
         <v>13</v>
       </c>
       <c r="N227" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="O227" t="n">
         <v>4.5</v>
@@ -25369,49 +25369,49 @@
         </is>
       </c>
       <c r="G228" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K228" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M228" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O228" t="n">
         <v>1.91</v>
       </c>
-      <c r="H228" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I228" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K228" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L228" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M228" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N228" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O228" t="n">
-        <v>2.02</v>
-      </c>
       <c r="P228" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q228" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="R228" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S228" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T228" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="U228" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V228" t="n">
         <v>8.75</v>
@@ -25420,28 +25420,28 @@
         <v>18.5</v>
       </c>
       <c r="X228" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y228" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z228" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AA228" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB228" t="n">
         <v>14</v>
       </c>
       <c r="AC228" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD228" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE228" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF228" t="n">
         <v>24</v>
@@ -25453,10 +25453,10 @@
         <v>65</v>
       </c>
       <c r="AI228" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ228" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="229">
@@ -25491,49 +25491,49 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H229" t="n">
         <v>3.5</v>
       </c>
       <c r="I229" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J229" t="n">
         <v>1.06</v>
       </c>
       <c r="K229" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L229" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M229" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N229" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O229" t="n">
         <v>1.83</v>
       </c>
-      <c r="O229" t="n">
-        <v>1.91</v>
-      </c>
       <c r="P229" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q229" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R229" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S229" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="T229" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="U229" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="V229" t="n">
         <v>8.75</v>
@@ -25542,31 +25542,31 @@
         <v>17</v>
       </c>
       <c r="X229" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB229" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y229" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z229" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA229" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB229" t="n">
-        <v>15</v>
-      </c>
       <c r="AC229" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD229" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE229" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF229" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG229" t="n">
         <v>14</v>
@@ -25578,7 +25578,7 @@
         <v>40</v>
       </c>
       <c r="AJ229" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230">
@@ -25866,22 +25866,22 @@
         <v>1.95</v>
       </c>
       <c r="J232" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K232" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L232" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M232" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N232" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O232" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="P232" t="n">
         <v>1.4</v>
@@ -26003,7 +26003,7 @@
         <v>2.1</v>
       </c>
       <c r="O233" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P233" t="n">
         <v>1.44</v>
@@ -26125,7 +26125,7 @@
         <v>2.35</v>
       </c>
       <c r="O234" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P234" t="n">
         <v>1.5</v>
@@ -26229,25 +26229,25 @@
         <v>3.2</v>
       </c>
       <c r="I235" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J235" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K235" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L235" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M235" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N235" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O235" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P235" t="n">
         <v>1.44</v>
@@ -26345,7 +26345,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H236" t="n">
         <v>3.4</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H237" t="n">
         <v>4.5</v>
       </c>
       <c r="I237" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J237" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K237" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L237" t="n">
         <v>1.2</v>
@@ -26488,10 +26488,10 @@
         <v>4.33</v>
       </c>
       <c r="N237" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O237" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P237" t="n">
         <v>1.3</v>
@@ -26500,10 +26500,10 @@
         <v>3.4</v>
       </c>
       <c r="R237" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S237" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T237" t="n">
         <v>7.5</v>
@@ -26524,7 +26524,7 @@
         <v>26</v>
       </c>
       <c r="Z237" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA237" t="n">
         <v>9.5</v>
@@ -26539,22 +26539,22 @@
         <v>301</v>
       </c>
       <c r="AE237" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF237" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG237" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH237" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI237" t="n">
         <v>51</v>
       </c>
       <c r="AJ237" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="238">
@@ -26589,7 +26589,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H238" t="n">
         <v>3.3</v>
@@ -26711,7 +26711,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H239" t="n">
         <v>3.5</v>
@@ -26833,7 +26833,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H240" t="n">
         <v>3.6</v>
@@ -26854,10 +26854,10 @@
         <v>3</v>
       </c>
       <c r="N240" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O240" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P240" t="n">
         <v>1.44</v>
@@ -26955,7 +26955,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H241" t="n">
         <v>4</v>
@@ -27998,7 +27998,7 @@
         <v>67</v>
       </c>
       <c r="AD249" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE249" t="n">
         <v>9</v>
@@ -28173,7 +28173,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H251" t="n">
         <v>3.25</v>
@@ -28194,10 +28194,10 @@
         <v>2.5</v>
       </c>
       <c r="N251" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O251" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P251" t="n">
         <v>1.57</v>
@@ -28293,7 +28293,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="H252" t="n">
         <v>4.75</v>
@@ -28421,7 +28421,7 @@
         <v>4.1</v>
       </c>
       <c r="I253" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J253" t="n">
         <v>1.05</v>
@@ -28570,7 +28570,7 @@
         <v>3.25</v>
       </c>
       <c r="R254" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S254" t="n">
         <v>2</v>
@@ -28692,7 +28692,7 @@
         <v>2.75</v>
       </c>
       <c r="R255" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S255" t="n">
         <v>2</v>
@@ -28781,7 +28781,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H256" t="n">
         <v>4.5</v>
@@ -28793,7 +28793,7 @@
         <v>1.04</v>
       </c>
       <c r="K256" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L256" t="n">
         <v>1.25</v>
@@ -28808,16 +28808,16 @@
         <v>1.98</v>
       </c>
       <c r="P256" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q256" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R256" t="n">
         <v>2</v>
       </c>
       <c r="S256" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T256" t="n">
         <v>6.5</v>
@@ -28829,7 +28829,7 @@
         <v>8.5</v>
       </c>
       <c r="W256" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X256" t="n">
         <v>13</v>
@@ -29278,13 +29278,13 @@
         <v>3.25</v>
       </c>
       <c r="J260" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K260" t="n">
         <v>10</v>
       </c>
       <c r="L260" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M260" t="n">
         <v>3.25</v>
@@ -29302,10 +29302,10 @@
         <v>2.75</v>
       </c>
       <c r="R260" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S260" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T260" t="n">
         <v>7.5</v>
@@ -29391,7 +29391,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="H261" t="n">
         <v>10</v>
@@ -29406,7 +29406,7 @@
         <v>1.01</v>
       </c>
       <c r="L261" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="M261" t="n">
         <v>13</v>
@@ -29424,10 +29424,10 @@
         <v>6</v>
       </c>
       <c r="R261" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S261" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T261" t="n">
         <v>17</v>
@@ -29513,7 +29513,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H262" t="n">
         <v>7</v>
@@ -29528,7 +29528,7 @@
         <v>29</v>
       </c>
       <c r="L262" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="M262" t="n">
         <v>8</v>
@@ -29546,7 +29546,7 @@
         <v>4.5</v>
       </c>
       <c r="R262" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S262" t="n">
         <v>2</v>
@@ -29635,7 +29635,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H263" t="n">
         <v>4.2</v>
@@ -30028,7 +30028,7 @@
         <v>3.4</v>
       </c>
       <c r="R266" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S266" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
         <v>1.22</v>
@@ -930,7 +930,7 @@
         <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
         <v>7</v>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>81</v>
@@ -963,22 +963,22 @@
         <v>501</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI4" t="n">
         <v>67</v>
       </c>
       <c r="AJ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1644,10 +1644,10 @@
         <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O10" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="n">
         <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.3</v>
@@ -2016,10 +2016,10 @@
         <v>1.89</v>
       </c>
       <c r="P13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
         <v>2.63</v>
@@ -2031,13 +2031,13 @@
         <v>5.5</v>
       </c>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V13" t="n">
         <v>9.5</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2046,13 +2046,13 @@
         <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA13" t="n">
         <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>126</v>
@@ -2062,16 +2062,16 @@
         <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH13" t="n">
         <v>151</v>
       </c>
       <c r="AI13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="n">
         <v>81</v>
@@ -2112,34 +2112,34 @@
         <v>2.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K14" t="n">
+        <v>19</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O14" t="n">
         <v>2.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K14" t="n">
-        <v>17</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.35</v>
       </c>
       <c r="P14" t="n">
         <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R14" t="n">
         <v>1.5</v>
@@ -2148,7 +2148,7 @@
         <v>2.5</v>
       </c>
       <c r="T14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U14" t="n">
         <v>15</v>
@@ -2160,16 +2160,16 @@
         <v>26</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
         <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB14" t="n">
         <v>12</v>
@@ -2181,7 +2181,7 @@
         <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>15</v>
@@ -2231,19 +2231,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" t="n">
         <v>1.11</v>
@@ -2258,7 +2258,7 @@
         <v>2.88</v>
       </c>
       <c r="P15" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q15" t="n">
         <v>4</v>
@@ -2273,7 +2273,7 @@
         <v>15</v>
       </c>
       <c r="U15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V15" t="n">
         <v>11</v>
@@ -2374,13 +2374,13 @@
         <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O16" t="n">
         <v>2.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q16" t="n">
         <v>3.5</v>
@@ -2496,13 +2496,13 @@
         <v>5.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O17" t="n">
         <v>2.6</v>
       </c>
       <c r="P17" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q17" t="n">
         <v>4</v>
@@ -2618,13 +2618,13 @@
         <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O18" t="n">
         <v>2.05</v>
       </c>
       <c r="P18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q18" t="n">
         <v>3.25</v>
@@ -2740,10 +2740,10 @@
         <v>2.63</v>
       </c>
       <c r="N19" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P19" t="n">
         <v>1.53</v>
@@ -2850,10 +2850,10 @@
         <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K20" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L20" t="n">
         <v>1.1</v>
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="N20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O20" t="n">
         <v>3.4</v>
@@ -2984,10 +2984,10 @@
         <v>2.63</v>
       </c>
       <c r="N21" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
         <v>2.6</v>
@@ -5458,31 +5458,31 @@
         <v>15</v>
       </c>
       <c r="L44" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M44" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O44" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="P44" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U44" t="n">
         <v>15</v>
@@ -5503,7 +5503,7 @@
         <v>15</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB44" t="n">
         <v>11</v>
@@ -5512,10 +5512,10 @@
         <v>34</v>
       </c>
       <c r="AD44" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF44" t="n">
         <v>15</v>
@@ -6289,7 +6289,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="H51" t="n">
         <v>4.6</v>
@@ -6309,18 +6309,18 @@
         <v>1.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S51" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T51" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="U51" t="n">
         <v>55</v>
@@ -6335,16 +6335,16 @@
         <v>100</v>
       </c>
       <c r="Y51" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z51" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA51" t="n">
         <v>9.25</v>
       </c>
       <c r="AB51" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC51" t="n">
         <v>120</v>
@@ -6353,10 +6353,10 @@
         <v>900</v>
       </c>
       <c r="AE51" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG51" t="n">
         <v>8.75</v>
@@ -8362,43 +8362,43 @@
         <v>1.85</v>
       </c>
       <c r="H72" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I72" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J72" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L72" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M72" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R72" t="n">
         <v>1.67</v>
       </c>
-      <c r="O72" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P72" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S72" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T72" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U72" t="n">
         <v>10</v>
@@ -8410,16 +8410,16 @@
         <v>17</v>
       </c>
       <c r="X72" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z72" t="n">
         <v>13</v>
       </c>
-      <c r="Y72" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>15</v>
-      </c>
       <c r="AA72" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB72" t="n">
         <v>13</v>
@@ -8446,7 +8446,7 @@
         <v>29</v>
       </c>
       <c r="AJ72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -8481,19 +8481,19 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J73" t="n">
         <v>1.04</v>
       </c>
       <c r="K73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L73" t="n">
         <v>1.25</v>
@@ -8523,10 +8523,10 @@
         <v>9</v>
       </c>
       <c r="U73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V73" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W73" t="n">
         <v>21</v>
@@ -8559,10 +8559,10 @@
         <v>17</v>
       </c>
       <c r="AG73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI73" t="n">
         <v>23</v>
@@ -8717,13 +8717,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H75" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I75" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -8752,19 +8752,19 @@
         <v>1.78</v>
       </c>
       <c r="T75" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="U75" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="V75" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="W75" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X75" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y75" t="n">
         <v>40</v>
@@ -8785,22 +8785,22 @@
         <v>700</v>
       </c>
       <c r="AE75" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AF75" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AG75" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH75" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI75" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ75" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76">
@@ -8835,85 +8835,85 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.1</v>
+        <v>4.65</v>
       </c>
       <c r="H76" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I76" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M76" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="N76" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="O76" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P76" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="R76" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S76" t="n">
         <v>1.6</v>
       </c>
       <c r="T76" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="U76" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="V76" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="W76" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="X76" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Y76" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z76" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA76" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AB76" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC76" t="n">
         <v>120</v>
       </c>
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AG76" t="n">
         <v>8.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ76" t="n">
         <v>37</v>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -9798,10 +9798,10 @@
         <v>2.1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L84" t="n">
         <v>1.44</v>
@@ -10273,13 +10273,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H88" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="I88" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -10302,16 +10302,16 @@
         <v>2.32</v>
       </c>
       <c r="R88" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S88" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T88" t="n">
         <v>9.25</v>
       </c>
       <c r="U88" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="V88" t="n">
         <v>10.25</v>
@@ -10326,13 +10326,13 @@
         <v>30</v>
       </c>
       <c r="Z88" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA88" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB88" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC88" t="n">
         <v>50</v>
@@ -10341,7 +10341,7 @@
         <v>400</v>
       </c>
       <c r="AE88" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF88" t="n">
         <v>13</v>
@@ -10356,7 +10356,7 @@
         <v>21</v>
       </c>
       <c r="AJ88" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
@@ -10391,13 +10391,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="H89" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="I89" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -10412,22 +10412,22 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="S89" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T89" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U89" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="V89" t="n">
         <v>10.5</v>
       </c>
       <c r="W89" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X89" t="n">
         <v>11.25</v>
@@ -10436,35 +10436,35 @@
         <v>40</v>
       </c>
       <c r="Z89" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA89" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC89" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AF89" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AG89" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AH89" t="n">
         <v>900</v>
       </c>
       <c r="AI89" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AJ89" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90">
@@ -10617,37 +10617,37 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H91" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I91" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J91" t="n">
         <v>1.03</v>
       </c>
       <c r="K91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L91" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M91" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N91" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O91" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P91" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q91" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R91" t="n">
         <v>1.62</v>
@@ -10659,13 +10659,13 @@
         <v>9</v>
       </c>
       <c r="U91" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V91" t="n">
         <v>8.5</v>
       </c>
       <c r="W91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X91" t="n">
         <v>13</v>
@@ -10674,13 +10674,13 @@
         <v>21</v>
       </c>
       <c r="Z91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA91" t="n">
         <v>8</v>
       </c>
       <c r="AB91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC91" t="n">
         <v>41</v>
@@ -10695,13 +10695,13 @@
         <v>21</v>
       </c>
       <c r="AG91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH91" t="n">
         <v>41</v>
       </c>
       <c r="AI91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ91" t="n">
         <v>29</v>
@@ -10766,10 +10766,10 @@
         <v>1.67</v>
       </c>
       <c r="P92" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R92" t="n">
         <v>2</v>
@@ -10888,7 +10888,7 @@
         <v>2.08</v>
       </c>
       <c r="P93" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q93" t="n">
         <v>3.25</v>
@@ -11010,7 +11010,7 @@
         <v>2.15</v>
       </c>
       <c r="P94" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q94" t="n">
         <v>3.4</v>
@@ -11132,7 +11132,7 @@
         <v>2</v>
       </c>
       <c r="P95" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q95" t="n">
         <v>3.25</v>
@@ -11870,7 +11870,7 @@
         <v>3.4</v>
       </c>
       <c r="R101" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S101" t="n">
         <v>2.05</v>
@@ -11965,7 +11965,7 @@
         <v>3.8</v>
       </c>
       <c r="I102" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
         <v>1.03</v>
@@ -12096,16 +12096,16 @@
         <v>15</v>
       </c>
       <c r="L103" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M103" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N103" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O103" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P103" t="n">
         <v>1.29</v>
@@ -12816,16 +12816,16 @@
         <v>2.37</v>
       </c>
       <c r="H109" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="I109" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J109" t="n">
         <v>1.17</v>
       </c>
       <c r="K109" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="L109" t="n">
         <v>1.7</v>
@@ -12834,10 +12834,10 @@
         <v>2.05</v>
       </c>
       <c r="N109" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O109" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P109" t="n">
         <v>1.7</v>
@@ -12846,50 +12846,50 @@
         <v>2.05</v>
       </c>
       <c r="R109" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="S109" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T109" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="U109" t="n">
         <v>9.75</v>
       </c>
       <c r="V109" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W109" t="n">
         <v>26</v>
       </c>
       <c r="X109" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y109" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z109" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AA109" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB109" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC109" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD109" t="inlineStr"/>
       <c r="AE109" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AF109" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG109" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH109" t="n">
         <v>60</v>
@@ -12898,7 +12898,7 @@
         <v>50</v>
       </c>
       <c r="AJ109" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110">
@@ -12933,31 +12933,31 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H110" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="I110" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="J110" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="K110" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="L110" t="n">
         <v>1.65</v>
       </c>
       <c r="M110" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="N110" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="O110" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P110" t="n">
         <v>1.65</v>
@@ -12966,19 +12966,19 @@
         <v>2.1</v>
       </c>
       <c r="R110" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S110" t="n">
         <v>1.6</v>
       </c>
       <c r="T110" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U110" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V110" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W110" t="n">
         <v>45</v>
@@ -12990,16 +12990,16 @@
         <v>60</v>
       </c>
       <c r="Z110" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="AA110" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB110" t="n">
         <v>18.5</v>
       </c>
       <c r="AC110" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD110" t="inlineStr"/>
       <c r="AE110" t="n">
@@ -13012,7 +13012,7 @@
         <v>11</v>
       </c>
       <c r="AH110" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI110" t="n">
         <v>32</v>
@@ -13295,13 +13295,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I113" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J113" t="n">
         <v>1.06</v>
@@ -13328,16 +13328,16 @@
         <v>2.75</v>
       </c>
       <c r="R113" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S113" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T113" t="n">
         <v>7.5</v>
       </c>
       <c r="U113" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V113" t="n">
         <v>9</v>
@@ -13364,7 +13364,7 @@
         <v>51</v>
       </c>
       <c r="AD113" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE113" t="n">
         <v>11</v>
@@ -13382,7 +13382,7 @@
         <v>29</v>
       </c>
       <c r="AJ113" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
@@ -13416,36 +13416,80 @@
           <t>Paide</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4.55</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1.85</v>
+      </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
-      <c r="AB114" t="inlineStr"/>
-      <c r="AC114" t="inlineStr"/>
-      <c r="AD114" t="inlineStr"/>
-      <c r="AE114" t="inlineStr"/>
-      <c r="AF114" t="inlineStr"/>
-      <c r="AG114" t="inlineStr"/>
-      <c r="AH114" t="inlineStr"/>
-      <c r="AI114" t="inlineStr"/>
-      <c r="AJ114" t="inlineStr"/>
+      <c r="T114" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U114" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="V114" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="W114" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X114" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13478,36 +13522,80 @@
           <t>Parnu JK Vaprus</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.8</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1.85</v>
+      </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
-      <c r="AB115" t="inlineStr"/>
-      <c r="AC115" t="inlineStr"/>
-      <c r="AD115" t="inlineStr"/>
-      <c r="AE115" t="inlineStr"/>
-      <c r="AF115" t="inlineStr"/>
-      <c r="AG115" t="inlineStr"/>
-      <c r="AH115" t="inlineStr"/>
-      <c r="AI115" t="inlineStr"/>
-      <c r="AJ115" t="inlineStr"/>
+      <c r="T115" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U115" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V115" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="W115" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X115" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13562,10 +13650,10 @@
         <v>3.5</v>
       </c>
       <c r="N116" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O116" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P116" t="n">
         <v>1.36</v>
@@ -13790,7 +13878,7 @@
         <v>2.05</v>
       </c>
       <c r="H119" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I119" t="n">
         <v>3.1</v>
@@ -13799,37 +13887,37 @@
         <v>1.03</v>
       </c>
       <c r="K119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L119" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M119" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N119" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O119" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P119" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q119" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R119" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S119" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V119" t="n">
         <v>9</v>
@@ -13856,13 +13944,13 @@
         <v>41</v>
       </c>
       <c r="AD119" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF119" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG119" t="n">
         <v>11</v>
@@ -13909,7 +13997,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H120" t="n">
         <v>3.9</v>
@@ -14159,13 +14247,13 @@
         <v>4.75</v>
       </c>
       <c r="I122" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="J122" t="n">
         <v>1.03</v>
       </c>
       <c r="K122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L122" t="n">
         <v>1.17</v>
@@ -14397,7 +14485,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H124" t="n">
         <v>3.9</v>
@@ -14519,19 +14607,19 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H125" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I125" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J125" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K125" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L125" t="n">
         <v>1.36</v>
@@ -14540,16 +14628,16 @@
         <v>3</v>
       </c>
       <c r="N125" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O125" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P125" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R125" t="n">
         <v>1.91</v>
@@ -14564,7 +14652,7 @@
         <v>11</v>
       </c>
       <c r="V125" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W125" t="n">
         <v>23</v>
@@ -14576,7 +14664,7 @@
         <v>34</v>
       </c>
       <c r="Z125" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA125" t="n">
         <v>6.5</v>
@@ -14591,7 +14679,7 @@
         <v>301</v>
       </c>
       <c r="AE125" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF125" t="n">
         <v>13</v>
@@ -14668,16 +14756,16 @@
         <v>1.85</v>
       </c>
       <c r="P126" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q126" t="n">
         <v>2.75</v>
       </c>
       <c r="R126" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S126" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T126" t="n">
         <v>7.5</v>
@@ -14904,10 +14992,10 @@
         <v>3.5</v>
       </c>
       <c r="N128" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O128" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P128" t="n">
         <v>1.4</v>
@@ -14916,7 +15004,7 @@
         <v>2.75</v>
       </c>
       <c r="R128" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S128" t="n">
         <v>2</v>
@@ -15005,13 +15093,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>3.5</v>
       </c>
       <c r="I129" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J129" t="n">
         <v>1.04</v>
@@ -15038,22 +15126,22 @@
         <v>3.25</v>
       </c>
       <c r="R129" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S129" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T129" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U129" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V129" t="n">
         <v>9</v>
       </c>
       <c r="W129" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X129" t="n">
         <v>15</v>
@@ -15065,7 +15153,7 @@
         <v>12</v>
       </c>
       <c r="AA129" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB129" t="n">
         <v>13</v>
@@ -15083,16 +15171,16 @@
         <v>19</v>
       </c>
       <c r="AG129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH129" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI129" t="n">
         <v>26</v>
       </c>
       <c r="AJ129" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
@@ -15255,7 +15343,7 @@
         <v>4.25</v>
       </c>
       <c r="I131" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="J131" t="n">
         <v>1.03</v>
@@ -15264,16 +15352,16 @@
         <v>9.5</v>
       </c>
       <c r="L131" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M131" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="N131" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O131" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="P131" t="n">
         <v>1.27</v>
@@ -15282,25 +15370,25 @@
         <v>3.4</v>
       </c>
       <c r="R131" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S131" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="T131" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U131" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V131" t="n">
         <v>8.25</v>
       </c>
       <c r="W131" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X131" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y131" t="n">
         <v>18.5</v>
@@ -15333,7 +15421,7 @@
         <v>80</v>
       </c>
       <c r="AI131" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ131" t="n">
         <v>35</v>
@@ -16646,22 +16734,22 @@
         <v>3.1</v>
       </c>
       <c r="J145" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K145" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L145" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M145" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N145" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O145" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P145" t="n">
         <v>1.3</v>
@@ -17146,10 +17234,10 @@
         <v>4</v>
       </c>
       <c r="N149" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O149" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P149" t="n">
         <v>1.33</v>
@@ -17613,13 +17701,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
         <v>3.1</v>
       </c>
       <c r="I153" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J153" t="n">
         <v>1.13</v>
@@ -17655,13 +17743,13 @@
         <v>5.5</v>
       </c>
       <c r="U153" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V153" t="n">
         <v>10</v>
       </c>
       <c r="W153" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X153" t="n">
         <v>21</v>
@@ -17688,7 +17776,7 @@
         <v>8</v>
       </c>
       <c r="AF153" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG153" t="n">
         <v>15</v>
@@ -17735,13 +17823,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H154" t="n">
         <v>3.9</v>
       </c>
       <c r="I154" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J154" t="n">
         <v>1.03</v>
@@ -17768,10 +17856,10 @@
         <v>3.4</v>
       </c>
       <c r="R154" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S154" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T154" t="n">
         <v>9.5</v>
@@ -17783,7 +17871,7 @@
         <v>9</v>
       </c>
       <c r="W154" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X154" t="n">
         <v>15</v>
@@ -17807,7 +17895,7 @@
         <v>151</v>
       </c>
       <c r="AE154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF154" t="n">
         <v>19</v>
@@ -17816,7 +17904,7 @@
         <v>12</v>
       </c>
       <c r="AH154" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI154" t="n">
         <v>23</v>
@@ -17998,10 +18086,10 @@
         <v>3.25</v>
       </c>
       <c r="N156" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O156" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P156" t="n">
         <v>1.44</v>
@@ -18423,40 +18511,40 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H160" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I160" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O160" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P160" t="n">
         <v>1.37</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U160" t="n">
         <v>14</v>
       </c>
       <c r="V160" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W160" t="n">
         <v>32</v>
@@ -18465,19 +18553,19 @@
         <v>22</v>
       </c>
       <c r="Y160" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z160" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA160" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB160" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC160" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD160" t="n">
         <v>300</v>
@@ -18486,16 +18574,16 @@
         <v>6.5</v>
       </c>
       <c r="AF160" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG160" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AH160" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI160" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ160" t="n">
         <v>21</v>
@@ -18533,13 +18621,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H161" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I161" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J161" t="n">
         <v>1.05</v>
@@ -18572,10 +18660,10 @@
         <v>1.95</v>
       </c>
       <c r="T161" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U161" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V161" t="n">
         <v>8.5</v>
@@ -18584,7 +18672,7 @@
         <v>13</v>
       </c>
       <c r="X161" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y161" t="n">
         <v>26</v>
@@ -18605,7 +18693,7 @@
         <v>251</v>
       </c>
       <c r="AE161" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF161" t="n">
         <v>26</v>
@@ -18655,94 +18743,94 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="H162" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I162" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J162" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K162" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="L162" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M162" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="N162" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O162" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P162" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="R162" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S162" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T162" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="U162" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="V162" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W162" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="X162" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y162" t="n">
         <v>23</v>
       </c>
       <c r="Z162" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AA162" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB162" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC162" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD162" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="AE162" t="n">
         <v>13</v>
       </c>
       <c r="AF162" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AG162" t="n">
         <v>15</v>
       </c>
       <c r="AH162" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AI162" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AJ162" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163">
@@ -18780,10 +18868,10 @@
         <v>1.82</v>
       </c>
       <c r="H163" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I163" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -18805,13 +18893,13 @@
         <v>1.6</v>
       </c>
       <c r="S163" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T163" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U163" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V163" t="n">
         <v>8.25</v>
@@ -18826,31 +18914,31 @@
         <v>22</v>
       </c>
       <c r="Z163" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA163" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB163" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC163" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD163" t="n">
         <v>350</v>
       </c>
       <c r="AE163" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF163" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG163" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH163" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI163" t="n">
         <v>32</v>
@@ -19004,36 +19092,88 @@
           <t>FUS Rabat</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.57</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1.95</v>
+      </c>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr"/>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
-      <c r="Z165" t="inlineStr"/>
-      <c r="AA165" t="inlineStr"/>
-      <c r="AB165" t="inlineStr"/>
-      <c r="AC165" t="inlineStr"/>
-      <c r="AD165" t="inlineStr"/>
-      <c r="AE165" t="inlineStr"/>
-      <c r="AF165" t="inlineStr"/>
-      <c r="AG165" t="inlineStr"/>
-      <c r="AH165" t="inlineStr"/>
-      <c r="AI165" t="inlineStr"/>
-      <c r="AJ165" t="inlineStr"/>
+      <c r="R165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T165" t="n">
+        <v>15</v>
+      </c>
+      <c r="U165" t="n">
+        <v>29</v>
+      </c>
+      <c r="V165" t="n">
+        <v>17</v>
+      </c>
+      <c r="W165" t="n">
+        <v>51</v>
+      </c>
+      <c r="X165" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -19066,36 +19206,92 @@
           <t>IR Tanger</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr"/>
-      <c r="W166" t="inlineStr"/>
-      <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr"/>
-      <c r="Z166" t="inlineStr"/>
-      <c r="AA166" t="inlineStr"/>
-      <c r="AB166" t="inlineStr"/>
-      <c r="AC166" t="inlineStr"/>
-      <c r="AD166" t="inlineStr"/>
-      <c r="AE166" t="inlineStr"/>
-      <c r="AF166" t="inlineStr"/>
-      <c r="AG166" t="inlineStr"/>
-      <c r="AH166" t="inlineStr"/>
-      <c r="AI166" t="inlineStr"/>
-      <c r="AJ166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T166" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U166" t="n">
+        <v>11</v>
+      </c>
+      <c r="V166" t="n">
+        <v>9</v>
+      </c>
+      <c r="W166" t="n">
+        <v>21</v>
+      </c>
+      <c r="X166" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -19128,36 +19324,92 @@
           <t>FAR Rabat</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.62</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr"/>
-      <c r="T167" t="inlineStr"/>
-      <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr"/>
-      <c r="W167" t="inlineStr"/>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
-      <c r="Z167" t="inlineStr"/>
-      <c r="AA167" t="inlineStr"/>
-      <c r="AB167" t="inlineStr"/>
-      <c r="AC167" t="inlineStr"/>
-      <c r="AD167" t="inlineStr"/>
-      <c r="AE167" t="inlineStr"/>
-      <c r="AF167" t="inlineStr"/>
-      <c r="AG167" t="inlineStr"/>
-      <c r="AH167" t="inlineStr"/>
-      <c r="AI167" t="inlineStr"/>
-      <c r="AJ167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M167" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S167" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T167" t="n">
+        <v>17</v>
+      </c>
+      <c r="U167" t="n">
+        <v>34</v>
+      </c>
+      <c r="V167" t="n">
+        <v>21</v>
+      </c>
+      <c r="W167" t="n">
+        <v>67</v>
+      </c>
+      <c r="X167" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -19190,36 +19442,92 @@
           <t>Berkane</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="inlineStr"/>
-      <c r="T168" t="inlineStr"/>
-      <c r="U168" t="inlineStr"/>
-      <c r="V168" t="inlineStr"/>
-      <c r="W168" t="inlineStr"/>
-      <c r="X168" t="inlineStr"/>
-      <c r="Y168" t="inlineStr"/>
-      <c r="Z168" t="inlineStr"/>
-      <c r="AA168" t="inlineStr"/>
-      <c r="AB168" t="inlineStr"/>
-      <c r="AC168" t="inlineStr"/>
-      <c r="AD168" t="inlineStr"/>
-      <c r="AE168" t="inlineStr"/>
-      <c r="AF168" t="inlineStr"/>
-      <c r="AG168" t="inlineStr"/>
-      <c r="AH168" t="inlineStr"/>
-      <c r="AI168" t="inlineStr"/>
-      <c r="AJ168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M168" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P168" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S168" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T168" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U168" t="n">
+        <v>15</v>
+      </c>
+      <c r="V168" t="n">
+        <v>12</v>
+      </c>
+      <c r="W168" t="n">
+        <v>34</v>
+      </c>
+      <c r="X168" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -19252,36 +19560,94 @@
           <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr"/>
-      <c r="T169" t="inlineStr"/>
-      <c r="U169" t="inlineStr"/>
-      <c r="V169" t="inlineStr"/>
-      <c r="W169" t="inlineStr"/>
-      <c r="X169" t="inlineStr"/>
-      <c r="Y169" t="inlineStr"/>
-      <c r="Z169" t="inlineStr"/>
-      <c r="AA169" t="inlineStr"/>
-      <c r="AB169" t="inlineStr"/>
-      <c r="AC169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K169" t="n">
+        <v>6</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M169" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S169" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T169" t="n">
+        <v>6</v>
+      </c>
+      <c r="U169" t="n">
+        <v>10</v>
+      </c>
+      <c r="V169" t="n">
+        <v>10</v>
+      </c>
+      <c r="W169" t="n">
+        <v>23</v>
+      </c>
+      <c r="X169" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>81</v>
+      </c>
       <c r="AD169" t="inlineStr"/>
-      <c r="AE169" t="inlineStr"/>
-      <c r="AF169" t="inlineStr"/>
-      <c r="AG169" t="inlineStr"/>
-      <c r="AH169" t="inlineStr"/>
-      <c r="AI169" t="inlineStr"/>
-      <c r="AJ169" t="inlineStr"/>
+      <c r="AE169" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -19314,36 +19680,80 @@
           <t>Olympique de Safi</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1.75</v>
+      </c>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr"/>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
-      <c r="Z170" t="inlineStr"/>
-      <c r="AA170" t="inlineStr"/>
-      <c r="AB170" t="inlineStr"/>
-      <c r="AC170" t="inlineStr"/>
-      <c r="AD170" t="inlineStr"/>
-      <c r="AE170" t="inlineStr"/>
-      <c r="AF170" t="inlineStr"/>
-      <c r="AG170" t="inlineStr"/>
-      <c r="AH170" t="inlineStr"/>
-      <c r="AI170" t="inlineStr"/>
-      <c r="AJ170" t="inlineStr"/>
+      <c r="T170" t="n">
+        <v>8</v>
+      </c>
+      <c r="U170" t="n">
+        <v>12</v>
+      </c>
+      <c r="V170" t="n">
+        <v>10</v>
+      </c>
+      <c r="W170" t="n">
+        <v>23</v>
+      </c>
+      <c r="X170" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -19376,36 +19786,78 @@
           <t>Renaissance Zemamra</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I171" t="n">
+        <v>8</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1.95</v>
+      </c>
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr"/>
-      <c r="W171" t="inlineStr"/>
-      <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr"/>
-      <c r="Z171" t="inlineStr"/>
-      <c r="AA171" t="inlineStr"/>
-      <c r="AB171" t="inlineStr"/>
-      <c r="AC171" t="inlineStr"/>
+      <c r="T171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U171" t="n">
+        <v>6</v>
+      </c>
+      <c r="V171" t="n">
+        <v>9</v>
+      </c>
+      <c r="W171" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X171" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>67</v>
+      </c>
       <c r="AD171" t="inlineStr"/>
-      <c r="AE171" t="inlineStr"/>
-      <c r="AF171" t="inlineStr"/>
-      <c r="AG171" t="inlineStr"/>
-      <c r="AH171" t="inlineStr"/>
-      <c r="AI171" t="inlineStr"/>
-      <c r="AJ171" t="inlineStr"/>
+      <c r="AE171" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -19454,28 +19906,28 @@
         <v>15</v>
       </c>
       <c r="L172" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M172" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N172" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O172" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P172" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q172" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R172" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S172" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T172" t="n">
         <v>10</v>
@@ -19499,7 +19951,7 @@
         <v>15</v>
       </c>
       <c r="AA172" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB172" t="n">
         <v>12</v>
@@ -19511,7 +19963,7 @@
         <v>126</v>
       </c>
       <c r="AE172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF172" t="n">
         <v>17</v>
@@ -19561,13 +20013,13 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H173" t="n">
         <v>3.5</v>
       </c>
       <c r="I173" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J173" t="n">
         <v>1.05</v>
@@ -19582,10 +20034,10 @@
         <v>3.5</v>
       </c>
       <c r="N173" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O173" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P173" t="n">
         <v>1.36</v>
@@ -19600,7 +20052,7 @@
         <v>2</v>
       </c>
       <c r="T173" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U173" t="n">
         <v>17</v>
@@ -19609,7 +20061,7 @@
         <v>12</v>
       </c>
       <c r="W173" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X173" t="n">
         <v>26</v>
@@ -19683,19 +20135,19 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I174" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J174" t="n">
         <v>1.08</v>
       </c>
       <c r="K174" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L174" t="n">
         <v>1.4</v>
@@ -19734,7 +20186,7 @@
         <v>23</v>
       </c>
       <c r="X174" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y174" t="n">
         <v>34</v>
@@ -19755,16 +20207,16 @@
         <v>351</v>
       </c>
       <c r="AE174" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF174" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG174" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH174" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI174" t="n">
         <v>26</v>
@@ -20049,13 +20501,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H177" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I177" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J177" t="n">
         <v>1.03</v>
@@ -20088,7 +20540,7 @@
         <v>2.05</v>
       </c>
       <c r="T177" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U177" t="n">
         <v>8.5</v>
@@ -20109,16 +20561,16 @@
         <v>17</v>
       </c>
       <c r="AA177" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB177" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC177" t="n">
         <v>41</v>
       </c>
       <c r="AD177" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE177" t="n">
         <v>17</v>
@@ -20171,19 +20623,19 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H178" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I178" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J178" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K178" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L178" t="n">
         <v>1.14</v>
@@ -20204,10 +20656,10 @@
         <v>3.75</v>
       </c>
       <c r="R178" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S178" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T178" t="n">
         <v>21</v>
@@ -20225,7 +20677,7 @@
         <v>41</v>
       </c>
       <c r="Y178" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z178" t="n">
         <v>17</v>
@@ -20246,13 +20698,13 @@
         <v>10</v>
       </c>
       <c r="AF178" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG178" t="n">
         <v>8.5</v>
       </c>
       <c r="AH178" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI178" t="n">
         <v>11</v>
@@ -20302,13 +20754,13 @@
         <v>2.35</v>
       </c>
       <c r="J179" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K179" t="n">
         <v>11</v>
       </c>
       <c r="L179" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M179" t="n">
         <v>3.75</v>
@@ -20424,13 +20876,13 @@
         <v>2.2</v>
       </c>
       <c r="J180" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K180" t="n">
         <v>13</v>
       </c>
       <c r="L180" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M180" t="n">
         <v>4</v>
@@ -20546,13 +20998,13 @@
         <v>2.75</v>
       </c>
       <c r="J181" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K181" t="n">
         <v>13</v>
       </c>
       <c r="L181" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M181" t="n">
         <v>4</v>
@@ -20668,22 +21120,22 @@
         <v>2.4</v>
       </c>
       <c r="J182" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K182" t="n">
         <v>11</v>
       </c>
       <c r="L182" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M182" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N182" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O182" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P182" t="n">
         <v>1.36</v>
@@ -20790,10 +21242,10 @@
         <v>5.75</v>
       </c>
       <c r="J183" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K183" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L183" t="n">
         <v>1.36</v>
@@ -21400,10 +21852,10 @@
         <v>3.3</v>
       </c>
       <c r="J189" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K189" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L189" t="n">
         <v>1.25</v>
@@ -21879,13 +22331,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H193" t="n">
         <v>3.6</v>
       </c>
       <c r="I193" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J193" t="n">
         <v>1.03</v>
@@ -21906,19 +22358,19 @@
         <v>2.35</v>
       </c>
       <c r="P193" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q193" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R193" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S193" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T193" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U193" t="n">
         <v>15</v>
@@ -21945,7 +22397,7 @@
         <v>11</v>
       </c>
       <c r="AC193" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD193" t="n">
         <v>101</v>
@@ -21954,13 +22406,13 @@
         <v>13</v>
       </c>
       <c r="AF193" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG193" t="n">
         <v>10</v>
       </c>
       <c r="AH193" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI193" t="n">
         <v>19</v>
@@ -22367,19 +22819,19 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H197" t="n">
         <v>3.6</v>
       </c>
       <c r="I197" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J197" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K197" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L197" t="n">
         <v>1.36</v>
@@ -22388,10 +22840,10 @@
         <v>3</v>
       </c>
       <c r="N197" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O197" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P197" t="n">
         <v>1.44</v>
@@ -22415,16 +22867,16 @@
         <v>9</v>
       </c>
       <c r="W197" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X197" t="n">
         <v>17</v>
       </c>
       <c r="Y197" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z197" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA197" t="n">
         <v>7</v>
@@ -22510,10 +22962,10 @@
         <v>3.25</v>
       </c>
       <c r="N198" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O198" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P198" t="n">
         <v>1.44</v>
@@ -22614,16 +23066,16 @@
         <v>1.57</v>
       </c>
       <c r="H199" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I199" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J199" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K199" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L199" t="n">
         <v>1.29</v>
@@ -22668,16 +23120,16 @@
         <v>29</v>
       </c>
       <c r="Z199" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA199" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB199" t="n">
         <v>19</v>
       </c>
       <c r="AC199" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD199" t="n">
         <v>351</v>
@@ -22692,7 +23144,7 @@
         <v>17</v>
       </c>
       <c r="AH199" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI199" t="n">
         <v>41</v>
@@ -22876,10 +23328,10 @@
         <v>3</v>
       </c>
       <c r="N201" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O201" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P201" t="n">
         <v>1.44</v>
@@ -22983,25 +23435,25 @@
         <v>3</v>
       </c>
       <c r="I202" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J202" t="n">
         <v>1.06</v>
       </c>
       <c r="K202" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L202" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M202" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N202" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O202" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P202" t="n">
         <v>1.4</v>
@@ -23010,16 +23462,16 @@
         <v>2.75</v>
       </c>
       <c r="R202" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S202" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T202" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U202" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V202" t="n">
         <v>9.5</v>
@@ -23028,13 +23480,13 @@
         <v>21</v>
       </c>
       <c r="X202" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y202" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z202" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA202" t="n">
         <v>6</v>
@@ -23043,28 +23495,28 @@
         <v>13</v>
       </c>
       <c r="AC202" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD202" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE202" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF202" t="n">
         <v>17</v>
       </c>
       <c r="AG202" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH202" t="n">
         <v>34</v>
       </c>
       <c r="AI202" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ202" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203">
@@ -23099,31 +23551,31 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H203" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I203" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="J203" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K203" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L203" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M203" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N203" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O203" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="P203" t="n">
         <v>1.36</v>
@@ -23138,7 +23590,7 @@
         <v>1.67</v>
       </c>
       <c r="T203" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U203" t="n">
         <v>6.5</v>
@@ -23147,7 +23599,7 @@
         <v>8.5</v>
       </c>
       <c r="W203" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X203" t="n">
         <v>13</v>
@@ -23156,10 +23608,10 @@
         <v>29</v>
       </c>
       <c r="Z203" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA203" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB203" t="n">
         <v>21</v>
@@ -23171,16 +23623,16 @@
         <v>1250</v>
       </c>
       <c r="AE203" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF203" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG203" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH203" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI203" t="n">
         <v>51</v>
@@ -23221,13 +23673,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H204" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I204" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J204" t="n">
         <v>1.05</v>
@@ -23242,10 +23694,10 @@
         <v>3.5</v>
       </c>
       <c r="N204" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O204" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P204" t="n">
         <v>1.36</v>
@@ -23254,10 +23706,10 @@
         <v>3</v>
       </c>
       <c r="R204" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S204" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T204" t="n">
         <v>7</v>
@@ -23278,7 +23730,7 @@
         <v>26</v>
       </c>
       <c r="Z204" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA204" t="n">
         <v>7</v>
@@ -23293,7 +23745,7 @@
         <v>251</v>
       </c>
       <c r="AE204" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF204" t="n">
         <v>23</v>
@@ -23352,22 +23804,22 @@
         <v>2.75</v>
       </c>
       <c r="J205" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K205" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L205" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M205" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N205" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O205" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P205" t="n">
         <v>1.4</v>
@@ -24276,13 +24728,13 @@
         <v>1.65</v>
       </c>
       <c r="J217" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K217" t="n">
         <v>11</v>
       </c>
       <c r="L217" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="M217" t="n">
         <v>5.5</v>
@@ -24398,22 +24850,22 @@
         <v>3.1</v>
       </c>
       <c r="J218" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K218" t="n">
         <v>8.5</v>
       </c>
       <c r="L218" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M218" t="n">
         <v>3.5</v>
       </c>
       <c r="N218" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O218" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P218" t="n">
         <v>1.36</v>
@@ -24520,13 +24972,13 @@
         <v>1.53</v>
       </c>
       <c r="J219" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K219" t="n">
         <v>9</v>
       </c>
       <c r="L219" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M219" t="n">
         <v>3.75</v>
@@ -24642,13 +25094,13 @@
         <v>5</v>
       </c>
       <c r="J220" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K220" t="n">
         <v>11</v>
       </c>
       <c r="L220" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M220" t="n">
         <v>4.5</v>
@@ -24764,13 +25216,13 @@
         <v>5.25</v>
       </c>
       <c r="J221" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K221" t="n">
         <v>17</v>
       </c>
       <c r="L221" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M221" t="n">
         <v>5</v>
@@ -25247,13 +25699,13 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H227" t="n">
         <v>5</v>
       </c>
       <c r="I227" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J227" t="n">
         <v>1.01</v>
@@ -25262,67 +25714,67 @@
         <v>34</v>
       </c>
       <c r="L227" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="M227" t="n">
+        <v>10</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O227" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="P227" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T227" t="n">
+        <v>19</v>
+      </c>
+      <c r="U227" t="n">
         <v>13</v>
-      </c>
-      <c r="N227" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="O227" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="P227" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Q227" t="n">
-        <v>6</v>
-      </c>
-      <c r="R227" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S227" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T227" t="n">
-        <v>21</v>
-      </c>
-      <c r="U227" t="n">
-        <v>17</v>
       </c>
       <c r="V227" t="n">
         <v>10</v>
       </c>
       <c r="W227" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X227" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y227" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z227" t="n">
         <v>34</v>
       </c>
       <c r="AA227" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB227" t="n">
         <v>13</v>
       </c>
       <c r="AC227" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD227" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE227" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF227" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG227" t="n">
         <v>17</v>
@@ -25331,10 +25783,10 @@
         <v>51</v>
       </c>
       <c r="AI227" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ227" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ227" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="228">
@@ -25375,40 +25827,40 @@
         <v>3.4</v>
       </c>
       <c r="I228" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J228" t="n">
         <v>1.06</v>
       </c>
       <c r="K228" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L228" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M228" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N228" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O228" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="P228" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q228" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="R228" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S228" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T228" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="U228" t="n">
         <v>10.5</v>
@@ -25417,7 +25869,7 @@
         <v>8.75</v>
       </c>
       <c r="W228" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X228" t="n">
         <v>15.5</v>
@@ -25426,7 +25878,7 @@
         <v>25</v>
       </c>
       <c r="Z228" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA228" t="n">
         <v>6.9</v>
@@ -25435,13 +25887,13 @@
         <v>14</v>
       </c>
       <c r="AC228" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD228" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE228" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF228" t="n">
         <v>24</v>
@@ -25453,7 +25905,7 @@
         <v>65</v>
       </c>
       <c r="AI228" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ228" t="n">
         <v>40</v>
@@ -25491,49 +25943,49 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H229" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I229" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J229" t="n">
         <v>1.06</v>
       </c>
       <c r="K229" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="L229" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M229" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N229" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O229" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P229" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q229" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R229" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S229" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T229" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="U229" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V229" t="n">
         <v>8.75</v>
@@ -25545,28 +25997,28 @@
         <v>16</v>
       </c>
       <c r="Y229" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z229" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA229" t="n">
         <v>7</v>
       </c>
       <c r="AB229" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC229" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD229" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE229" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF229" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG229" t="n">
         <v>14</v>
@@ -25735,13 +26187,13 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H231" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="I231" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="J231" t="n">
         <v>1.03</v>
@@ -25750,7 +26202,7 @@
         <v>9</v>
       </c>
       <c r="L231" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M231" t="n">
         <v>4.25</v>
@@ -25759,7 +26211,7 @@
         <v>1.57</v>
       </c>
       <c r="O231" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="P231" t="n">
         <v>1.31</v>
@@ -25768,61 +26220,61 @@
         <v>3.15</v>
       </c>
       <c r="R231" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S231" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T231" t="n">
         <v>7.9</v>
       </c>
       <c r="U231" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="V231" t="n">
         <v>8.25</v>
       </c>
       <c r="W231" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X231" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y231" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z231" t="n">
         <v>9</v>
       </c>
       <c r="AA231" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB231" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC231" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD231" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE231" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF231" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG231" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AH231" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AI231" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AJ231" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232">
@@ -25872,16 +26324,16 @@
         <v>11</v>
       </c>
       <c r="L232" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M232" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N232" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="O232" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="P232" t="n">
         <v>1.4</v>
@@ -26238,16 +26690,16 @@
         <v>9</v>
       </c>
       <c r="L235" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M235" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N235" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O235" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P235" t="n">
         <v>1.44</v>
@@ -26369,7 +26821,7 @@
         <v>2.03</v>
       </c>
       <c r="O236" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P236" t="n">
         <v>1.4</v>
@@ -26592,28 +27044,28 @@
         <v>2.25</v>
       </c>
       <c r="H238" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I238" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J238" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K238" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L238" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M238" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N238" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O238" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="P238" t="n">
         <v>1.4</v>
@@ -26622,13 +27074,13 @@
         <v>2.75</v>
       </c>
       <c r="R238" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S238" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T238" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U238" t="n">
         <v>11</v>
@@ -26643,37 +27095,37 @@
         <v>19</v>
       </c>
       <c r="Y238" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z238" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA238" t="n">
         <v>6.5</v>
       </c>
       <c r="AB238" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC238" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD238" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE238" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF238" t="n">
         <v>15</v>
       </c>
       <c r="AG238" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH238" t="n">
         <v>34</v>
       </c>
       <c r="AI238" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ238" t="n">
         <v>34</v>
@@ -26711,19 +27163,19 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H239" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I239" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I239" t="n">
-        <v>3.7</v>
       </c>
       <c r="J239" t="n">
         <v>1.06</v>
       </c>
       <c r="K239" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L239" t="n">
         <v>1.3</v>
@@ -26759,16 +27211,16 @@
         <v>9</v>
       </c>
       <c r="W239" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X239" t="n">
         <v>17</v>
       </c>
       <c r="Y239" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z239" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA239" t="n">
         <v>6.5</v>
@@ -26783,13 +27235,13 @@
         <v>251</v>
       </c>
       <c r="AE239" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF239" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG239" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH239" t="n">
         <v>41</v>
@@ -26854,10 +27306,10 @@
         <v>3</v>
       </c>
       <c r="N240" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O240" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P240" t="n">
         <v>1.44</v>
@@ -27632,7 +28084,7 @@
         <v>51</v>
       </c>
       <c r="AD246" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE246" t="n">
         <v>15</v>
@@ -28051,13 +28503,13 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H250" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I250" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J250" t="n">
         <v>1.07</v>
@@ -28111,7 +28563,7 @@
         <v>7.5</v>
       </c>
       <c r="AA250" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB250" t="n">
         <v>19</v>
@@ -28293,7 +28745,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H252" t="n">
         <v>4.75</v>
@@ -28302,73 +28754,73 @@
         <v>6.5</v>
       </c>
       <c r="J252" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K252" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L252" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M252" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N252" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O252" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P252" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q252" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R252" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S252" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T252" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U252" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V252" t="n">
         <v>8.5</v>
       </c>
       <c r="W252" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X252" t="n">
         <v>11</v>
       </c>
       <c r="Y252" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z252" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA252" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB252" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC252" t="n">
         <v>41</v>
       </c>
       <c r="AD252" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE252" t="n">
         <v>21</v>
       </c>
       <c r="AF252" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG252" t="n">
         <v>19</v>
@@ -28424,10 +28876,10 @@
         <v>1.57</v>
       </c>
       <c r="J253" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K253" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L253" t="n">
         <v>1.29</v>
@@ -28436,10 +28888,10 @@
         <v>3.5</v>
       </c>
       <c r="N253" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="O253" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="P253" t="n">
         <v>1.4</v>
@@ -28784,28 +29236,28 @@
         <v>1.5</v>
       </c>
       <c r="H256" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I256" t="n">
         <v>5.5</v>
       </c>
       <c r="J256" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K256" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L256" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M256" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N256" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="O256" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="P256" t="n">
         <v>1.33</v>
@@ -28814,13 +29266,13 @@
         <v>3.25</v>
       </c>
       <c r="R256" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S256" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T256" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U256" t="n">
         <v>7</v>
@@ -28829,28 +29281,28 @@
         <v>8.5</v>
       </c>
       <c r="W256" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X256" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z256" t="n">
         <v>13</v>
       </c>
-      <c r="Y256" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z256" t="n">
-        <v>12</v>
-      </c>
       <c r="AA256" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB256" t="n">
         <v>21</v>
       </c>
       <c r="AC256" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD256" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE256" t="n">
         <v>13</v>
@@ -28906,46 +29358,46 @@
         <v>2.45</v>
       </c>
       <c r="H257" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I257" t="n">
         <v>2.7</v>
       </c>
       <c r="J257" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K257" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L257" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M257" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N257" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O257" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P257" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q257" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R257" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S257" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T257" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U257" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V257" t="n">
         <v>10</v>
@@ -28954,28 +29406,28 @@
         <v>23</v>
       </c>
       <c r="X257" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y257" t="n">
         <v>23</v>
       </c>
       <c r="Z257" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA257" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB257" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE257" t="n">
         <v>12</v>
-      </c>
-      <c r="AC257" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD257" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE257" t="n">
-        <v>11</v>
       </c>
       <c r="AF257" t="n">
         <v>15</v>
@@ -28987,10 +29439,10 @@
         <v>29</v>
       </c>
       <c r="AI257" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ257" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258">
@@ -29757,10 +30209,10 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I264" t="n">
         <v>3.75</v>
@@ -29772,68 +30224,68 @@
         <v>4.55</v>
       </c>
       <c r="L264" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M264" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="N264" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="O264" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P264" t="n">
         <v>1.57</v>
       </c>
       <c r="Q264" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R264" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="S264" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="T264" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="U264" t="n">
         <v>7.9</v>
       </c>
       <c r="V264" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W264" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X264" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y264" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z264" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="AA264" t="n">
         <v>6.3</v>
       </c>
       <c r="AB264" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC264" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD264" t="inlineStr"/>
       <c r="AE264" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AF264" t="n">
         <v>17.5</v>
       </c>
       <c r="AG264" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH264" t="n">
         <v>60</v>
@@ -29842,7 +30294,7 @@
         <v>50</v>
       </c>
       <c r="AJ264" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="265">

--- a/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
@@ -662,16 +662,16 @@
         <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P2" t="n">
         <v>1.29</v>
@@ -680,7 +680,7 @@
         <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -802,7 +802,7 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S3" t="n">
         <v>2.1</v>
@@ -900,10 +900,10 @@
         <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
         <v>1.22</v>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -1025,7 +1025,7 @@
         <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
         <v>1.17</v>
@@ -1046,10 +1046,10 @@
         <v>3.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -1168,7 +1168,7 @@
         <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
         <v>2.2</v>
@@ -1278,10 +1278,10 @@
         <v>5.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="O7" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="P7" t="n">
         <v>1.25</v>
@@ -1400,10 +1400,10 @@
         <v>4.33</v>
       </c>
       <c r="N8" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="O8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P8" t="n">
         <v>1.3</v>
@@ -1522,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="O9" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="P9" t="n">
         <v>1.25</v>
@@ -1766,10 +1766,10 @@
         <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
         <v>1.44</v>
@@ -2115,7 +2115,7 @@
         <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
@@ -2142,16 +2142,16 @@
         <v>3.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T14" t="n">
         <v>13</v>
       </c>
       <c r="U14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V14" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>34</v>
@@ -2374,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O16" t="n">
         <v>2.35</v>
@@ -2496,7 +2496,7 @@
         <v>5.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O17" t="n">
         <v>2.6</v>
@@ -2618,7 +2618,7 @@
         <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O18" t="n">
         <v>2.05</v>
@@ -2740,10 +2740,10 @@
         <v>2.63</v>
       </c>
       <c r="N19" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="O19" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
         <v>1.53</v>
@@ -2841,19 +2841,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L20" t="n">
         <v>1.1</v>
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="N20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="O20" t="n">
         <v>3.4</v>
@@ -2880,7 +2880,7 @@
         <v>3.25</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U20" t="n">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
         <v>21</v>
@@ -2984,10 +2984,10 @@
         <v>2.63</v>
       </c>
       <c r="N21" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="O21" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -3448,43 +3448,43 @@
         <v>1.95</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
         <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U25" t="n">
         <v>7.5</v>
@@ -3496,13 +3496,13 @@
         <v>17</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y25" t="n">
         <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
@@ -3515,13 +3515,13 @@
       </c>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF25" t="n">
         <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
         <v>51</v>
@@ -4645,19 +4645,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
         <v>1.3</v>
@@ -4666,10 +4666,10 @@
         <v>3.4</v>
       </c>
       <c r="N35" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P35" t="n">
         <v>1.4</v>
@@ -4770,43 +4770,43 @@
         <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U36" t="n">
         <v>11</v>
@@ -4815,7 +4815,7 @@
         <v>9</v>
       </c>
       <c r="W36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
@@ -4824,13 +4824,13 @@
         <v>23</v>
       </c>
       <c r="Z36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
         <v>41</v>
@@ -4839,10 +4839,10 @@
         <v>151</v>
       </c>
       <c r="AE36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
         <v>12</v>
@@ -4851,10 +4851,10 @@
         <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -5708,10 +5708,10 @@
         <v>4.33</v>
       </c>
       <c r="N46" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O46" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P46" t="n">
         <v>1.33</v>
@@ -6412,10 +6412,10 @@
         <v>2.8</v>
       </c>
       <c r="J52" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L52" t="n">
         <v>1.5</v>
@@ -6424,10 +6424,10 @@
         <v>2.63</v>
       </c>
       <c r="N52" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P52" t="n">
         <v>1.53</v>
@@ -7375,13 +7375,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
         <v>3.6</v>
       </c>
       <c r="I60" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="J60" t="n">
         <v>1.07</v>
@@ -7411,13 +7411,13 @@
         <v>2</v>
       </c>
       <c r="S60" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T60" t="n">
         <v>11</v>
       </c>
       <c r="U60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V60" t="n">
         <v>15</v>
@@ -7447,16 +7447,16 @@
         <v>351</v>
       </c>
       <c r="AE60" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI60" t="n">
         <v>15</v>
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
@@ -7533,7 +7533,7 @@
         <v>2.1</v>
       </c>
       <c r="S61" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T61" t="n">
         <v>6</v>
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="H62" t="n">
         <v>4.1</v>
@@ -7652,10 +7652,10 @@
         <v>3.25</v>
       </c>
       <c r="R62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T62" t="n">
         <v>7.5</v>
@@ -8237,13 +8237,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J71" t="n">
         <v>1.05</v>
@@ -8276,22 +8276,22 @@
         <v>2.1</v>
       </c>
       <c r="T71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V71" t="n">
         <v>12</v>
       </c>
       <c r="W71" t="n">
+        <v>41</v>
+      </c>
+      <c r="X71" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y71" t="n">
         <v>34</v>
-      </c>
-      <c r="X71" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>29</v>
       </c>
       <c r="Z71" t="n">
         <v>11</v>
@@ -8300,7 +8300,7 @@
         <v>6.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC71" t="n">
         <v>41</v>
@@ -8309,7 +8309,7 @@
         <v>151</v>
       </c>
       <c r="AE71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF71" t="n">
         <v>11</v>
@@ -8318,7 +8318,7 @@
         <v>9</v>
       </c>
       <c r="AH71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI71" t="n">
         <v>17</v>
@@ -8380,10 +8380,10 @@
         <v>4</v>
       </c>
       <c r="N72" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O72" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P72" t="n">
         <v>1.33</v>
@@ -8481,13 +8481,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H73" t="n">
         <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J73" t="n">
         <v>1.04</v>
@@ -8523,7 +8523,7 @@
         <v>9</v>
       </c>
       <c r="U73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V73" t="n">
         <v>9</v>
@@ -8544,7 +8544,7 @@
         <v>6.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC73" t="n">
         <v>41</v>
@@ -8559,7 +8559,7 @@
         <v>17</v>
       </c>
       <c r="AG73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH73" t="n">
         <v>34</v>
@@ -8603,13 +8603,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I74" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -8620,10 +8620,10 @@
         <v>3.25</v>
       </c>
       <c r="N74" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O74" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -8631,28 +8631,28 @@
         <v>1.78</v>
       </c>
       <c r="S74" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T74" t="n">
         <v>7.1</v>
       </c>
       <c r="U74" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="V74" t="n">
         <v>8.25</v>
       </c>
       <c r="W74" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="X74" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y74" t="n">
         <v>26</v>
       </c>
       <c r="Z74" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA74" t="n">
         <v>7.6</v>
@@ -8667,16 +8667,16 @@
         <v>600</v>
       </c>
       <c r="AE74" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG74" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="n">
         <v>45</v>
@@ -9312,7 +9312,7 @@
         <v>2.47</v>
       </c>
       <c r="H80" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="I80" t="n">
         <v>3.45</v>
@@ -9372,7 +9372,7 @@
         <v>5.4</v>
       </c>
       <c r="AB80" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC80" t="n">
         <v>75</v>
@@ -9431,13 +9431,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H81" t="n">
         <v>3.1</v>
       </c>
       <c r="I81" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -9445,10 +9445,10 @@
         <v>1.38</v>
       </c>
       <c r="M81" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="N81" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O81" t="n">
         <v>1.57</v>
@@ -9466,10 +9466,10 @@
         <v>1.75</v>
       </c>
       <c r="T81" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="U81" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V81" t="n">
         <v>11.75</v>
@@ -9484,7 +9484,7 @@
         <v>45</v>
       </c>
       <c r="Z81" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA81" t="n">
         <v>6.1</v>
@@ -9499,19 +9499,19 @@
         <v>800</v>
       </c>
       <c r="AE81" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AF81" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG81" t="n">
         <v>9</v>
       </c>
       <c r="AH81" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI81" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ81" t="n">
         <v>35</v>
@@ -9691,7 +9691,7 @@
         <v>2.05</v>
       </c>
       <c r="O83" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P83" t="n">
         <v>1.4</v>
@@ -9813,7 +9813,7 @@
         <v>2.4</v>
       </c>
       <c r="O84" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P84" t="n">
         <v>1.53</v>
@@ -9933,7 +9933,7 @@
         <v>2.25</v>
       </c>
       <c r="O85" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P85" t="n">
         <v>1.44</v>
@@ -10055,7 +10055,7 @@
         <v>2.5</v>
       </c>
       <c r="O86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P86" t="n">
         <v>1.53</v>
@@ -10153,67 +10153,67 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="I87" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="J87" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K87" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="L87" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M87" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="N87" t="n">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="O87" t="n">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="P87" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R87" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S87" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T87" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="U87" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V87" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W87" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="X87" t="n">
         <v>67</v>
       </c>
       <c r="Y87" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Z87" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA87" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB87" t="n">
         <v>26</v>
@@ -10223,19 +10223,19 @@
       </c>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF87" t="n">
         <v>6</v>
       </c>
-      <c r="AF87" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AG87" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ87" t="n">
         <v>41</v>
@@ -10273,13 +10273,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="I88" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -10296,16 +10296,16 @@
         <v>1.7</v>
       </c>
       <c r="P88" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="R88" t="n">
         <v>1.65</v>
       </c>
       <c r="S88" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T88" t="n">
         <v>9.25</v>
@@ -10314,46 +10314,46 @@
         <v>17</v>
       </c>
       <c r="V88" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="W88" t="n">
         <v>45</v>
       </c>
       <c r="X88" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y88" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z88" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA88" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AB88" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC88" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD88" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE88" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF88" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG88" t="n">
         <v>9</v>
       </c>
       <c r="AH88" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI88" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ88" t="n">
         <v>28</v>
@@ -10513,7 +10513,7 @@
         <v>1.25</v>
       </c>
       <c r="M90" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N90" t="n">
         <v>1.75</v>
@@ -10534,7 +10534,7 @@
         <v>1.62</v>
       </c>
       <c r="T90" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U90" t="n">
         <v>6.1</v>
@@ -10552,13 +10552,13 @@
         <v>32</v>
       </c>
       <c r="Z90" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA90" t="n">
         <v>8.75</v>
       </c>
       <c r="AB90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC90" t="n">
         <v>120</v>
@@ -10567,13 +10567,13 @@
         <v>700</v>
       </c>
       <c r="AE90" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF90" t="n">
         <v>45</v>
       </c>
       <c r="AG90" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH90" t="n">
         <v>175</v>
@@ -10629,7 +10629,7 @@
         <v>1.03</v>
       </c>
       <c r="K91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L91" t="n">
         <v>1.18</v>
@@ -10638,13 +10638,13 @@
         <v>4.5</v>
       </c>
       <c r="N91" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O91" t="n">
         <v>2.25</v>
       </c>
       <c r="P91" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q91" t="n">
         <v>3.5</v>
@@ -10763,13 +10763,13 @@
         <v>2.15</v>
       </c>
       <c r="O92" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P92" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R92" t="n">
         <v>2</v>
@@ -10882,13 +10882,13 @@
         <v>4</v>
       </c>
       <c r="N93" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O93" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P93" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q93" t="n">
         <v>3.25</v>
@@ -11004,13 +11004,13 @@
         <v>4.33</v>
       </c>
       <c r="N94" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O94" t="n">
         <v>2.15</v>
       </c>
       <c r="P94" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q94" t="n">
         <v>3.4</v>
@@ -11132,7 +11132,7 @@
         <v>2</v>
       </c>
       <c r="P95" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q95" t="n">
         <v>3.25</v>
@@ -11349,13 +11349,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="H97" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I97" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J97" t="n">
         <v>1.05</v>
@@ -11364,22 +11364,22 @@
         <v>11</v>
       </c>
       <c r="L97" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M97" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N97" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O97" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P97" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R97" t="n">
         <v>1.83</v>
@@ -11388,28 +11388,28 @@
         <v>1.83</v>
       </c>
       <c r="T97" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U97" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V97" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W97" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X97" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y97" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z97" t="n">
         <v>11</v>
       </c>
       <c r="AA97" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB97" t="n">
         <v>17</v>
@@ -11418,25 +11418,25 @@
         <v>51</v>
       </c>
       <c r="AD97" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF97" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH97" t="n">
         <v>41</v>
       </c>
       <c r="AI97" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98">
@@ -11840,10 +11840,10 @@
         <v>1.57</v>
       </c>
       <c r="H101" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I101" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J101" t="n">
         <v>1.03</v>
@@ -11852,22 +11852,22 @@
         <v>15</v>
       </c>
       <c r="L101" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M101" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N101" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="O101" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P101" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q101" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R101" t="n">
         <v>1.7</v>
@@ -11897,7 +11897,7 @@
         <v>15</v>
       </c>
       <c r="AA101" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB101" t="n">
         <v>15</v>
@@ -11906,7 +11906,7 @@
         <v>41</v>
       </c>
       <c r="AD101" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE101" t="n">
         <v>17</v>
@@ -11915,7 +11915,7 @@
         <v>29</v>
       </c>
       <c r="AG101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH101" t="n">
         <v>51</v>
@@ -11980,7 +11980,7 @@
         <v>4.5</v>
       </c>
       <c r="N102" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O102" t="n">
         <v>2.25</v>
@@ -12102,7 +12102,7 @@
         <v>5</v>
       </c>
       <c r="N103" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O103" t="n">
         <v>2.3</v>
@@ -12471,7 +12471,7 @@
         <v>2.15</v>
       </c>
       <c r="O106" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P106" t="n">
         <v>1.44</v>
@@ -12569,13 +12569,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H107" t="n">
         <v>3.6</v>
       </c>
       <c r="I107" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J107" t="n">
         <v>1.05</v>
@@ -12641,7 +12641,7 @@
         <v>201</v>
       </c>
       <c r="AE107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF107" t="n">
         <v>17</v>
@@ -12650,7 +12650,7 @@
         <v>12</v>
       </c>
       <c r="AH107" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI107" t="n">
         <v>26</v>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H108" t="n">
         <v>3.1</v>
@@ -12936,16 +12936,16 @@
         <v>3.05</v>
       </c>
       <c r="H110" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I110" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="J110" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="K110" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="L110" t="n">
         <v>1.65</v>
@@ -12957,7 +12957,7 @@
         <v>2.87</v>
       </c>
       <c r="O110" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P110" t="n">
         <v>1.65</v>
@@ -12966,19 +12966,19 @@
         <v>2.1</v>
       </c>
       <c r="R110" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S110" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T110" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U110" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V110" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W110" t="n">
         <v>45</v>
@@ -12987,16 +12987,16 @@
         <v>37</v>
       </c>
       <c r="Y110" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z110" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AA110" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AB110" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC110" t="n">
         <v>120</v>
@@ -13006,13 +13006,13 @@
         <v>6</v>
       </c>
       <c r="AF110" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG110" t="n">
         <v>11</v>
       </c>
       <c r="AH110" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI110" t="n">
         <v>32</v>
@@ -13173,19 +13173,19 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H112" t="n">
         <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K112" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L112" t="n">
         <v>1.4</v>
@@ -13194,10 +13194,10 @@
         <v>2.75</v>
       </c>
       <c r="N112" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O112" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P112" t="n">
         <v>1.5</v>
@@ -13230,7 +13230,7 @@
         <v>34</v>
       </c>
       <c r="Z112" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA112" t="n">
         <v>6</v>
@@ -13242,10 +13242,10 @@
         <v>51</v>
       </c>
       <c r="AD112" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF112" t="n">
         <v>15</v>
@@ -13523,13 +13523,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I115" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -13539,7 +13539,7 @@
         <v>1.75</v>
       </c>
       <c r="O115" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
@@ -13549,25 +13549,25 @@
         <v>6.4</v>
       </c>
       <c r="U115" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="V115" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W115" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="X115" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y115" t="n">
         <v>20</v>
       </c>
       <c r="Z115" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA115" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB115" t="n">
         <v>12.5</v>
@@ -13579,19 +13579,19 @@
         <v>350</v>
       </c>
       <c r="AE115" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF115" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG115" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH115" t="n">
         <v>45</v>
       </c>
       <c r="AI115" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ115" t="n">
         <v>32</v>
@@ -13656,7 +13656,7 @@
         <v>1.93</v>
       </c>
       <c r="P116" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q116" t="n">
         <v>3</v>
@@ -13875,13 +13875,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H119" t="n">
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J119" t="n">
         <v>1.03</v>
@@ -13908,13 +13908,13 @@
         <v>3.5</v>
       </c>
       <c r="R119" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S119" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U119" t="n">
         <v>12</v>
@@ -13923,7 +13923,7 @@
         <v>9</v>
       </c>
       <c r="W119" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X119" t="n">
         <v>15</v>
@@ -13932,10 +13932,10 @@
         <v>21</v>
       </c>
       <c r="Z119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA119" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB119" t="n">
         <v>13</v>
@@ -13950,7 +13950,7 @@
         <v>13</v>
       </c>
       <c r="AF119" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG119" t="n">
         <v>11</v>
@@ -13959,10 +13959,10 @@
         <v>34</v>
       </c>
       <c r="AI119" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ119" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="120">
@@ -14194,7 +14194,7 @@
         <v>10</v>
       </c>
       <c r="AF121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG121" t="n">
         <v>9</v>
@@ -14241,19 +14241,19 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H122" t="n">
         <v>4.75</v>
       </c>
       <c r="I122" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="J122" t="n">
         <v>1.03</v>
       </c>
       <c r="K122" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L122" t="n">
         <v>1.17</v>
@@ -14268,10 +14268,10 @@
         <v>2.35</v>
       </c>
       <c r="P122" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q122" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R122" t="n">
         <v>1.8</v>
@@ -14280,7 +14280,7 @@
         <v>1.91</v>
       </c>
       <c r="T122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U122" t="n">
         <v>41</v>
@@ -14750,10 +14750,10 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O126" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P126" t="n">
         <v>1.4</v>
@@ -14762,10 +14762,10 @@
         <v>2.75</v>
       </c>
       <c r="R126" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S126" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T126" t="n">
         <v>7.5</v>
@@ -14971,22 +14971,22 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H128" t="n">
         <v>3.2</v>
       </c>
       <c r="I128" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J128" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K128" t="n">
         <v>11</v>
       </c>
       <c r="L128" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M128" t="n">
         <v>3.5</v>
@@ -15004,7 +15004,7 @@
         <v>2.75</v>
       </c>
       <c r="R128" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S128" t="n">
         <v>2</v>
@@ -15013,13 +15013,13 @@
         <v>8</v>
       </c>
       <c r="U128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V128" t="n">
         <v>9</v>
       </c>
       <c r="W128" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X128" t="n">
         <v>17</v>
@@ -15031,7 +15031,7 @@
         <v>10</v>
       </c>
       <c r="AA128" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB128" t="n">
         <v>13</v>
@@ -15046,16 +15046,16 @@
         <v>11</v>
       </c>
       <c r="AF128" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH128" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI128" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ128" t="n">
         <v>34</v>
@@ -15102,13 +15102,13 @@
         <v>3.5</v>
       </c>
       <c r="J129" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K129" t="n">
         <v>13</v>
       </c>
       <c r="L129" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M129" t="n">
         <v>4</v>
@@ -15126,7 +15126,7 @@
         <v>3.25</v>
       </c>
       <c r="R129" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S129" t="n">
         <v>2.1</v>
@@ -15926,36 +15926,96 @@
           <t>Torres</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
-      <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="inlineStr"/>
-      <c r="AC136" t="inlineStr"/>
-      <c r="AD136" t="inlineStr"/>
-      <c r="AE136" t="inlineStr"/>
-      <c r="AF136" t="inlineStr"/>
-      <c r="AG136" t="inlineStr"/>
-      <c r="AH136" t="inlineStr"/>
-      <c r="AI136" t="inlineStr"/>
-      <c r="AJ136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K136" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P136" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T136" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U136" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V136" t="n">
+        <v>9</v>
+      </c>
+      <c r="W136" t="n">
+        <v>27</v>
+      </c>
+      <c r="X136" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16050,36 +16110,96 @@
           <t>FeralpiSalo</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
-      <c r="AA138" t="inlineStr"/>
-      <c r="AB138" t="inlineStr"/>
-      <c r="AC138" t="inlineStr"/>
-      <c r="AD138" t="inlineStr"/>
-      <c r="AE138" t="inlineStr"/>
-      <c r="AF138" t="inlineStr"/>
-      <c r="AG138" t="inlineStr"/>
-      <c r="AH138" t="inlineStr"/>
-      <c r="AI138" t="inlineStr"/>
-      <c r="AJ138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K138" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S138" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T138" t="n">
+        <v>7</v>
+      </c>
+      <c r="U138" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V138" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W138" t="n">
+        <v>22</v>
+      </c>
+      <c r="X138" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16112,36 +16232,94 @@
           <t>Monopoli</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
-      <c r="AA139" t="inlineStr"/>
-      <c r="AB139" t="inlineStr"/>
-      <c r="AC139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K139" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S139" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T139" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U139" t="n">
+        <v>12</v>
+      </c>
+      <c r="V139" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W139" t="n">
+        <v>30</v>
+      </c>
+      <c r="X139" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>110</v>
+      </c>
       <c r="AD139" t="inlineStr"/>
-      <c r="AE139" t="inlineStr"/>
-      <c r="AF139" t="inlineStr"/>
-      <c r="AG139" t="inlineStr"/>
-      <c r="AH139" t="inlineStr"/>
-      <c r="AI139" t="inlineStr"/>
-      <c r="AJ139" t="inlineStr"/>
+      <c r="AE139" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16174,36 +16352,96 @@
           <t>Rimini</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
-      <c r="AA140" t="inlineStr"/>
-      <c r="AB140" t="inlineStr"/>
-      <c r="AC140" t="inlineStr"/>
-      <c r="AD140" t="inlineStr"/>
-      <c r="AE140" t="inlineStr"/>
-      <c r="AF140" t="inlineStr"/>
-      <c r="AG140" t="inlineStr"/>
-      <c r="AH140" t="inlineStr"/>
-      <c r="AI140" t="inlineStr"/>
-      <c r="AJ140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T140" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U140" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="V140" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W140" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X140" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16258,10 +16496,10 @@
         <v>3.5</v>
       </c>
       <c r="N141" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O141" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -16746,10 +16984,10 @@
         <v>4.5</v>
       </c>
       <c r="N145" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O145" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P145" t="n">
         <v>1.3</v>
@@ -17710,10 +17948,10 @@
         <v>3.9</v>
       </c>
       <c r="J153" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K153" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L153" t="n">
         <v>1.53</v>
@@ -18187,20 +18425,20 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="H157" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O157" t="n">
         <v>1.8</v>
@@ -18214,55 +18452,55 @@
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U157" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="V157" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="W157" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="X157" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y157" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z157" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA157" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB157" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC157" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD157" t="n">
         <v>250</v>
       </c>
       <c r="AE157" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF157" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG157" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH157" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AI157" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ157" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158">
@@ -18403,77 +18641,77 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="H159" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I159" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M159" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="U159" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V159" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W159" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X159" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y159" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z159" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA159" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AB159" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC159" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD159" t="inlineStr"/>
       <c r="AE159" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AF159" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG159" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH159" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI159" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AJ159" t="n">
         <v>35</v>
@@ -18621,13 +18859,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H161" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I161" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J161" t="n">
         <v>1.05</v>
@@ -18648,7 +18886,7 @@
         <v>1.9</v>
       </c>
       <c r="P161" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q161" t="n">
         <v>3</v>
@@ -18660,10 +18898,10 @@
         <v>1.95</v>
       </c>
       <c r="T161" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U161" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V161" t="n">
         <v>8.5</v>
@@ -18672,7 +18910,7 @@
         <v>13</v>
       </c>
       <c r="X161" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y161" t="n">
         <v>26</v>
@@ -18693,7 +18931,7 @@
         <v>251</v>
       </c>
       <c r="AE161" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF161" t="n">
         <v>26</v>
@@ -18743,7 +18981,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H162" t="n">
         <v>3.7</v>
@@ -18770,7 +19008,7 @@
         <v>1.95</v>
       </c>
       <c r="P162" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q162" t="n">
         <v>3.25</v>
@@ -18865,13 +19103,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>3.55</v>
       </c>
       <c r="I163" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -18893,7 +19131,7 @@
         <v>1.6</v>
       </c>
       <c r="S163" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T163" t="n">
         <v>8.25</v>
@@ -18905,7 +19143,7 @@
         <v>8.25</v>
       </c>
       <c r="W163" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X163" t="n">
         <v>13.5</v>
@@ -18917,7 +19155,7 @@
         <v>12</v>
       </c>
       <c r="AA163" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB163" t="n">
         <v>13</v>
@@ -18929,10 +19167,10 @@
         <v>350</v>
       </c>
       <c r="AE163" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF163" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG163" t="n">
         <v>13</v>
@@ -19099,7 +19337,7 @@
         <v>3.5</v>
       </c>
       <c r="I165" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -19218,10 +19456,10 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M166" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="N166" t="n">
         <v>1.9</v>
@@ -19230,16 +19468,16 @@
         <v>1.9</v>
       </c>
       <c r="P166" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="Q166" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="R166" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S166" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="T166" t="n">
         <v>8.5</v>
@@ -19331,7 +19569,7 @@
         <v>2.8</v>
       </c>
       <c r="I167" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -19561,31 +19799,31 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H169" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I169" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J169" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K169" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L169" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M169" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N169" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O169" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P169" t="n">
         <v>1.57</v>
@@ -19603,22 +19841,22 @@
         <v>6</v>
       </c>
       <c r="U169" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V169" t="n">
         <v>10</v>
       </c>
       <c r="W169" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X169" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y169" t="n">
         <v>41</v>
       </c>
       <c r="Z169" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA169" t="n">
         <v>6</v>
@@ -19640,7 +19878,7 @@
         <v>13</v>
       </c>
       <c r="AH169" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI169" t="n">
         <v>34</v>
@@ -19691,18 +19929,30 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2.47</v>
+      </c>
       <c r="N170" t="n">
         <v>2.05</v>
       </c>
       <c r="O170" t="n">
         <v>1.75</v>
       </c>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr"/>
+      <c r="P170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S170" t="n">
+        <v>1.75</v>
+      </c>
       <c r="T170" t="n">
         <v>8</v>
       </c>
@@ -19797,18 +20047,30 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2.7</v>
+      </c>
       <c r="N171" t="n">
         <v>1.85</v>
       </c>
       <c r="O171" t="n">
         <v>1.95</v>
       </c>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr"/>
+      <c r="P171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S171" t="n">
+        <v>1.55</v>
+      </c>
       <c r="T171" t="n">
         <v>6.5</v>
       </c>
@@ -20629,7 +20891,7 @@
         <v>4.2</v>
       </c>
       <c r="I178" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J178" t="n">
         <v>1.03</v>
@@ -20644,10 +20906,10 @@
         <v>5.5</v>
       </c>
       <c r="N178" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O178" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P178" t="n">
         <v>1.25</v>
@@ -20698,13 +20960,13 @@
         <v>10</v>
       </c>
       <c r="AF178" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG178" t="n">
         <v>8.5</v>
       </c>
       <c r="AH178" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI178" t="n">
         <v>11</v>
@@ -20754,13 +21016,13 @@
         <v>2.35</v>
       </c>
       <c r="J179" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K179" t="n">
         <v>11</v>
       </c>
       <c r="L179" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M179" t="n">
         <v>3.75</v>
@@ -20876,13 +21138,13 @@
         <v>2.2</v>
       </c>
       <c r="J180" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K180" t="n">
         <v>13</v>
       </c>
       <c r="L180" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M180" t="n">
         <v>4</v>
@@ -20998,13 +21260,13 @@
         <v>2.75</v>
       </c>
       <c r="J181" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K181" t="n">
         <v>13</v>
       </c>
       <c r="L181" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M181" t="n">
         <v>4</v>
@@ -21120,13 +21382,13 @@
         <v>2.4</v>
       </c>
       <c r="J182" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K182" t="n">
         <v>11</v>
       </c>
       <c r="L182" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M182" t="n">
         <v>3.75</v>
@@ -21254,10 +21516,10 @@
         <v>3</v>
       </c>
       <c r="N183" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O183" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P183" t="n">
         <v>1.44</v>
@@ -22956,10 +23218,10 @@
         <v>10</v>
       </c>
       <c r="L198" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M198" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N198" t="n">
         <v>2.1</v>
@@ -23072,10 +23334,10 @@
         <v>5.5</v>
       </c>
       <c r="J199" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K199" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L199" t="n">
         <v>1.29</v>
@@ -23084,10 +23346,10 @@
         <v>3.5</v>
       </c>
       <c r="N199" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O199" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P199" t="n">
         <v>1.36</v>
@@ -23322,10 +23584,10 @@
         <v>9</v>
       </c>
       <c r="L201" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M201" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N201" t="n">
         <v>2.1</v>
@@ -23438,10 +23700,10 @@
         <v>3.4</v>
       </c>
       <c r="J202" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K202" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L202" t="n">
         <v>1.3</v>
@@ -23450,10 +23712,10 @@
         <v>3.4</v>
       </c>
       <c r="N202" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O202" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P202" t="n">
         <v>1.4</v>
@@ -23468,7 +23730,7 @@
         <v>1.91</v>
       </c>
       <c r="T202" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U202" t="n">
         <v>10</v>
@@ -23486,7 +23748,7 @@
         <v>29</v>
       </c>
       <c r="Z202" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA202" t="n">
         <v>6</v>
@@ -23495,13 +23757,13 @@
         <v>13</v>
       </c>
       <c r="AC202" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD202" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE202" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF202" t="n">
         <v>17</v>
@@ -23510,13 +23772,13 @@
         <v>13</v>
       </c>
       <c r="AH202" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI202" t="n">
         <v>29</v>
       </c>
       <c r="AJ202" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203">
@@ -23795,13 +24057,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="H205" t="n">
         <v>3.1</v>
       </c>
       <c r="I205" t="n">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="J205" t="n">
         <v>1.05</v>
@@ -23810,16 +24072,16 @@
         <v>11</v>
       </c>
       <c r="L205" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M205" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N205" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O205" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P205" t="n">
         <v>1.4</v>
@@ -23834,25 +24096,25 @@
         <v>2</v>
       </c>
       <c r="T205" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="U205" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V205" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W205" t="n">
+        <v>29</v>
+      </c>
+      <c r="X205" t="n">
         <v>23</v>
-      </c>
-      <c r="X205" t="n">
-        <v>21</v>
       </c>
       <c r="Y205" t="n">
         <v>29</v>
       </c>
       <c r="Z205" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA205" t="n">
         <v>6</v>
@@ -23867,22 +24129,22 @@
         <v>201</v>
       </c>
       <c r="AE205" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG205" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF205" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG205" t="n">
-        <v>11</v>
-      </c>
       <c r="AH205" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ205" t="n">
         <v>29</v>
-      </c>
-      <c r="AI205" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ205" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="206">
@@ -24728,13 +24990,13 @@
         <v>1.65</v>
       </c>
       <c r="J217" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K217" t="n">
         <v>11</v>
       </c>
       <c r="L217" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M217" t="n">
         <v>5.5</v>
@@ -24850,22 +25112,22 @@
         <v>3.1</v>
       </c>
       <c r="J218" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K218" t="n">
         <v>8.5</v>
       </c>
       <c r="L218" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M218" t="n">
         <v>3.5</v>
       </c>
       <c r="N218" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O218" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P218" t="n">
         <v>1.36</v>
@@ -24972,13 +25234,13 @@
         <v>1.53</v>
       </c>
       <c r="J219" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K219" t="n">
         <v>9</v>
       </c>
       <c r="L219" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M219" t="n">
         <v>3.75</v>
@@ -25088,28 +25350,28 @@
         <v>1.48</v>
       </c>
       <c r="H220" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I220" t="n">
         <v>5</v>
       </c>
       <c r="J220" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="K220" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="L220" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M220" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N220" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O220" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P220" t="n">
         <v>1.25</v>
@@ -25124,7 +25386,7 @@
         <v>2.1</v>
       </c>
       <c r="T220" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U220" t="n">
         <v>8.5</v>
@@ -25136,16 +25398,16 @@
         <v>11</v>
       </c>
       <c r="X220" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y220" t="n">
         <v>21</v>
       </c>
       <c r="Z220" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA220" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB220" t="n">
         <v>17</v>
@@ -25157,7 +25419,7 @@
         <v>151</v>
       </c>
       <c r="AE220" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF220" t="n">
         <v>29</v>
@@ -25216,13 +25478,13 @@
         <v>5.25</v>
       </c>
       <c r="J221" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K221" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L221" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M221" t="n">
         <v>5</v>
@@ -25328,36 +25590,96 @@
           <t>Radnicki Nis</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr"/>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="inlineStr"/>
-      <c r="T222" t="inlineStr"/>
-      <c r="U222" t="inlineStr"/>
-      <c r="V222" t="inlineStr"/>
-      <c r="W222" t="inlineStr"/>
-      <c r="X222" t="inlineStr"/>
-      <c r="Y222" t="inlineStr"/>
-      <c r="Z222" t="inlineStr"/>
-      <c r="AA222" t="inlineStr"/>
-      <c r="AB222" t="inlineStr"/>
-      <c r="AC222" t="inlineStr"/>
-      <c r="AD222" t="inlineStr"/>
-      <c r="AE222" t="inlineStr"/>
-      <c r="AF222" t="inlineStr"/>
-      <c r="AG222" t="inlineStr"/>
-      <c r="AH222" t="inlineStr"/>
-      <c r="AI222" t="inlineStr"/>
-      <c r="AJ222" t="inlineStr"/>
+      <c r="G222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H222" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K222" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="N222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P222" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T222" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U222" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V222" t="n">
+        <v>9</v>
+      </c>
+      <c r="W222" t="n">
+        <v>23</v>
+      </c>
+      <c r="X222" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -25390,36 +25712,96 @@
           <t>Mladost</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr"/>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="inlineStr"/>
-      <c r="T223" t="inlineStr"/>
-      <c r="U223" t="inlineStr"/>
-      <c r="V223" t="inlineStr"/>
-      <c r="W223" t="inlineStr"/>
-      <c r="X223" t="inlineStr"/>
-      <c r="Y223" t="inlineStr"/>
-      <c r="Z223" t="inlineStr"/>
-      <c r="AA223" t="inlineStr"/>
-      <c r="AB223" t="inlineStr"/>
-      <c r="AC223" t="inlineStr"/>
-      <c r="AD223" t="inlineStr"/>
-      <c r="AE223" t="inlineStr"/>
-      <c r="AF223" t="inlineStr"/>
-      <c r="AG223" t="inlineStr"/>
-      <c r="AH223" t="inlineStr"/>
-      <c r="AI223" t="inlineStr"/>
-      <c r="AJ223" t="inlineStr"/>
+      <c r="G223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H223" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I223" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K223" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R223" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S223" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T223" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V223" t="n">
+        <v>8</v>
+      </c>
+      <c r="W223" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X223" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -25452,36 +25834,96 @@
           <t>Vojvodina</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
-      <c r="N224" t="inlineStr"/>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="inlineStr"/>
-      <c r="T224" t="inlineStr"/>
-      <c r="U224" t="inlineStr"/>
-      <c r="V224" t="inlineStr"/>
-      <c r="W224" t="inlineStr"/>
-      <c r="X224" t="inlineStr"/>
-      <c r="Y224" t="inlineStr"/>
-      <c r="Z224" t="inlineStr"/>
-      <c r="AA224" t="inlineStr"/>
-      <c r="AB224" t="inlineStr"/>
-      <c r="AC224" t="inlineStr"/>
-      <c r="AD224" t="inlineStr"/>
-      <c r="AE224" t="inlineStr"/>
-      <c r="AF224" t="inlineStr"/>
-      <c r="AG224" t="inlineStr"/>
-      <c r="AH224" t="inlineStr"/>
-      <c r="AI224" t="inlineStr"/>
-      <c r="AJ224" t="inlineStr"/>
+      <c r="G224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H224" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I224" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K224" t="n">
+        <v>10</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M224" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O224" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="P224" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R224" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S224" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T224" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U224" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V224" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W224" t="n">
+        <v>10</v>
+      </c>
+      <c r="X224" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -25514,36 +25956,96 @@
           <t>TSC</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
-      <c r="N225" t="inlineStr"/>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="inlineStr"/>
-      <c r="T225" t="inlineStr"/>
-      <c r="U225" t="inlineStr"/>
-      <c r="V225" t="inlineStr"/>
-      <c r="W225" t="inlineStr"/>
-      <c r="X225" t="inlineStr"/>
-      <c r="Y225" t="inlineStr"/>
-      <c r="Z225" t="inlineStr"/>
-      <c r="AA225" t="inlineStr"/>
-      <c r="AB225" t="inlineStr"/>
-      <c r="AC225" t="inlineStr"/>
-      <c r="AD225" t="inlineStr"/>
-      <c r="AE225" t="inlineStr"/>
-      <c r="AF225" t="inlineStr"/>
-      <c r="AG225" t="inlineStr"/>
-      <c r="AH225" t="inlineStr"/>
-      <c r="AI225" t="inlineStr"/>
-      <c r="AJ225" t="inlineStr"/>
+      <c r="G225" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H225" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I225" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K225" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M225" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P225" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T225" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U225" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V225" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W225" t="n">
+        <v>19</v>
+      </c>
+      <c r="X225" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -26065,19 +26567,19 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H230" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I230" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J230" t="n">
         <v>1.07</v>
       </c>
       <c r="K230" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="L230" t="n">
         <v>1.31</v>
@@ -26086,25 +26588,25 @@
         <v>3.15</v>
       </c>
       <c r="N230" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O230" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P230" t="n">
         <v>1.44</v>
       </c>
       <c r="Q230" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R230" t="n">
         <v>1.7</v>
       </c>
       <c r="S230" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T230" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U230" t="n">
         <v>12.5</v>
@@ -26113,46 +26615,46 @@
         <v>9.25</v>
       </c>
       <c r="W230" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X230" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y230" t="n">
         <v>28</v>
       </c>
       <c r="Z230" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AA230" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB230" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC230" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD230" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE230" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF230" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG230" t="n">
         <v>10</v>
       </c>
       <c r="AH230" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI230" t="n">
         <v>23</v>
       </c>
       <c r="AJ230" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231">
@@ -26190,10 +26692,10 @@
         <v>1.33</v>
       </c>
       <c r="H231" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="I231" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J231" t="n">
         <v>1.03</v>
@@ -26205,52 +26707,52 @@
         <v>1.18</v>
       </c>
       <c r="M231" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="N231" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O231" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="P231" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="Q231" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="R231" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S231" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T231" t="n">
         <v>7.9</v>
       </c>
       <c r="U231" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="V231" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W231" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X231" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y231" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z231" t="n">
         <v>9</v>
       </c>
       <c r="AA231" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB231" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC231" t="n">
         <v>80</v>
@@ -26262,19 +26764,19 @@
         <v>23</v>
       </c>
       <c r="AF231" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG231" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH231" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI231" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ231" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232">
@@ -26330,10 +26832,10 @@
         <v>3.75</v>
       </c>
       <c r="N232" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O232" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="P232" t="n">
         <v>1.4</v>
@@ -26675,13 +27177,13 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H235" t="n">
         <v>3.2</v>
       </c>
       <c r="I235" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J235" t="n">
         <v>1.07</v>
@@ -26690,16 +27192,16 @@
         <v>9</v>
       </c>
       <c r="L235" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M235" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N235" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O235" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P235" t="n">
         <v>1.44</v>
@@ -26714,10 +27216,10 @@
         <v>1.8</v>
       </c>
       <c r="T235" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U235" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V235" t="n">
         <v>13</v>
@@ -26744,7 +27246,7 @@
         <v>51</v>
       </c>
       <c r="AD235" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AE235" t="n">
         <v>6.5</v>
@@ -26756,10 +27258,10 @@
         <v>9</v>
       </c>
       <c r="AH235" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI235" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ235" t="n">
         <v>34</v>
@@ -26821,7 +27323,7 @@
         <v>2.03</v>
       </c>
       <c r="O236" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P236" t="n">
         <v>1.4</v>
@@ -27172,10 +27674,10 @@
         <v>3.5</v>
       </c>
       <c r="J239" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K239" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L239" t="n">
         <v>1.3</v>
@@ -27184,10 +27686,10 @@
         <v>3.4</v>
       </c>
       <c r="N239" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O239" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P239" t="n">
         <v>1.4</v>
@@ -28137,19 +28639,19 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H247" t="n">
         <v>3</v>
       </c>
       <c r="I247" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J247" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K247" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L247" t="n">
         <v>1.36</v>
@@ -28176,31 +28678,31 @@
         <v>1.8</v>
       </c>
       <c r="T247" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U247" t="n">
         <v>15</v>
       </c>
       <c r="V247" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W247" t="n">
+        <v>34</v>
+      </c>
+      <c r="X247" t="n">
         <v>29</v>
-      </c>
-      <c r="X247" t="n">
-        <v>26</v>
       </c>
       <c r="Y247" t="n">
         <v>41</v>
       </c>
       <c r="Z247" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA247" t="n">
         <v>6</v>
       </c>
       <c r="AB247" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC247" t="n">
         <v>51</v>
@@ -28212,7 +28714,7 @@
         <v>7</v>
       </c>
       <c r="AF247" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG247" t="n">
         <v>10</v>
@@ -28748,7 +29250,7 @@
         <v>1.42</v>
       </c>
       <c r="H252" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I252" t="n">
         <v>6.5</v>
@@ -28799,7 +29301,7 @@
         <v>11</v>
       </c>
       <c r="Y252" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z252" t="n">
         <v>19</v>
@@ -28870,40 +29372,40 @@
         <v>5.5</v>
       </c>
       <c r="H253" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I253" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J253" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K253" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L253" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M253" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N253" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O253" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>3</v>
+      </c>
+      <c r="R253" t="n">
         <v>1.95</v>
       </c>
-      <c r="P253" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q253" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R253" t="n">
-        <v>2</v>
-      </c>
       <c r="S253" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T253" t="n">
         <v>13</v>
@@ -28915,16 +29417,16 @@
         <v>17</v>
       </c>
       <c r="W253" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X253" t="n">
         <v>41</v>
       </c>
       <c r="Y253" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z253" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA253" t="n">
         <v>8</v>
@@ -28933,10 +29435,10 @@
         <v>19</v>
       </c>
       <c r="AC253" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD253" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE253" t="n">
         <v>6.5</v>
@@ -28954,7 +29456,7 @@
         <v>13</v>
       </c>
       <c r="AJ253" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254">
@@ -29364,13 +29866,13 @@
         <v>2.7</v>
       </c>
       <c r="J257" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K257" t="n">
         <v>15</v>
       </c>
       <c r="L257" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M257" t="n">
         <v>4.5</v>
@@ -29486,13 +29988,13 @@
         <v>2.88</v>
       </c>
       <c r="J258" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K258" t="n">
         <v>17</v>
       </c>
       <c r="L258" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M258" t="n">
         <v>5</v>
@@ -29745,7 +30247,7 @@
         <v>2.05</v>
       </c>
       <c r="O260" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P260" t="n">
         <v>1.4</v>
@@ -29754,10 +30256,10 @@
         <v>2.75</v>
       </c>
       <c r="R260" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S260" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T260" t="n">
         <v>7.5</v>
@@ -29864,10 +30366,10 @@
         <v>13</v>
       </c>
       <c r="N261" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="O261" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P261" t="n">
         <v>1.13</v>
@@ -29876,10 +30378,10 @@
         <v>6</v>
       </c>
       <c r="R261" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S261" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T261" t="n">
         <v>17</v>
@@ -29986,7 +30488,7 @@
         <v>8</v>
       </c>
       <c r="N262" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="O262" t="n">
         <v>3.5</v>
@@ -29998,7 +30500,7 @@
         <v>4.5</v>
       </c>
       <c r="R262" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S262" t="n">
         <v>2</v>
@@ -30108,7 +30610,7 @@
         <v>4.55</v>
       </c>
       <c r="N263" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O263" t="n">
         <v>2.5</v>
@@ -30129,19 +30631,19 @@
         <v>10</v>
       </c>
       <c r="U263" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V263" t="n">
         <v>8.5</v>
       </c>
       <c r="W263" t="n">
+        <v>13</v>
+      </c>
+      <c r="X263" t="n">
         <v>12</v>
       </c>
-      <c r="X263" t="n">
-        <v>11</v>
-      </c>
       <c r="Y263" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z263" t="n">
         <v>19</v>
@@ -30156,10 +30658,10 @@
         <v>41</v>
       </c>
       <c r="AD263" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE263" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF263" t="n">
         <v>29</v>
@@ -30209,13 +30711,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H264" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I264" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J264" t="n">
         <v>1.12</v>
@@ -30224,77 +30726,77 @@
         <v>4.55</v>
       </c>
       <c r="L264" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="M264" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="N264" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="O264" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="P264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R264" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S264" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q264" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R264" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S264" t="n">
-        <v>1.52</v>
-      </c>
       <c r="T264" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="U264" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V264" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W264" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="X264" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y264" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z264" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AA264" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB264" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC264" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD264" t="inlineStr"/>
       <c r="AE264" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AF264" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG264" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH264" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI264" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ264" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="265">
@@ -30447,13 +30949,13 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H266" t="n">
         <v>3.7</v>
       </c>
       <c r="I266" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J266" t="n">
         <v>1.04</v>
@@ -30474,22 +30976,22 @@
         <v>2.05</v>
       </c>
       <c r="P266" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q266" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R266" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S266" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T266" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U266" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V266" t="n">
         <v>8.5</v>
@@ -30501,7 +31003,7 @@
         <v>15</v>
       </c>
       <c r="Y266" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z266" t="n">
         <v>13</v>
@@ -30519,7 +31021,7 @@
         <v>151</v>
       </c>
       <c r="AE266" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF266" t="n">
         <v>19</v>
@@ -30531,10 +31033,10 @@
         <v>41</v>
       </c>
       <c r="AI266" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ266" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="267">

--- a/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
@@ -668,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="P2" t="n">
         <v>1.29</v>
@@ -680,7 +680,7 @@
         <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -802,10 +802,10 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
         <v>9.5</v>
@@ -820,7 +820,7 @@
         <v>19</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>26</v>
@@ -856,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -1046,10 +1046,10 @@
         <v>3.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -1156,10 +1156,10 @@
         <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1168,7 +1168,7 @@
         <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>2.2</v>
@@ -1269,7 +1269,7 @@
         <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L7" t="n">
         <v>1.14</v>
@@ -1278,10 +1278,10 @@
         <v>5.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="P7" t="n">
         <v>1.25</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
         <v>5.75</v>
@@ -1391,25 +1391,25 @@
         <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="O8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R8" t="n">
         <v>1.8</v>
@@ -1436,7 +1436,7 @@
         <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>8</v>
@@ -1451,13 +1451,13 @@
         <v>251</v>
       </c>
       <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG8" t="n">
         <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>67</v>
@@ -1522,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="P9" t="n">
         <v>1.25</v>
@@ -1555,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
         <v>17</v>
@@ -1576,7 +1576,7 @@
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
         <v>17</v>
@@ -1650,16 +1650,16 @@
         <v>2.02</v>
       </c>
       <c r="P10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
         <v>6.5</v>
@@ -1689,7 +1689,7 @@
         <v>19</v>
       </c>
       <c r="AC10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD10" t="n">
         <v>351</v>
@@ -1760,16 +1760,16 @@
         <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
         <v>1.44</v>
@@ -1867,19 +1867,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
         <v>1.3</v>
@@ -1888,16 +1888,16 @@
         <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="O12" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="P12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R12" t="n">
         <v>1.95</v>
@@ -1909,7 +1909,7 @@
         <v>13</v>
       </c>
       <c r="U12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V12" t="n">
         <v>17</v>
@@ -1930,7 +1930,7 @@
         <v>7.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
@@ -1942,13 +1942,13 @@
         <v>6.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG12" t="n">
         <v>8.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
         <v>13</v>
@@ -1995,13 +1995,13 @@
         <v>5.5</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
         <v>1.3</v>
@@ -2010,10 +2010,10 @@
         <v>3.5</v>
       </c>
       <c r="N13" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="O13" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -2037,7 +2037,7 @@
         <v>9.5</v>
       </c>
       <c r="W13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2046,13 +2046,13 @@
         <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
         <v>126</v>
@@ -2062,7 +2062,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>29</v>
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
         <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
@@ -2160,7 +2160,7 @@
         <v>26</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
         <v>21</v>
@@ -2240,22 +2240,22 @@
         <v>2.38</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O15" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P15" t="n">
         <v>1.22</v>
@@ -2481,13 +2481,13 @@
         <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L17" t="n">
         <v>1.14</v>
@@ -2514,25 +2514,25 @@
         <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U17" t="n">
         <v>7.5</v>
       </c>
       <c r="V17" t="n">
+        <v>9</v>
+      </c>
+      <c r="W17" t="n">
         <v>8.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>9</v>
       </c>
       <c r="X17" t="n">
         <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>11</v>
@@ -2752,13 +2752,13 @@
         <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U19" t="n">
         <v>10</v>
@@ -2797,13 +2797,13 @@
         <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
         <v>41</v>
@@ -3026,7 +3026,7 @@
         <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
         <v>81</v>
@@ -3152,7 +3152,7 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -3574,10 +3574,10 @@
         <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="K26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>1.83</v>
@@ -3694,10 +3694,10 @@
         <v>2.7</v>
       </c>
       <c r="J27" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
         <v>1.67</v>
@@ -3718,10 +3718,10 @@
         <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T27" t="n">
         <v>6</v>
@@ -3767,7 +3767,7 @@
         <v>29</v>
       </c>
       <c r="AI27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ27" t="n">
         <v>51</v>
@@ -3814,10 +3814,10 @@
         <v>2.2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
         <v>1.62</v>
@@ -3838,16 +3838,16 @@
         <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T28" t="n">
         <v>8</v>
       </c>
       <c r="U28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V28" t="n">
         <v>17</v>
@@ -3871,11 +3871,11 @@
         <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF28" t="n">
         <v>8.5</v>
@@ -3925,13 +3925,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J29" t="n">
         <v>1.07</v>
@@ -3964,16 +3964,16 @@
         <v>1.53</v>
       </c>
       <c r="T29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V29" t="n">
         <v>9</v>
       </c>
       <c r="W29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X29" t="n">
         <v>15</v>
@@ -4001,7 +4001,7 @@
         <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
         <v>67</v>
@@ -4054,10 +4054,10 @@
         <v>3.7</v>
       </c>
       <c r="J30" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="L30" t="n">
         <v>1.8</v>
@@ -4087,7 +4087,7 @@
         <v>5</v>
       </c>
       <c r="U30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V30" t="n">
         <v>12</v>
@@ -4121,7 +4121,7 @@
         <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
         <v>41</v>
@@ -4174,10 +4174,10 @@
         <v>4.2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.57</v>
@@ -4222,7 +4222,7 @@
         <v>41</v>
       </c>
       <c r="Z31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
@@ -4294,10 +4294,10 @@
         <v>5.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.53</v>
@@ -4414,10 +4414,10 @@
         <v>2.63</v>
       </c>
       <c r="J33" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.57</v>
@@ -4447,7 +4447,7 @@
         <v>6.5</v>
       </c>
       <c r="U33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V33" t="n">
         <v>12</v>
@@ -4456,10 +4456,10 @@
         <v>34</v>
       </c>
       <c r="X33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z33" t="n">
         <v>5.5</v>
@@ -4481,7 +4481,7 @@
         <v>11</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
         <v>26</v>
@@ -4534,10 +4534,10 @@
         <v>3.7</v>
       </c>
       <c r="J34" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>1.67</v>
@@ -4598,7 +4598,7 @@
         <v>7</v>
       </c>
       <c r="AF34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG34" t="n">
         <v>15</v>
@@ -4645,13 +4645,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
         <v>1.06</v>
@@ -4696,16 +4696,16 @@
         <v>12</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>29</v>
       </c>
       <c r="Z35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB35" t="n">
         <v>17</v>
@@ -4717,7 +4717,7 @@
         <v>351</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
         <v>26</v>
@@ -5455,7 +5455,7 @@
         <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L44" t="n">
         <v>1.17</v>
@@ -5696,10 +5696,10 @@
         <v>2.88</v>
       </c>
       <c r="J46" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L46" t="n">
         <v>1.2</v>
@@ -6068,10 +6068,10 @@
         <v>15</v>
       </c>
       <c r="L49" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N49" t="n">
         <v>1.62</v>
@@ -6175,86 +6175,90 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H50" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I50" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M50" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="N50" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O50" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+        <v>1.78</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.6</v>
+      </c>
       <c r="R50" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="S50" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="T50" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="U50" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="V50" t="n">
         <v>8.25</v>
       </c>
       <c r="W50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X50" t="n">
         <v>13</v>
       </c>
       <c r="Y50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AA50" t="n">
         <v>7.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC50" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD50" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AE50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF50" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AG50" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AI50" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AJ50" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
@@ -6525,19 +6529,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J53" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L53" t="n">
         <v>1.5</v>
@@ -6546,22 +6550,22 @@
         <v>2.63</v>
       </c>
       <c r="N53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q53" t="n">
         <v>2.5</v>
       </c>
-      <c r="O53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S53" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T53" t="n">
         <v>5.5</v>
@@ -6579,10 +6583,10 @@
         <v>19</v>
       </c>
       <c r="Y53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA53" t="n">
         <v>6.5</v>
@@ -6603,7 +6607,7 @@
         <v>19</v>
       </c>
       <c r="AG53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH53" t="n">
         <v>41</v>
@@ -6612,7 +6616,7 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
@@ -7381,7 +7385,7 @@
         <v>3.6</v>
       </c>
       <c r="I60" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="J60" t="n">
         <v>1.07</v>
@@ -7411,7 +7415,7 @@
         <v>2</v>
       </c>
       <c r="S60" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T60" t="n">
         <v>11</v>
@@ -7497,7 +7501,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
@@ -7506,10 +7510,10 @@
         <v>4.2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K61" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L61" t="n">
         <v>1.4</v>
@@ -7518,10 +7522,10 @@
         <v>2.75</v>
       </c>
       <c r="N61" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O61" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P61" t="n">
         <v>1.5</v>
@@ -7533,7 +7537,7 @@
         <v>2.1</v>
       </c>
       <c r="S61" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T61" t="n">
         <v>6</v>
@@ -7619,7 +7623,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="H62" t="n">
         <v>4.1</v>
@@ -7655,7 +7659,7 @@
         <v>1.8</v>
       </c>
       <c r="S62" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T62" t="n">
         <v>7.5</v>
@@ -7670,13 +7674,13 @@
         <v>11</v>
       </c>
       <c r="X62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y62" t="n">
         <v>23</v>
       </c>
       <c r="Z62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA62" t="n">
         <v>8</v>
@@ -8258,10 +8262,10 @@
         <v>3.75</v>
       </c>
       <c r="N71" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O71" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P71" t="n">
         <v>1.36</v>
@@ -8603,86 +8607,86 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I74" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M74" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="N74" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O74" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S74" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T74" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U74" t="n">
         <v>7.1</v>
-      </c>
-      <c r="U74" t="n">
-        <v>7.6</v>
       </c>
       <c r="V74" t="n">
         <v>8.25</v>
       </c>
       <c r="W74" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X74" t="n">
         <v>11.75</v>
-      </c>
-      <c r="X74" t="n">
-        <v>12.5</v>
       </c>
       <c r="Y74" t="n">
         <v>26</v>
       </c>
       <c r="Z74" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AB74" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC74" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD74" t="n">
         <v>600</v>
       </c>
       <c r="AE74" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AG74" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AH74" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AI74" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ74" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75">
@@ -9309,94 +9313,94 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="I80" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J80" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K80" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="L80" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M80" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N80" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O80" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P80" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R80" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="S80" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
       </c>
       <c r="U80" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V80" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W80" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="X80" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y80" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z80" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="AA80" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC80" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AD80" t="n">
-        <v>700</v>
+        <v>351</v>
       </c>
       <c r="AE80" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AG80" t="n">
         <v>12</v>
       </c>
       <c r="AH80" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI80" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AJ80" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
@@ -9549,10 +9553,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H82" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I82" t="n">
         <v>4.05</v>
@@ -9560,10 +9564,10 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M82" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="N82" t="n">
         <v>2.02</v>
@@ -9572,10 +9576,10 @@
         <v>1.62</v>
       </c>
       <c r="P82" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R82" t="n">
         <v>1.85</v>
@@ -9584,16 +9588,16 @@
         <v>1.75</v>
       </c>
       <c r="T82" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U82" t="n">
         <v>8.5</v>
       </c>
       <c r="V82" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W82" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X82" t="n">
         <v>16</v>
@@ -9602,37 +9606,37 @@
         <v>30</v>
       </c>
       <c r="Z82" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA82" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB82" t="n">
         <v>16</v>
       </c>
       <c r="AC82" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD82" t="n">
         <v>800</v>
       </c>
       <c r="AE82" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF82" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG82" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH82" t="n">
         <v>65</v>
       </c>
       <c r="AI82" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ82" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83">
@@ -9691,7 +9695,7 @@
         <v>2.05</v>
       </c>
       <c r="O83" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P83" t="n">
         <v>1.4</v>
@@ -9813,7 +9817,7 @@
         <v>2.4</v>
       </c>
       <c r="O84" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P84" t="n">
         <v>1.53</v>
@@ -9918,22 +9922,22 @@
         <v>1.65</v>
       </c>
       <c r="J85" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L85" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M85" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N85" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O85" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="P85" t="n">
         <v>1.44</v>
@@ -10037,13 +10041,13 @@
         <v>2.8</v>
       </c>
       <c r="I86" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K86" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L86" t="n">
         <v>1.44</v>
@@ -10055,7 +10059,7 @@
         <v>2.5</v>
       </c>
       <c r="O86" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P86" t="n">
         <v>1.53</v>
@@ -10073,7 +10077,7 @@
         <v>6</v>
       </c>
       <c r="U86" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V86" t="n">
         <v>10</v>
@@ -10088,7 +10092,7 @@
         <v>41</v>
       </c>
       <c r="Z86" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA86" t="n">
         <v>5.5</v>
@@ -10103,7 +10107,7 @@
         <v>1000</v>
       </c>
       <c r="AE86" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF86" t="n">
         <v>19</v>
@@ -10174,16 +10178,16 @@
         <v>2.63</v>
       </c>
       <c r="N87" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="O87" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P87" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R87" t="n">
         <v>2.63</v>
@@ -10216,20 +10220,20 @@
         <v>7.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC87" t="n">
         <v>101</v>
       </c>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF87" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH87" t="n">
         <v>9.5</v>
@@ -10273,13 +10277,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I88" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -10296,10 +10300,10 @@
         <v>1.7</v>
       </c>
       <c r="P88" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R88" t="n">
         <v>1.65</v>
@@ -10308,28 +10312,28 @@
         <v>1.98</v>
       </c>
       <c r="T88" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="U88" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V88" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W88" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X88" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y88" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z88" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA88" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB88" t="n">
         <v>12</v>
@@ -10338,16 +10342,16 @@
         <v>55</v>
       </c>
       <c r="AD88" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE88" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG88" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH88" t="n">
         <v>26</v>
@@ -10356,7 +10360,7 @@
         <v>19.5</v>
       </c>
       <c r="AJ88" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
@@ -10391,13 +10395,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="H89" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I89" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -10412,59 +10416,59 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="S89" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="T89" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="U89" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="V89" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W89" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X89" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y89" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z89" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AC89" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF89" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AG89" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH89" t="n">
         <v>900</v>
       </c>
       <c r="AI89" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AJ89" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90">
@@ -10499,13 +10503,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H90" t="n">
         <v>4.35</v>
       </c>
       <c r="I90" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -10519,7 +10523,7 @@
         <v>1.75</v>
       </c>
       <c r="O90" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P90" t="n">
         <v>1.38</v>
@@ -10534,7 +10538,7 @@
         <v>1.62</v>
       </c>
       <c r="T90" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U90" t="n">
         <v>6.1</v>
@@ -10558,7 +10562,7 @@
         <v>8.75</v>
       </c>
       <c r="AB90" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC90" t="n">
         <v>120</v>
@@ -10567,13 +10571,13 @@
         <v>700</v>
       </c>
       <c r="AE90" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF90" t="n">
         <v>45</v>
       </c>
       <c r="AG90" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH90" t="n">
         <v>175</v>
@@ -10623,7 +10627,7 @@
         <v>4.2</v>
       </c>
       <c r="I91" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
         <v>1.03</v>
@@ -10638,7 +10642,7 @@
         <v>4.5</v>
       </c>
       <c r="N91" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O91" t="n">
         <v>2.25</v>
@@ -10674,7 +10678,7 @@
         <v>21</v>
       </c>
       <c r="Z91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA91" t="n">
         <v>8</v>
@@ -10689,10 +10693,10 @@
         <v>151</v>
       </c>
       <c r="AE91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF91" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG91" t="n">
         <v>13</v>
@@ -10763,7 +10767,7 @@
         <v>2.15</v>
       </c>
       <c r="O92" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P92" t="n">
         <v>1.44</v>
@@ -10882,10 +10886,10 @@
         <v>4</v>
       </c>
       <c r="N93" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O93" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P93" t="n">
         <v>1.33</v>
@@ -10992,10 +10996,10 @@
         <v>5.25</v>
       </c>
       <c r="J94" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K94" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L94" t="n">
         <v>1.2</v>
@@ -11004,7 +11008,7 @@
         <v>4.33</v>
       </c>
       <c r="N94" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O94" t="n">
         <v>2.15</v>
@@ -11138,7 +11142,7 @@
         <v>3.25</v>
       </c>
       <c r="R95" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S95" t="n">
         <v>2.1</v>
@@ -11260,7 +11264,7 @@
         <v>3.4</v>
       </c>
       <c r="R96" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S96" t="n">
         <v>2.25</v>
@@ -11349,19 +11353,19 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I97" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L97" t="n">
         <v>1.29</v>
@@ -11370,10 +11374,10 @@
         <v>3.5</v>
       </c>
       <c r="N97" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O97" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="P97" t="n">
         <v>1.36</v>
@@ -11382,22 +11386,22 @@
         <v>3</v>
       </c>
       <c r="R97" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S97" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
       </c>
       <c r="U97" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V97" t="n">
         <v>8.5</v>
       </c>
       <c r="W97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X97" t="n">
         <v>15</v>
@@ -11406,7 +11410,7 @@
         <v>26</v>
       </c>
       <c r="Z97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA97" t="n">
         <v>7.5</v>
@@ -11418,10 +11422,10 @@
         <v>51</v>
       </c>
       <c r="AD97" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF97" t="n">
         <v>21</v>
@@ -11504,7 +11508,7 @@
         <v>3.25</v>
       </c>
       <c r="R98" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S98" t="n">
         <v>2.1</v>
@@ -11543,22 +11547,22 @@
         <v>151</v>
       </c>
       <c r="AE98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF98" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH98" t="n">
         <v>41</v>
       </c>
       <c r="AI98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ98" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -11626,10 +11630,10 @@
         <v>2.63</v>
       </c>
       <c r="R99" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S99" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T99" t="n">
         <v>7.5</v>
@@ -11724,10 +11728,10 @@
         <v>3.3</v>
       </c>
       <c r="J100" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K100" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L100" t="n">
         <v>1.36</v>
@@ -11748,16 +11752,16 @@
         <v>2.63</v>
       </c>
       <c r="R100" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S100" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T100" t="n">
         <v>7.5</v>
       </c>
       <c r="U100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V100" t="n">
         <v>9.5</v>
@@ -11766,7 +11770,7 @@
         <v>21</v>
       </c>
       <c r="X100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y100" t="n">
         <v>34</v>
@@ -11790,7 +11794,7 @@
         <v>9.5</v>
       </c>
       <c r="AF100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG100" t="n">
         <v>12</v>
@@ -11858,7 +11862,7 @@
         <v>4.5</v>
       </c>
       <c r="N101" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O101" t="n">
         <v>2.25</v>
@@ -11980,7 +11984,7 @@
         <v>4.5</v>
       </c>
       <c r="N102" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O102" t="n">
         <v>2.25</v>
@@ -12102,7 +12106,7 @@
         <v>5</v>
       </c>
       <c r="N103" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O103" t="n">
         <v>2.3</v>
@@ -12334,10 +12338,10 @@
         <v>3.7</v>
       </c>
       <c r="J105" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K105" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L105" t="n">
         <v>1.25</v>
@@ -12346,10 +12350,10 @@
         <v>3.75</v>
       </c>
       <c r="N105" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O105" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="P105" t="n">
         <v>1.33</v>
@@ -12471,7 +12475,7 @@
         <v>2.15</v>
       </c>
       <c r="O106" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P106" t="n">
         <v>1.44</v>
@@ -12569,13 +12573,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H107" t="n">
         <v>3.6</v>
       </c>
       <c r="I107" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J107" t="n">
         <v>1.05</v>
@@ -12641,7 +12645,7 @@
         <v>201</v>
       </c>
       <c r="AE107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF107" t="n">
         <v>17</v>
@@ -12650,7 +12654,7 @@
         <v>12</v>
       </c>
       <c r="AH107" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI107" t="n">
         <v>26</v>
@@ -12691,7 +12695,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H108" t="n">
         <v>3.1</v>
@@ -12933,92 +12937,92 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H110" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I110" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="J110" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="K110" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="L110" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="M110" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="N110" t="n">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="O110" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="P110" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R110" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S110" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="T110" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="U110" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V110" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="W110" t="n">
         <v>45</v>
       </c>
       <c r="X110" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y110" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z110" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="AA110" t="n">
         <v>5.1</v>
       </c>
       <c r="AB110" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AC110" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD110" t="inlineStr"/>
       <c r="AE110" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AF110" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG110" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AH110" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI110" t="n">
         <v>37</v>
       </c>
-      <c r="AI110" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ110" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111">
@@ -13138,7 +13142,7 @@
         <v>32</v>
       </c>
       <c r="AJ111" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112">
@@ -13173,7 +13177,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H112" t="n">
         <v>3</v>
@@ -13295,13 +13299,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H113" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I113" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J113" t="n">
         <v>1.06</v>
@@ -13328,16 +13332,16 @@
         <v>2.75</v>
       </c>
       <c r="R113" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S113" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T113" t="n">
         <v>7.5</v>
       </c>
       <c r="U113" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V113" t="n">
         <v>9</v>
@@ -13364,7 +13368,7 @@
         <v>51</v>
       </c>
       <c r="AD113" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE113" t="n">
         <v>11</v>
@@ -13382,7 +13386,7 @@
         <v>29</v>
       </c>
       <c r="AJ113" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -13417,33 +13421,37 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H114" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I114" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O114" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
+        <v>1.78</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="U114" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="V114" t="n">
         <v>6.9</v>
@@ -13452,28 +13460,28 @@
         <v>10.25</v>
       </c>
       <c r="X114" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Y114" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z114" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA114" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB114" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC114" t="n">
         <v>55</v>
       </c>
       <c r="AD114" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE114" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF114" t="n">
         <v>21</v>
@@ -13523,10 +13531,10 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H115" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I115" t="n">
         <v>4</v>
@@ -13536,65 +13544,65 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O115" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="U115" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V115" t="n">
         <v>7.1</v>
-      </c>
-      <c r="V115" t="n">
-        <v>7</v>
       </c>
       <c r="W115" t="n">
         <v>11</v>
       </c>
       <c r="X115" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y115" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z115" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AA115" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB115" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC115" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD115" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE115" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF115" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG115" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH115" t="n">
         <v>45</v>
       </c>
       <c r="AI115" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ115" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
@@ -13629,13 +13637,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H116" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J116" t="n">
         <v>1.05</v>
@@ -13644,34 +13652,34 @@
         <v>11</v>
       </c>
       <c r="L116" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M116" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N116" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O116" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P116" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q116" t="n">
         <v>3</v>
       </c>
       <c r="R116" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S116" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U116" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V116" t="n">
         <v>17</v>
@@ -13686,10 +13694,10 @@
         <v>41</v>
       </c>
       <c r="Z116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA116" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB116" t="n">
         <v>17</v>
@@ -13698,10 +13706,10 @@
         <v>51</v>
       </c>
       <c r="AD116" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE116" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF116" t="n">
         <v>7.5</v>
@@ -13750,36 +13758,80 @@
           <t>Samgurali</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.91</v>
+      </c>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr"/>
-      <c r="AB117" t="inlineStr"/>
-      <c r="AC117" t="inlineStr"/>
-      <c r="AD117" t="inlineStr"/>
-      <c r="AE117" t="inlineStr"/>
-      <c r="AF117" t="inlineStr"/>
-      <c r="AG117" t="inlineStr"/>
-      <c r="AH117" t="inlineStr"/>
-      <c r="AI117" t="inlineStr"/>
-      <c r="AJ117" t="inlineStr"/>
+      <c r="T117" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U117" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="V117" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="W117" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X117" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13812,36 +13864,84 @@
           <t>Dinamo Batumi</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.35</v>
+      </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
-      <c r="AB118" t="inlineStr"/>
-      <c r="AC118" t="inlineStr"/>
-      <c r="AD118" t="inlineStr"/>
-      <c r="AE118" t="inlineStr"/>
-      <c r="AF118" t="inlineStr"/>
-      <c r="AG118" t="inlineStr"/>
-      <c r="AH118" t="inlineStr"/>
-      <c r="AI118" t="inlineStr"/>
-      <c r="AJ118" t="inlineStr"/>
+      <c r="T118" t="n">
+        <v>6</v>
+      </c>
+      <c r="U118" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="V118" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="W118" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X118" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13997,7 +14097,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H120" t="n">
         <v>3.9</v>
@@ -14006,10 +14106,10 @@
         <v>3.3</v>
       </c>
       <c r="J120" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L120" t="n">
         <v>1.14</v>
@@ -14241,19 +14341,19 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="H122" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I122" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="J122" t="n">
         <v>1.03</v>
       </c>
       <c r="K122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L122" t="n">
         <v>1.17</v>
@@ -14274,61 +14374,61 @@
         <v>3.75</v>
       </c>
       <c r="R122" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S122" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U122" t="n">
         <v>41</v>
       </c>
       <c r="V122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W122" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X122" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y122" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z122" t="n">
         <v>15</v>
       </c>
       <c r="AA122" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE122" t="n">
         <v>9</v>
       </c>
-      <c r="AB122" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AF122" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG122" t="n">
         <v>8.5</v>
       </c>
       <c r="AH122" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI122" t="n">
         <v>11</v>
       </c>
       <c r="AJ122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
@@ -14485,7 +14585,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H124" t="n">
         <v>3.9</v>
@@ -14610,16 +14710,16 @@
         <v>2.45</v>
       </c>
       <c r="H125" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I125" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K125" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L125" t="n">
         <v>1.36</v>
@@ -14640,22 +14740,22 @@
         <v>2.63</v>
       </c>
       <c r="R125" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S125" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T125" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U125" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V125" t="n">
         <v>10</v>
       </c>
       <c r="W125" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X125" t="n">
         <v>21</v>
@@ -14664,10 +14764,10 @@
         <v>34</v>
       </c>
       <c r="Z125" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA125" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB125" t="n">
         <v>15</v>
@@ -14679,7 +14779,7 @@
         <v>301</v>
       </c>
       <c r="AE125" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF125" t="n">
         <v>13</v>
@@ -14750,10 +14850,10 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O126" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P126" t="n">
         <v>1.4</v>
@@ -14980,13 +15080,13 @@
         <v>3.5</v>
       </c>
       <c r="J128" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L128" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M128" t="n">
         <v>3.5</v>
@@ -14998,10 +15098,10 @@
         <v>1.9</v>
       </c>
       <c r="P128" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R128" t="n">
         <v>1.73</v>
@@ -15093,28 +15193,28 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H129" t="n">
         <v>3.5</v>
       </c>
       <c r="I129" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J129" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K129" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L129" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M129" t="n">
         <v>4</v>
       </c>
       <c r="N129" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O129" t="n">
         <v>2.05</v>
@@ -15138,7 +15238,7 @@
         <v>10</v>
       </c>
       <c r="V129" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W129" t="n">
         <v>17</v>
@@ -15165,10 +15265,10 @@
         <v>151</v>
       </c>
       <c r="AE129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG129" t="n">
         <v>13</v>
@@ -15177,7 +15277,7 @@
         <v>41</v>
       </c>
       <c r="AI129" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ129" t="n">
         <v>34</v>
@@ -15826,10 +15926,10 @@
         <v>4.5</v>
       </c>
       <c r="N135" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O135" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P135" t="n">
         <v>1.29</v>
@@ -15966,7 +16066,7 @@
         <v>2.05</v>
       </c>
       <c r="T136" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U136" t="n">
         <v>12.5</v>
@@ -15999,13 +16099,13 @@
         <v>400</v>
       </c>
       <c r="AE136" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF136" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG136" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH136" t="n">
         <v>40</v>
@@ -16123,7 +16223,7 @@
         <v>1.08</v>
       </c>
       <c r="K138" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L138" t="n">
         <v>1.38</v>
@@ -16147,10 +16247,10 @@
         <v>1.83</v>
       </c>
       <c r="S138" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T138" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="U138" t="n">
         <v>10.5</v>
@@ -16168,7 +16268,7 @@
         <v>30</v>
       </c>
       <c r="Z138" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA138" t="n">
         <v>5.9</v>
@@ -16180,10 +16280,10 @@
         <v>75</v>
       </c>
       <c r="AD138" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE138" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF138" t="n">
         <v>16.5</v>
@@ -16198,7 +16298,7 @@
         <v>32</v>
       </c>
       <c r="AJ138" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139">
@@ -16356,7 +16456,7 @@
         <v>1.83</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I140" t="n">
         <v>4.5</v>
@@ -16365,7 +16465,7 @@
         <v>1.1</v>
       </c>
       <c r="K140" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L140" t="n">
         <v>1.42</v>
@@ -16383,49 +16483,49 @@
         <v>1.53</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R140" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S140" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T140" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U140" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="V140" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W140" t="n">
         <v>15.5</v>
       </c>
       <c r="X140" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y140" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z140" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA140" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB140" t="n">
         <v>16.5</v>
       </c>
       <c r="AC140" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD140" t="n">
         <v>900</v>
       </c>
       <c r="AE140" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF140" t="n">
         <v>25</v>
@@ -16437,10 +16537,10 @@
         <v>90</v>
       </c>
       <c r="AI140" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ140" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="141">
@@ -17100,16 +17200,16 @@
         <v>10</v>
       </c>
       <c r="L146" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M146" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N146" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O146" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P146" t="n">
         <v>1.44</v>
@@ -17118,10 +17218,10 @@
         <v>2.63</v>
       </c>
       <c r="R146" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S146" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T146" t="n">
         <v>8.5</v>
@@ -17243,7 +17343,7 @@
         <v>2.1</v>
       </c>
       <c r="S147" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T147" t="n">
         <v>6.5</v>
@@ -17338,22 +17438,22 @@
         <v>2.88</v>
       </c>
       <c r="J148" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L148" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M148" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N148" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O148" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P148" t="n">
         <v>1.4</v>
@@ -17362,7 +17462,7 @@
         <v>2.75</v>
       </c>
       <c r="R148" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S148" t="n">
         <v>2</v>
@@ -17484,7 +17584,7 @@
         <v>3.25</v>
       </c>
       <c r="R149" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S149" t="n">
         <v>2.1</v>
@@ -17606,10 +17706,10 @@
         <v>2.75</v>
       </c>
       <c r="R150" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S150" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T150" t="n">
         <v>8</v>
@@ -17731,7 +17831,7 @@
         <v>2</v>
       </c>
       <c r="S151" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T151" t="n">
         <v>6.5</v>
@@ -17853,7 +17953,7 @@
         <v>2.1</v>
       </c>
       <c r="S152" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
@@ -18061,13 +18161,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H154" t="n">
         <v>3.9</v>
       </c>
       <c r="I154" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J154" t="n">
         <v>1.03</v>
@@ -18094,10 +18194,10 @@
         <v>3.4</v>
       </c>
       <c r="R154" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S154" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T154" t="n">
         <v>9.5</v>
@@ -18145,7 +18245,7 @@
         <v>41</v>
       </c>
       <c r="AI154" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ154" t="n">
         <v>29</v>
@@ -18538,30 +18638,34 @@
         <v>5.5</v>
       </c>
       <c r="H158" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I158" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O158" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
+        <v>1.78</v>
+      </c>
+      <c r="P158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="U158" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V158" t="n">
         <v>14.5</v>
@@ -18576,25 +18680,25 @@
         <v>45</v>
       </c>
       <c r="Z158" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA158" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB158" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC158" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD158" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE158" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AF158" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AG158" t="n">
         <v>6.9</v>
@@ -18603,10 +18707,10 @@
         <v>8.75</v>
       </c>
       <c r="AI158" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AJ158" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159">
@@ -18641,80 +18745,80 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="H159" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I159" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="M159" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U159" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V159" t="n">
         <v>9</v>
       </c>
       <c r="W159" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X159" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y159" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z159" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AA159" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AB159" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC159" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD159" t="inlineStr"/>
       <c r="AE159" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AF159" t="n">
         <v>9.25</v>
       </c>
       <c r="AG159" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH159" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI159" t="n">
         <v>22</v>
       </c>
-      <c r="AI159" t="n">
-        <v>20</v>
-      </c>
       <c r="AJ159" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160">
@@ -18859,13 +18963,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="H161" t="n">
         <v>3.4</v>
       </c>
       <c r="I161" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J161" t="n">
         <v>1.05</v>
@@ -18874,19 +18978,19 @@
         <v>11</v>
       </c>
       <c r="L161" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M161" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N161" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O161" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P161" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q161" t="n">
         <v>3</v>
@@ -18907,7 +19011,7 @@
         <v>8.5</v>
       </c>
       <c r="W161" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X161" t="n">
         <v>15</v>
@@ -18928,22 +19032,22 @@
         <v>51</v>
       </c>
       <c r="AD161" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE161" t="n">
         <v>13</v>
       </c>
       <c r="AF161" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG161" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH161" t="n">
         <v>51</v>
       </c>
       <c r="AI161" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ161" t="n">
         <v>41</v>
@@ -18981,7 +19085,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H162" t="n">
         <v>3.7</v>
@@ -19008,16 +19112,16 @@
         <v>1.95</v>
       </c>
       <c r="P162" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q162" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R162" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S162" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T162" t="n">
         <v>7.5</v>
@@ -19029,16 +19133,16 @@
         <v>8.5</v>
       </c>
       <c r="W162" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X162" t="n">
         <v>13</v>
       </c>
       <c r="Y162" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z162" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA162" t="n">
         <v>7</v>
@@ -19047,10 +19151,10 @@
         <v>15</v>
       </c>
       <c r="AC162" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD162" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE162" t="n">
         <v>13</v>
@@ -19103,13 +19207,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H163" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I163" t="n">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -19128,61 +19232,61 @@
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S163" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T163" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="U163" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V163" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W163" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="X163" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y163" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z163" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA163" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AB163" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC163" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD163" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AE163" t="n">
         <v>13.5</v>
       </c>
       <c r="AF163" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG163" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH163" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI163" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ163" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164">
@@ -19217,13 +19321,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H164" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I164" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -19242,61 +19346,61 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S164" t="n">
         <v>1.78</v>
       </c>
-      <c r="S164" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T164" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="U164" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="V164" t="n">
         <v>8.25</v>
       </c>
       <c r="W164" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="X164" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y164" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z164" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA164" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AB164" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AC164" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD164" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE164" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF164" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AG164" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AH164" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI164" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ164" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165">
@@ -19337,7 +19441,7 @@
         <v>3.5</v>
       </c>
       <c r="I165" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -19459,7 +19563,7 @@
         <v>1.34</v>
       </c>
       <c r="M166" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N166" t="n">
         <v>1.9</v>
@@ -19468,7 +19572,7 @@
         <v>1.9</v>
       </c>
       <c r="P166" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q166" t="n">
         <v>2.55</v>
@@ -19477,7 +19581,7 @@
         <v>1.72</v>
       </c>
       <c r="S166" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T166" t="n">
         <v>8.5</v>
@@ -19569,7 +19673,7 @@
         <v>2.8</v>
       </c>
       <c r="I167" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -19799,13 +19903,13 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="H169" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I169" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="J169" t="n">
         <v>1.11</v>
@@ -19826,31 +19930,31 @@
         <v>1.48</v>
       </c>
       <c r="P169" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S169" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q169" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R169" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S169" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T169" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U169" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V169" t="n">
         <v>9.5</v>
       </c>
-      <c r="V169" t="n">
-        <v>10</v>
-      </c>
       <c r="W169" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X169" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y169" t="n">
         <v>41</v>
@@ -19859,32 +19963,32 @@
         <v>6.5</v>
       </c>
       <c r="AA169" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB169" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC169" t="n">
         <v>81</v>
       </c>
       <c r="AD169" t="inlineStr"/>
       <c r="AE169" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AF169" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG169" t="n">
         <v>15</v>
       </c>
-      <c r="AG169" t="n">
-        <v>13</v>
-      </c>
       <c r="AH169" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI169" t="n">
         <v>41</v>
       </c>
-      <c r="AI169" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ169" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170">
@@ -20048,10 +20152,10 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M171" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N171" t="n">
         <v>1.85</v>
@@ -20397,13 +20501,13 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>3.1</v>
       </c>
       <c r="I174" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J174" t="n">
         <v>1.08</v>
@@ -20436,7 +20540,7 @@
         <v>1.8</v>
       </c>
       <c r="T174" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U174" t="n">
         <v>11</v>
@@ -20469,16 +20573,16 @@
         <v>351</v>
       </c>
       <c r="AE174" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF174" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG174" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH174" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI174" t="n">
         <v>26</v>
@@ -20763,13 +20867,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H177" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I177" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J177" t="n">
         <v>1.03</v>
@@ -20802,7 +20906,7 @@
         <v>2.05</v>
       </c>
       <c r="T177" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U177" t="n">
         <v>8.5</v>
@@ -20826,13 +20930,13 @@
         <v>9</v>
       </c>
       <c r="AB177" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC177" t="n">
         <v>41</v>
       </c>
       <c r="AD177" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE177" t="n">
         <v>17</v>
@@ -21376,43 +21480,43 @@
         <v>2.8</v>
       </c>
       <c r="H182" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I182" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J182" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K182" t="n">
+        <v>12</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M182" t="n">
+        <v>4</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O182" t="n">
+        <v>2</v>
+      </c>
+      <c r="P182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R182" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T182" t="n">
         <v>11</v>
-      </c>
-      <c r="L182" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M182" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N182" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O182" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P182" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>3</v>
-      </c>
-      <c r="R182" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S182" t="n">
-        <v>2</v>
-      </c>
-      <c r="T182" t="n">
-        <v>10</v>
       </c>
       <c r="U182" t="n">
         <v>15</v>
@@ -21430,7 +21534,7 @@
         <v>29</v>
       </c>
       <c r="Z182" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA182" t="n">
         <v>6.5</v>
@@ -21442,10 +21546,10 @@
         <v>41</v>
       </c>
       <c r="AD182" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE182" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF182" t="n">
         <v>12</v>
@@ -21457,10 +21561,10 @@
         <v>23</v>
       </c>
       <c r="AI182" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ182" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
@@ -21624,10 +21728,10 @@
         <v>1.62</v>
       </c>
       <c r="J184" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K184" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L184" t="n">
         <v>1.36</v>
@@ -22236,10 +22340,10 @@
         <v>6.5</v>
       </c>
       <c r="J190" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K190" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L190" t="n">
         <v>1.29</v>
@@ -22248,10 +22352,10 @@
         <v>3.5</v>
       </c>
       <c r="N190" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O190" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P190" t="n">
         <v>1.36</v>
@@ -22715,37 +22819,37 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H194" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I194" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J194" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K194" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L194" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M194" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="N194" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O194" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P194" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q194" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="R194" t="n">
         <v>1.95</v>
@@ -22766,7 +22870,7 @@
         <v>17</v>
       </c>
       <c r="X194" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y194" t="n">
         <v>34</v>
@@ -22775,7 +22879,7 @@
         <v>8</v>
       </c>
       <c r="AA194" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB194" t="n">
         <v>17</v>
@@ -22787,7 +22891,7 @@
         <v>351</v>
       </c>
       <c r="AE194" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF194" t="n">
         <v>19</v>
@@ -22799,7 +22903,7 @@
         <v>41</v>
       </c>
       <c r="AI194" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ194" t="n">
         <v>41</v>
@@ -23090,10 +23194,10 @@
         <v>3.7</v>
       </c>
       <c r="J197" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K197" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L197" t="n">
         <v>1.36</v>
@@ -23102,10 +23206,10 @@
         <v>3</v>
       </c>
       <c r="N197" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O197" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P197" t="n">
         <v>1.44</v>
@@ -23218,10 +23322,10 @@
         <v>10</v>
       </c>
       <c r="L198" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M198" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N198" t="n">
         <v>2.1</v>
@@ -23346,10 +23450,10 @@
         <v>3.5</v>
       </c>
       <c r="N199" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O199" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P199" t="n">
         <v>1.36</v>
@@ -23468,10 +23572,10 @@
         <v>4.33</v>
       </c>
       <c r="N200" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O200" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P200" t="n">
         <v>1.3</v>
@@ -23569,19 +23673,19 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I201" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J201" t="n">
         <v>1.07</v>
       </c>
       <c r="K201" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L201" t="n">
         <v>1.33</v>
@@ -23611,25 +23715,25 @@
         <v>7</v>
       </c>
       <c r="U201" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V201" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W201" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X201" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y201" t="n">
         <v>29</v>
       </c>
       <c r="Z201" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA201" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB201" t="n">
         <v>15</v>
@@ -23641,10 +23745,10 @@
         <v>301</v>
       </c>
       <c r="AE201" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF201" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG201" t="n">
         <v>13</v>
@@ -23653,7 +23757,7 @@
         <v>41</v>
       </c>
       <c r="AI201" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ201" t="n">
         <v>41</v>
@@ -23700,22 +23804,22 @@
         <v>3.4</v>
       </c>
       <c r="J202" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K202" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L202" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M202" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N202" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O202" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="P202" t="n">
         <v>1.4</v>
@@ -23935,13 +24039,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H204" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I204" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J204" t="n">
         <v>1.05</v>
@@ -23977,13 +24081,13 @@
         <v>7</v>
       </c>
       <c r="U204" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V204" t="n">
         <v>8.5</v>
       </c>
       <c r="W204" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X204" t="n">
         <v>15</v>
@@ -23992,7 +24096,7 @@
         <v>26</v>
       </c>
       <c r="Z204" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA204" t="n">
         <v>7</v>
@@ -24007,7 +24111,7 @@
         <v>251</v>
       </c>
       <c r="AE204" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF204" t="n">
         <v>23</v>
@@ -24019,7 +24123,7 @@
         <v>51</v>
       </c>
       <c r="AI204" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ204" t="n">
         <v>41</v>
@@ -24057,13 +24161,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H205" t="n">
         <v>3.1</v>
       </c>
       <c r="I205" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J205" t="n">
         <v>1.05</v>
@@ -24078,22 +24182,22 @@
         <v>3.75</v>
       </c>
       <c r="N205" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O205" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P205" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q205" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R205" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S205" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T205" t="n">
         <v>10</v>
@@ -24129,7 +24233,7 @@
         <v>201</v>
       </c>
       <c r="AE205" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF205" t="n">
         <v>12</v>
@@ -24144,7 +24248,7 @@
         <v>19</v>
       </c>
       <c r="AJ205" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206">
@@ -25347,13 +25451,13 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H220" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I220" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J220" t="n">
         <v>19</v>
@@ -25386,13 +25490,13 @@
         <v>2.1</v>
       </c>
       <c r="T220" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U220" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V220" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W220" t="n">
         <v>11</v>
@@ -25431,7 +25535,7 @@
         <v>51</v>
       </c>
       <c r="AI220" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ220" t="n">
         <v>34</v>
@@ -25481,7 +25585,7 @@
         <v>1.03</v>
       </c>
       <c r="K221" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L221" t="n">
         <v>1.17</v>
@@ -25517,7 +25621,7 @@
         <v>8.5</v>
       </c>
       <c r="W221" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X221" t="n">
         <v>12</v>
@@ -25532,7 +25636,7 @@
         <v>8.5</v>
       </c>
       <c r="AB221" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC221" t="n">
         <v>41</v>
@@ -25553,7 +25657,7 @@
         <v>51</v>
       </c>
       <c r="AI221" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ221" t="n">
         <v>34</v>
@@ -25713,67 +25817,67 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I223" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J223" t="n">
         <v>1.05</v>
       </c>
       <c r="K223" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="L223" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M223" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N223" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O223" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P223" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q223" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="R223" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S223" t="n">
         <v>1.88</v>
       </c>
       <c r="T223" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U223" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="V223" t="n">
         <v>8</v>
       </c>
       <c r="W223" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X223" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y223" t="n">
         <v>25</v>
       </c>
       <c r="Z223" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA223" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB223" t="n">
         <v>16.5</v>
@@ -25785,19 +25889,19 @@
         <v>600</v>
       </c>
       <c r="AE223" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF223" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG223" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH223" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI223" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ223" t="n">
         <v>55</v>
@@ -26079,13 +26183,13 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="H226" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I226" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J226" t="n">
         <v>1.01</v>
@@ -26100,13 +26204,13 @@
         <v>9</v>
       </c>
       <c r="N226" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="O226" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P226" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Q226" t="n">
         <v>5</v>
@@ -26118,13 +26222,13 @@
         <v>3</v>
       </c>
       <c r="T226" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U226" t="n">
         <v>13</v>
       </c>
       <c r="V226" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W226" t="n">
         <v>15</v>
@@ -26139,34 +26243,34 @@
         <v>34</v>
       </c>
       <c r="AA226" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB226" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC226" t="n">
         <v>29</v>
       </c>
       <c r="AD226" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE226" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF226" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG226" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH226" t="n">
         <v>51</v>
       </c>
       <c r="AI226" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ226" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="227">
@@ -26201,7 +26305,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H227" t="n">
         <v>5</v>
@@ -26228,7 +26332,7 @@
         <v>4.2</v>
       </c>
       <c r="P227" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Q227" t="n">
         <v>5.5</v>
@@ -26957,7 +27061,7 @@
         <v>2.1</v>
       </c>
       <c r="O233" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P233" t="n">
         <v>1.44</v>
@@ -27067,7 +27171,7 @@
         <v>1.08</v>
       </c>
       <c r="K234" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L234" t="n">
         <v>1.4</v>
@@ -27079,7 +27183,7 @@
         <v>2.35</v>
       </c>
       <c r="O234" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P234" t="n">
         <v>1.5</v>
@@ -27201,7 +27305,7 @@
         <v>2.25</v>
       </c>
       <c r="O235" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P235" t="n">
         <v>1.44</v>
@@ -27430,10 +27534,10 @@
         <v>6.25</v>
       </c>
       <c r="J237" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K237" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L237" t="n">
         <v>1.2</v>
@@ -27442,10 +27546,10 @@
         <v>4.33</v>
       </c>
       <c r="N237" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O237" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P237" t="n">
         <v>1.3</v>
@@ -27665,13 +27769,13 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H239" t="n">
         <v>3.4</v>
       </c>
       <c r="I239" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J239" t="n">
         <v>1.05</v>
@@ -27707,7 +27811,7 @@
         <v>7.5</v>
       </c>
       <c r="U239" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V239" t="n">
         <v>9</v>
@@ -27722,7 +27826,7 @@
         <v>29</v>
       </c>
       <c r="Z239" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA239" t="n">
         <v>6.5</v>
@@ -27746,13 +27850,13 @@
         <v>12</v>
       </c>
       <c r="AH239" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI239" t="n">
         <v>29</v>
       </c>
       <c r="AJ239" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="240">
@@ -27787,7 +27891,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H240" t="n">
         <v>3.6</v>
@@ -27796,10 +27900,10 @@
         <v>4.5</v>
       </c>
       <c r="J240" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K240" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L240" t="n">
         <v>1.36</v>
@@ -27808,10 +27912,10 @@
         <v>3</v>
       </c>
       <c r="N240" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O240" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P240" t="n">
         <v>1.44</v>
@@ -27820,10 +27924,10 @@
         <v>2.63</v>
       </c>
       <c r="R240" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S240" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T240" t="n">
         <v>6</v>
@@ -27835,10 +27939,10 @@
         <v>9</v>
       </c>
       <c r="W240" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X240" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y240" t="n">
         <v>34</v>
@@ -27859,7 +27963,7 @@
         <v>351</v>
       </c>
       <c r="AE240" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF240" t="n">
         <v>21</v>
@@ -29378,10 +29482,10 @@
         <v>1.55</v>
       </c>
       <c r="J253" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K253" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L253" t="n">
         <v>1.25</v>
@@ -29613,13 +29717,13 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H255" t="n">
         <v>3.5</v>
       </c>
       <c r="I255" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J255" t="n">
         <v>1.05</v>
@@ -29634,10 +29738,10 @@
         <v>3.5</v>
       </c>
       <c r="N255" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O255" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P255" t="n">
         <v>1.4</v>
@@ -29658,13 +29762,13 @@
         <v>12</v>
       </c>
       <c r="V255" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W255" t="n">
         <v>23</v>
       </c>
       <c r="X255" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y255" t="n">
         <v>29</v>
@@ -29694,7 +29798,7 @@
         <v>10</v>
       </c>
       <c r="AH255" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI255" t="n">
         <v>21</v>
@@ -29735,7 +29839,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H256" t="n">
         <v>4.75</v>
@@ -29744,22 +29848,22 @@
         <v>5.5</v>
       </c>
       <c r="J256" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K256" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L256" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M256" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N256" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O256" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P256" t="n">
         <v>1.33</v>
@@ -29783,7 +29887,7 @@
         <v>8.5</v>
       </c>
       <c r="W256" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X256" t="n">
         <v>12</v>
@@ -29801,7 +29905,7 @@
         <v>21</v>
       </c>
       <c r="AC256" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD256" t="n">
         <v>351</v>
@@ -29857,22 +29961,22 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H257" t="n">
         <v>3.5</v>
       </c>
       <c r="I257" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J257" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K257" t="n">
         <v>15</v>
       </c>
       <c r="L257" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M257" t="n">
         <v>4.5</v>
@@ -29979,22 +30083,22 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H258" t="n">
         <v>3.6</v>
       </c>
       <c r="I258" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J258" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K258" t="n">
         <v>17</v>
       </c>
       <c r="L258" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M258" t="n">
         <v>5</v>
@@ -30247,7 +30351,7 @@
         <v>2.05</v>
       </c>
       <c r="O260" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P260" t="n">
         <v>1.4</v>
@@ -30256,10 +30360,10 @@
         <v>2.75</v>
       </c>
       <c r="R260" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S260" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T260" t="n">
         <v>7.5</v>
@@ -30345,19 +30449,19 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="H261" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I261" t="n">
         <v>19</v>
       </c>
       <c r="J261" t="n">
-        <v>41</v>
+        <v>1.01</v>
       </c>
       <c r="K261" t="n">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="L261" t="n">
         <v>1.04</v>
@@ -30366,25 +30470,25 @@
         <v>13</v>
       </c>
       <c r="N261" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="O261" t="n">
         <v>5</v>
       </c>
       <c r="P261" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Q261" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="R261" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S261" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T261" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U261" t="n">
         <v>10</v>
@@ -30405,13 +30509,13 @@
         <v>34</v>
       </c>
       <c r="AA261" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB261" t="n">
         <v>29</v>
       </c>
       <c r="AC261" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD261" t="n">
         <v>201</v>
@@ -30479,19 +30583,19 @@
         <v>1.01</v>
       </c>
       <c r="K262" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L262" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="M262" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N262" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="O262" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P262" t="n">
         <v>1.18</v>
@@ -30500,7 +30604,7 @@
         <v>4.5</v>
       </c>
       <c r="R262" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S262" t="n">
         <v>2</v>
@@ -30610,7 +30714,7 @@
         <v>4.55</v>
       </c>
       <c r="N263" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O263" t="n">
         <v>2.5</v>
@@ -30976,7 +31080,7 @@
         <v>2.05</v>
       </c>
       <c r="P266" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q266" t="n">
         <v>3.25</v>
@@ -31306,36 +31410,96 @@
           <t>Cardiff Metropolitan</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="inlineStr"/>
-      <c r="N269" t="inlineStr"/>
-      <c r="O269" t="inlineStr"/>
-      <c r="P269" t="inlineStr"/>
-      <c r="Q269" t="inlineStr"/>
-      <c r="R269" t="inlineStr"/>
-      <c r="S269" t="inlineStr"/>
-      <c r="T269" t="inlineStr"/>
-      <c r="U269" t="inlineStr"/>
-      <c r="V269" t="inlineStr"/>
-      <c r="W269" t="inlineStr"/>
-      <c r="X269" t="inlineStr"/>
-      <c r="Y269" t="inlineStr"/>
-      <c r="Z269" t="inlineStr"/>
-      <c r="AA269" t="inlineStr"/>
-      <c r="AB269" t="inlineStr"/>
-      <c r="AC269" t="inlineStr"/>
-      <c r="AD269" t="inlineStr"/>
-      <c r="AE269" t="inlineStr"/>
-      <c r="AF269" t="inlineStr"/>
-      <c r="AG269" t="inlineStr"/>
-      <c r="AH269" t="inlineStr"/>
-      <c r="AI269" t="inlineStr"/>
-      <c r="AJ269" t="inlineStr"/>
+      <c r="G269" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H269" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I269" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K269" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L269" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M269" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="N269" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O269" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P269" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R269" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S269" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T269" t="n">
+        <v>11</v>
+      </c>
+      <c r="U269" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V269" t="n">
+        <v>9</v>
+      </c>
+      <c r="W269" t="n">
+        <v>23</v>
+      </c>
+      <c r="X269" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
@@ -802,10 +802,10 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
         <v>9.5</v>
@@ -1269,7 +1269,7 @@
         <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L7" t="n">
         <v>1.14</v>
@@ -1391,7 +1391,7 @@
         <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1400,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P8" t="n">
         <v>1.33</v>
@@ -1513,7 +1513,7 @@
         <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>1.17</v>
@@ -1522,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P9" t="n">
         <v>1.25</v>
@@ -1638,16 +1638,16 @@
         <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O10" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
         <v>1.08</v>
@@ -1760,16 +1760,16 @@
         <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
         <v>1.44</v>
@@ -1778,10 +1778,10 @@
         <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1793,7 +1793,7 @@
         <v>9.5</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
@@ -1802,10 +1802,10 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB11" t="n">
         <v>15</v>
@@ -1814,10 +1814,10 @@
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
         <v>17</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1906,7 +1906,7 @@
         <v>1.8</v>
       </c>
       <c r="T12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U12" t="n">
         <v>26</v>
@@ -1927,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="n">
         <v>17</v>
@@ -1948,10 +1948,10 @@
         <v>8.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>29</v>
@@ -1998,10 +1998,10 @@
         <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
         <v>1.3</v>
@@ -2010,10 +2010,10 @@
         <v>3.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O13" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -2118,22 +2118,22 @@
         <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P14" t="n">
         <v>1.25</v>
@@ -2157,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="W14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X14" t="n">
         <v>19</v>
@@ -2190,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -2243,19 +2243,19 @@
         <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O15" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P15" t="n">
         <v>1.22</v>
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
         <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2386,10 +2386,10 @@
         <v>3.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
         <v>11</v>
@@ -2422,13 +2422,13 @@
         <v>34</v>
       </c>
       <c r="AD16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
         <v>10</v>
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L17" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.22</v>
@@ -2514,7 +2514,7 @@
         <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U17" t="n">
         <v>7.5</v>
@@ -2532,25 +2532,25 @@
         <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE17" t="n">
         <v>26</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
         <v>26</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
         <v>1.11</v>
@@ -2841,13 +2841,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.01</v>
@@ -2901,10 +2901,10 @@
         <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
         <v>23</v>
@@ -2925,7 +2925,7 @@
         <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>21</v>
@@ -2963,13 +2963,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
         <v>1.11</v>
@@ -2996,25 +2996,25 @@
         <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
         <v>5.5</v>
       </c>
       <c r="U21" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="V21" t="n">
         <v>9.5</v>
       </c>
       <c r="W21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3029,20 +3029,20 @@
         <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="n">
         <v>41</v>
@@ -3104,10 +3104,10 @@
         <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O22" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="P22" t="n">
         <v>1.33</v>
@@ -3214,10 +3214,10 @@
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I27" t="n">
         <v>2.8</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.7</v>
       </c>
       <c r="J27" t="n">
         <v>1.17</v>
@@ -3733,7 +3733,7 @@
         <v>13</v>
       </c>
       <c r="W27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X27" t="n">
         <v>34</v>
@@ -3758,10 +3758,10 @@
         <v>6</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>29</v>
@@ -3925,13 +3925,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H29" t="n">
         <v>4.2</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J29" t="n">
         <v>1.07</v>
@@ -3964,7 +3964,7 @@
         <v>1.53</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U29" t="n">
         <v>6</v>
@@ -3973,7 +3973,7 @@
         <v>9</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X29" t="n">
         <v>15</v>
@@ -3985,7 +3985,7 @@
         <v>8.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB29" t="n">
         <v>26</v>
@@ -5333,7 +5333,7 @@
         <v>1.04</v>
       </c>
       <c r="K43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L43" t="n">
         <v>1.25</v>
@@ -5396,19 +5396,19 @@
         <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG43" t="n">
         <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI43" t="n">
         <v>26</v>
       </c>
       <c r="AJ43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -5571,7 +5571,7 @@
         <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J45" t="n">
         <v>1.03</v>
@@ -5607,7 +5607,7 @@
         <v>13</v>
       </c>
       <c r="U45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V45" t="n">
         <v>12</v>
@@ -5619,13 +5619,13 @@
         <v>23</v>
       </c>
       <c r="Y45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z45" t="n">
         <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB45" t="n">
         <v>12</v>
@@ -5640,7 +5640,7 @@
         <v>10</v>
       </c>
       <c r="AF45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG45" t="n">
         <v>9</v>
@@ -5687,13 +5687,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J46" t="n">
         <v>1.03</v>
@@ -5714,10 +5714,10 @@
         <v>2.15</v>
       </c>
       <c r="P46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R46" t="n">
         <v>1.57</v>
@@ -5726,7 +5726,7 @@
         <v>2.25</v>
       </c>
       <c r="T46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U46" t="n">
         <v>13</v>
@@ -5744,10 +5744,10 @@
         <v>23</v>
       </c>
       <c r="Z46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB46" t="n">
         <v>12</v>
@@ -5756,16 +5756,16 @@
         <v>41</v>
       </c>
       <c r="AD46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH46" t="n">
         <v>29</v>
@@ -5774,7 +5774,7 @@
         <v>21</v>
       </c>
       <c r="AJ46" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -5824,22 +5824,22 @@
         <v>19</v>
       </c>
       <c r="L47" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M47" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N47" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O47" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P47" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q47" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
         <v>2.25</v>
@@ -6175,27 +6175,27 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="H50" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="I50" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M50" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="N50" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="O50" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="P50" t="n">
         <v>1.38</v>
@@ -6204,34 +6204,34 @@
         <v>2.6</v>
       </c>
       <c r="R50" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T50" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="U50" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="V50" t="n">
         <v>8.25</v>
       </c>
       <c r="W50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y50" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z50" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB50" t="n">
         <v>18</v>
@@ -6240,22 +6240,22 @@
         <v>90</v>
       </c>
       <c r="AD50" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE50" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG50" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AH50" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI50" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ50" t="n">
         <v>60</v>
@@ -6293,62 +6293,62 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="H51" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I51" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M51" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="N51" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O51" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S51" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T51" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="U51" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V51" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W51" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="X51" t="n">
+        <v>110</v>
+      </c>
+      <c r="Y51" t="n">
         <v>100</v>
       </c>
-      <c r="Y51" t="n">
-        <v>90</v>
-      </c>
       <c r="Z51" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA51" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB51" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC51" t="n">
         <v>120</v>
@@ -6357,19 +6357,19 @@
         <v>900</v>
       </c>
       <c r="AE51" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF51" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG51" t="n">
         <v>8.75</v>
       </c>
       <c r="AH51" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AI51" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ51" t="n">
         <v>32</v>
@@ -6529,13 +6529,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J53" t="n">
         <v>1.08</v>
@@ -6544,16 +6544,16 @@
         <v>8</v>
       </c>
       <c r="L53" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M53" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N53" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O53" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P53" t="n">
         <v>1.5</v>
@@ -6568,13 +6568,13 @@
         <v>1.67</v>
       </c>
       <c r="T53" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U53" t="n">
         <v>8</v>
       </c>
       <c r="V53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W53" t="n">
         <v>17</v>
@@ -6595,10 +6595,10 @@
         <v>21</v>
       </c>
       <c r="AC53" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD53" t="n">
-        <v>1250</v>
+        <v>501</v>
       </c>
       <c r="AE53" t="n">
         <v>8.5</v>
@@ -6773,13 +6773,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>3.3</v>
       </c>
       <c r="I55" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -6794,10 +6794,10 @@
         <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P55" t="n">
         <v>1.44</v>
@@ -6851,7 +6851,7 @@
         <v>17</v>
       </c>
       <c r="AG55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH55" t="n">
         <v>41</v>
@@ -8262,10 +8262,10 @@
         <v>3.75</v>
       </c>
       <c r="N71" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O71" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P71" t="n">
         <v>1.36</v>
@@ -8485,13 +8485,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J73" t="n">
         <v>1.04</v>
@@ -8607,21 +8607,21 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H74" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I74" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M74" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N74" t="n">
         <v>1.65</v>
@@ -8635,13 +8635,13 @@
         <v>1.8</v>
       </c>
       <c r="S74" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T74" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U74" t="n">
         <v>7.2</v>
-      </c>
-      <c r="U74" t="n">
-        <v>7.1</v>
       </c>
       <c r="V74" t="n">
         <v>8.25</v>
@@ -8653,16 +8653,16 @@
         <v>11.75</v>
       </c>
       <c r="Y74" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z74" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA74" t="n">
         <v>8.25</v>
       </c>
       <c r="AB74" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC74" t="n">
         <v>80</v>
@@ -8671,7 +8671,7 @@
         <v>600</v>
       </c>
       <c r="AE74" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF74" t="n">
         <v>35</v>
@@ -8839,10 +8839,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="H76" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I76" t="n">
         <v>1.8</v>
@@ -8850,10 +8850,10 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M76" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="N76" t="n">
         <v>2.22</v>
@@ -8868,16 +8868,16 @@
         <v>2.32</v>
       </c>
       <c r="R76" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S76" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T76" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U76" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V76" t="n">
         <v>16.5</v>
@@ -8886,19 +8886,19 @@
         <v>90</v>
       </c>
       <c r="X76" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y76" t="n">
         <v>75</v>
       </c>
       <c r="Z76" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA76" t="n">
         <v>6.3</v>
       </c>
       <c r="AB76" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC76" t="n">
         <v>120</v>
@@ -8908,7 +8908,7 @@
         <v>5.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AG76" t="n">
         <v>8.5</v>
@@ -8920,7 +8920,7 @@
         <v>16.5</v>
       </c>
       <c r="AJ76" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -8955,13 +8955,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>3.15</v>
       </c>
       <c r="I77" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -8978,64 +8978,64 @@
         <v>1.55</v>
       </c>
       <c r="P77" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R77" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S77" t="n">
         <v>1.72</v>
       </c>
       <c r="T77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U77" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="V77" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="W77" t="n">
+        <v>40</v>
+      </c>
+      <c r="X77" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y77" t="n">
         <v>45</v>
-      </c>
-      <c r="X77" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>50</v>
       </c>
       <c r="Z77" t="n">
         <v>7.7</v>
       </c>
       <c r="AA77" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB77" t="n">
         <v>16.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD77" t="n">
         <v>900</v>
       </c>
       <c r="AE77" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AF77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG77" t="n">
         <v>9.25</v>
       </c>
-      <c r="AG77" t="n">
-        <v>9</v>
-      </c>
       <c r="AH77" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI77" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ77" t="n">
         <v>35</v>
@@ -9193,19 +9193,19 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H79" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I79" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J79" t="n">
         <v>1.04</v>
       </c>
       <c r="K79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L79" t="n">
         <v>1.2</v>
@@ -9214,34 +9214,34 @@
         <v>4.33</v>
       </c>
       <c r="N79" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O79" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P79" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q79" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R79" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S79" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
       </c>
       <c r="U79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W79" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X79" t="n">
         <v>12</v>
@@ -9250,26 +9250,26 @@
         <v>34</v>
       </c>
       <c r="Z79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC79" t="n">
         <v>81</v>
       </c>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF79" t="n">
         <v>51</v>
       </c>
       <c r="AG79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH79" t="n">
         <v>151</v>
@@ -9278,7 +9278,7 @@
         <v>81</v>
       </c>
       <c r="AJ79" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80">
@@ -9793,19 +9793,19 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H84" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I84" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J84" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L84" t="n">
         <v>1.44</v>
@@ -9820,34 +9820,34 @@
         <v>1.53</v>
       </c>
       <c r="P84" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R84" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S84" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W84" t="n">
         <v>41</v>
       </c>
       <c r="X84" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y84" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z84" t="n">
         <v>7</v>
@@ -9856,29 +9856,29 @@
         <v>6.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC84" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG84" t="n">
         <v>9.5</v>
       </c>
       <c r="AH84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI84" t="n">
         <v>19</v>
       </c>
-      <c r="AI84" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ84" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -10044,16 +10044,16 @@
         <v>4.2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K86" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L86" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M86" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N86" t="n">
         <v>2.5</v>
@@ -10157,46 +10157,46 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H87" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="J87" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K87" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="L87" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="M87" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="N87" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="O87" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P87" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R87" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S87" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T87" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U87" t="n">
         <v>34</v>
@@ -10214,7 +10214,7 @@
         <v>81</v>
       </c>
       <c r="Z87" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA87" t="n">
         <v>7.5</v>
@@ -10223,26 +10223,26 @@
         <v>29</v>
       </c>
       <c r="AC87" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH87" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI87" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88">
@@ -10277,10 +10277,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H88" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="I88" t="n">
         <v>2.32</v>
@@ -10303,7 +10303,7 @@
         <v>1.47</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R88" t="n">
         <v>1.65</v>
@@ -10336,7 +10336,7 @@
         <v>5.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC88" t="n">
         <v>55</v>
@@ -10456,16 +10456,16 @@
         <v>70</v>
       </c>
       <c r="AF89" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AG89" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AH89" t="n">
         <v>900</v>
       </c>
       <c r="AI89" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ89" t="n">
         <v>350</v>
@@ -10503,13 +10503,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="H90" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="I90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -10517,13 +10517,13 @@
         <v>1.25</v>
       </c>
       <c r="M90" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N90" t="n">
         <v>1.75</v>
       </c>
       <c r="O90" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P90" t="n">
         <v>1.38</v>
@@ -10532,22 +10532,22 @@
         <v>2.6</v>
       </c>
       <c r="R90" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S90" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T90" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U90" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="V90" t="n">
         <v>8.5</v>
       </c>
       <c r="W90" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X90" t="n">
         <v>12</v>
@@ -10559,10 +10559,10 @@
         <v>10.75</v>
       </c>
       <c r="AA90" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC90" t="n">
         <v>120</v>
@@ -10571,22 +10571,22 @@
         <v>700</v>
       </c>
       <c r="AE90" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AF90" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH90" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI90" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ90" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
@@ -10633,7 +10633,7 @@
         <v>1.03</v>
       </c>
       <c r="K91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L91" t="n">
         <v>1.18</v>
@@ -10642,10 +10642,10 @@
         <v>4.5</v>
       </c>
       <c r="N91" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O91" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P91" t="n">
         <v>1.29</v>
@@ -10752,10 +10752,10 @@
         <v>4.2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L92" t="n">
         <v>1.36</v>
@@ -10764,10 +10764,10 @@
         <v>3</v>
       </c>
       <c r="N92" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O92" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P92" t="n">
         <v>1.44</v>
@@ -11121,7 +11121,7 @@
         <v>1.04</v>
       </c>
       <c r="K95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L95" t="n">
         <v>1.25</v>
@@ -11142,7 +11142,7 @@
         <v>3.25</v>
       </c>
       <c r="R95" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S95" t="n">
         <v>2.1</v>
@@ -11240,13 +11240,13 @@
         <v>3.2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K96" t="n">
         <v>13</v>
       </c>
       <c r="L96" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M96" t="n">
         <v>4.33</v>
@@ -11264,7 +11264,7 @@
         <v>3.4</v>
       </c>
       <c r="R96" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S96" t="n">
         <v>2.25</v>
@@ -11362,13 +11362,13 @@
         <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K97" t="n">
         <v>12</v>
       </c>
       <c r="L97" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M97" t="n">
         <v>3.5</v>
@@ -11386,10 +11386,10 @@
         <v>3</v>
       </c>
       <c r="R97" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S97" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -11484,13 +11484,13 @@
         <v>3.4</v>
       </c>
       <c r="J98" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K98" t="n">
         <v>12</v>
       </c>
       <c r="L98" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
@@ -11508,7 +11508,7 @@
         <v>3.25</v>
       </c>
       <c r="R98" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S98" t="n">
         <v>2.1</v>
@@ -11606,13 +11606,13 @@
         <v>2.55</v>
       </c>
       <c r="J99" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K99" t="n">
         <v>8.5</v>
       </c>
       <c r="L99" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M99" t="n">
         <v>2.75</v>
@@ -11630,10 +11630,10 @@
         <v>2.63</v>
       </c>
       <c r="R99" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S99" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T99" t="n">
         <v>7.5</v>
@@ -11728,22 +11728,22 @@
         <v>3.3</v>
       </c>
       <c r="J100" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L100" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M100" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N100" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O100" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P100" t="n">
         <v>1.44</v>
@@ -11752,10 +11752,10 @@
         <v>2.63</v>
       </c>
       <c r="R100" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S100" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T100" t="n">
         <v>7.5</v>
@@ -12350,10 +12350,10 @@
         <v>3.75</v>
       </c>
       <c r="N105" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O105" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P105" t="n">
         <v>1.33</v>
@@ -13299,13 +13299,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>3.25</v>
       </c>
       <c r="I113" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J113" t="n">
         <v>1.06</v>
@@ -13421,23 +13421,23 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H114" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I114" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O114" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P114" t="n">
         <v>1.37</v>
@@ -13451,52 +13451,52 @@
         <v>5.6</v>
       </c>
       <c r="U114" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="V114" t="n">
         <v>6.9</v>
       </c>
       <c r="W114" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="X114" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y114" t="n">
         <v>21</v>
       </c>
       <c r="Z114" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA114" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB114" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC114" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD114" t="n">
         <v>400</v>
       </c>
       <c r="AE114" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG114" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH114" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI114" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ114" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
@@ -13646,10 +13646,10 @@
         <v>1.6</v>
       </c>
       <c r="J116" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K116" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L116" t="n">
         <v>1.25</v>
@@ -13658,10 +13658,10 @@
         <v>3.75</v>
       </c>
       <c r="N116" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O116" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P116" t="n">
         <v>1.36</v>
@@ -13759,78 +13759,82 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="H117" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="I117" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O117" t="n">
         <v>1.7</v>
       </c>
-      <c r="O117" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
+      <c r="P117" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.52</v>
+      </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U117" t="n">
         <v>6.1</v>
       </c>
-      <c r="U117" t="n">
-        <v>6.3</v>
-      </c>
       <c r="V117" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="W117" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X117" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y117" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF117" t="n">
         <v>20</v>
       </c>
-      <c r="Z117" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA117" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC117" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>24</v>
-      </c>
       <c r="AG117" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH117" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI117" t="n">
         <v>37</v>
       </c>
       <c r="AJ117" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
@@ -13865,29 +13869,29 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H118" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I118" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="O118" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P118" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
@@ -13895,25 +13899,25 @@
         <v>6</v>
       </c>
       <c r="U118" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="V118" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="W118" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="X118" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y118" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z118" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA118" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AB118" t="n">
         <v>12</v>
@@ -13925,22 +13929,22 @@
         <v>400</v>
       </c>
       <c r="AE118" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AF118" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG118" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH118" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AI118" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ118" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
@@ -14118,10 +14122,10 @@
         <v>5.5</v>
       </c>
       <c r="N120" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O120" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P120" t="n">
         <v>1.25</v>
@@ -14716,22 +14720,22 @@
         <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K125" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L125" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M125" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N125" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O125" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P125" t="n">
         <v>1.44</v>
@@ -15080,22 +15084,22 @@
         <v>3.5</v>
       </c>
       <c r="J128" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L128" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M128" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N128" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O128" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P128" t="n">
         <v>1.36</v>
@@ -15214,7 +15218,7 @@
         <v>4</v>
       </c>
       <c r="N129" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O129" t="n">
         <v>2.05</v>
@@ -15315,13 +15319,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H130" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I130" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J130" t="n">
         <v>1.03</v>
@@ -15330,46 +15334,46 @@
         <v>9.5</v>
       </c>
       <c r="L130" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M130" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="N130" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="O130" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="P130" t="n">
         <v>1.26</v>
       </c>
       <c r="Q130" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="R130" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S130" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="T130" t="n">
         <v>20</v>
       </c>
       <c r="U130" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V130" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="W130" t="n">
         <v>80</v>
       </c>
       <c r="X130" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y130" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z130" t="n">
         <v>9.5</v>
@@ -15378,31 +15382,31 @@
         <v>8.75</v>
       </c>
       <c r="AB130" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC130" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD130" t="n">
         <v>200</v>
       </c>
       <c r="AE130" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF130" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG130" t="n">
         <v>8.25</v>
       </c>
       <c r="AH130" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI130" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ130" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
@@ -16027,19 +16031,19 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H136" t="n">
         <v>2.92</v>
       </c>
       <c r="I136" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="J136" t="n">
         <v>1.07</v>
       </c>
       <c r="K136" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L136" t="n">
         <v>1.32</v>
@@ -16048,16 +16052,16 @@
         <v>3.1</v>
       </c>
       <c r="N136" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O136" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P136" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R136" t="n">
         <v>1.7</v>
@@ -16066,46 +16070,46 @@
         <v>2.05</v>
       </c>
       <c r="T136" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U136" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="V136" t="n">
         <v>9</v>
       </c>
       <c r="W136" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X136" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y136" t="n">
         <v>27</v>
       </c>
       <c r="Z136" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA136" t="n">
         <v>5.8</v>
       </c>
       <c r="AB136" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC136" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD136" t="n">
         <v>400</v>
       </c>
       <c r="AE136" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF136" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG136" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH136" t="n">
         <v>40</v>
@@ -16114,7 +16118,7 @@
         <v>26</v>
       </c>
       <c r="AJ136" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
@@ -16148,36 +16152,96 @@
           <t>Pescara</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
-      <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="inlineStr"/>
-      <c r="AC137" t="inlineStr"/>
-      <c r="AD137" t="inlineStr"/>
-      <c r="AE137" t="inlineStr"/>
-      <c r="AF137" t="inlineStr"/>
-      <c r="AG137" t="inlineStr"/>
-      <c r="AH137" t="inlineStr"/>
-      <c r="AI137" t="inlineStr"/>
-      <c r="AJ137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K137" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S137" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T137" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U137" t="n">
+        <v>12</v>
+      </c>
+      <c r="V137" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W137" t="n">
+        <v>28</v>
+      </c>
+      <c r="X137" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16223,7 +16287,7 @@
         <v>1.08</v>
       </c>
       <c r="K138" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L138" t="n">
         <v>1.38</v>
@@ -16268,7 +16332,7 @@
         <v>30</v>
       </c>
       <c r="Z138" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA138" t="n">
         <v>5.9</v>
@@ -16280,7 +16344,7 @@
         <v>75</v>
       </c>
       <c r="AD138" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE138" t="n">
         <v>8.5</v>
@@ -16298,7 +16362,7 @@
         <v>32</v>
       </c>
       <c r="AJ138" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139">
@@ -16333,37 +16397,37 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H139" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="I139" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="J139" t="n">
         <v>1.12</v>
       </c>
       <c r="K139" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L139" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M139" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="N139" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O139" t="n">
         <v>1.47</v>
       </c>
       <c r="P139" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q139" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R139" t="n">
         <v>2.05</v>
@@ -16372,28 +16436,28 @@
         <v>1.7</v>
       </c>
       <c r="T139" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="U139" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="V139" t="n">
         <v>10.25</v>
       </c>
       <c r="W139" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X139" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y139" t="n">
         <v>45</v>
       </c>
       <c r="Z139" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AA139" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB139" t="n">
         <v>17</v>
@@ -16403,19 +16467,19 @@
       </c>
       <c r="AD139" t="inlineStr"/>
       <c r="AE139" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AF139" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG139" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH139" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI139" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ139" t="n">
         <v>50</v>
@@ -16453,70 +16517,70 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="H140" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="I140" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="J140" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K140" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L140" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="M140" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="N140" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="O140" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P140" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S140" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="T140" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="U140" t="n">
-        <v>7.7</v>
+        <v>10.75</v>
       </c>
       <c r="V140" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="W140" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="X140" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y140" t="n">
         <v>35</v>
       </c>
       <c r="Z140" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AA140" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AB140" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC140" t="n">
         <v>90</v>
@@ -16525,22 +16589,22 @@
         <v>900</v>
       </c>
       <c r="AE140" t="n">
-        <v>10.75</v>
+        <v>7.6</v>
       </c>
       <c r="AF140" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AG140" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH140" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI140" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ140" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="141">
@@ -16840,10 +16904,10 @@
         <v>3</v>
       </c>
       <c r="N143" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O143" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P143" t="n">
         <v>1.44</v>
@@ -16941,19 +17005,19 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H144" t="n">
         <v>3.4</v>
       </c>
       <c r="I144" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J144" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K144" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L144" t="n">
         <v>1.4</v>
@@ -16974,10 +17038,10 @@
         <v>2.5</v>
       </c>
       <c r="R144" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S144" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T144" t="n">
         <v>7.5</v>
@@ -17010,7 +17074,7 @@
         <v>67</v>
       </c>
       <c r="AD144" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE144" t="n">
         <v>7</v>
@@ -17063,10 +17127,10 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I145" t="n">
         <v>3.1</v>
@@ -17090,22 +17154,22 @@
         <v>2.25</v>
       </c>
       <c r="P145" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q145" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R145" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S145" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T145" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V145" t="n">
         <v>9</v>
@@ -17114,31 +17178,31 @@
         <v>21</v>
       </c>
       <c r="X145" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y145" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z145" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA145" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB145" t="n">
         <v>11</v>
       </c>
       <c r="AC145" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD145" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE145" t="n">
         <v>13</v>
       </c>
       <c r="AF145" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG145" t="n">
         <v>12</v>
@@ -17147,7 +17211,7 @@
         <v>34</v>
       </c>
       <c r="AI145" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ145" t="n">
         <v>26</v>
@@ -17185,10 +17249,10 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H146" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I146" t="n">
         <v>2.35</v>
@@ -17209,19 +17273,19 @@
         <v>2.05</v>
       </c>
       <c r="O146" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P146" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R146" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S146" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T146" t="n">
         <v>8.5</v>
@@ -17242,19 +17306,19 @@
         <v>34</v>
       </c>
       <c r="Z146" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA146" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB146" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC146" t="n">
         <v>51</v>
       </c>
       <c r="AD146" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE146" t="n">
         <v>7.5</v>
@@ -17269,7 +17333,7 @@
         <v>21</v>
       </c>
       <c r="AI146" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ146" t="n">
         <v>29</v>
@@ -17343,7 +17407,7 @@
         <v>2.1</v>
       </c>
       <c r="S147" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T147" t="n">
         <v>6.5</v>
@@ -17462,7 +17526,7 @@
         <v>2.75</v>
       </c>
       <c r="R148" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S148" t="n">
         <v>2</v>
@@ -17557,7 +17621,7 @@
         <v>3.6</v>
       </c>
       <c r="I149" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J149" t="n">
         <v>1.04</v>
@@ -17566,34 +17630,34 @@
         <v>13</v>
       </c>
       <c r="L149" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M149" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N149" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O149" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P149" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q149" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R149" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S149" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T149" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U149" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V149" t="n">
         <v>9</v>
@@ -17605,10 +17669,10 @@
         <v>15</v>
       </c>
       <c r="Y149" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA149" t="n">
         <v>7</v>
@@ -17623,22 +17687,22 @@
         <v>151</v>
       </c>
       <c r="AE149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF149" t="n">
         <v>19</v>
       </c>
       <c r="AG149" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH149" t="n">
         <v>41</v>
       </c>
       <c r="AI149" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ149" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ149" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="150">
@@ -17682,10 +17746,10 @@
         <v>2.8</v>
       </c>
       <c r="J150" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L150" t="n">
         <v>1.3</v>
@@ -17694,10 +17758,10 @@
         <v>3.4</v>
       </c>
       <c r="N150" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O150" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P150" t="n">
         <v>1.4</v>
@@ -17706,10 +17770,10 @@
         <v>2.75</v>
       </c>
       <c r="R150" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S150" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T150" t="n">
         <v>8</v>
@@ -17816,10 +17880,10 @@
         <v>2.75</v>
       </c>
       <c r="N151" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O151" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P151" t="n">
         <v>1.5</v>
@@ -17831,7 +17895,7 @@
         <v>2</v>
       </c>
       <c r="S151" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T151" t="n">
         <v>6.5</v>
@@ -17917,7 +17981,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H152" t="n">
         <v>3.2</v>
@@ -17953,19 +18017,19 @@
         <v>2.1</v>
       </c>
       <c r="S152" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
       </c>
       <c r="U152" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V152" t="n">
         <v>9.5</v>
       </c>
       <c r="W152" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X152" t="n">
         <v>21</v>
@@ -17977,7 +18041,7 @@
         <v>7</v>
       </c>
       <c r="AA152" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB152" t="n">
         <v>19</v>
@@ -17989,10 +18053,10 @@
         <v>1000</v>
       </c>
       <c r="AE152" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF152" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG152" t="n">
         <v>13</v>
@@ -18161,46 +18225,46 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
         <v>3.9</v>
       </c>
       <c r="I154" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J154" t="n">
         <v>1.03</v>
       </c>
       <c r="K154" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L154" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M154" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N154" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O154" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P154" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q154" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R154" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S154" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T154" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U154" t="n">
         <v>11</v>
@@ -18209,7 +18273,7 @@
         <v>9</v>
       </c>
       <c r="W154" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X154" t="n">
         <v>15</v>
@@ -18221,7 +18285,7 @@
         <v>15</v>
       </c>
       <c r="AA154" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB154" t="n">
         <v>13</v>
@@ -18230,7 +18294,7 @@
         <v>41</v>
       </c>
       <c r="AD154" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE154" t="n">
         <v>13</v>
@@ -18239,16 +18303,16 @@
         <v>19</v>
       </c>
       <c r="AG154" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH154" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI154" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ154" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ154" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="155">
@@ -18745,21 +18809,21 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="H159" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="I159" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M159" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -18772,16 +18836,16 @@
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="U159" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="V159" t="n">
         <v>9</v>
       </c>
       <c r="W159" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X159" t="n">
         <v>23</v>
@@ -18790,7 +18854,7 @@
         <v>37</v>
       </c>
       <c r="Z159" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AA159" t="n">
         <v>5</v>
@@ -18803,16 +18867,16 @@
       </c>
       <c r="AD159" t="inlineStr"/>
       <c r="AE159" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AF159" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AG159" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH159" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI159" t="n">
         <v>22</v>
@@ -18972,10 +19036,10 @@
         <v>4.75</v>
       </c>
       <c r="J161" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K161" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L161" t="n">
         <v>1.29</v>
@@ -19210,10 +19274,10 @@
         <v>1.65</v>
       </c>
       <c r="H163" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I163" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -19221,7 +19285,7 @@
         <v>1.22</v>
       </c>
       <c r="M163" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N163" t="n">
         <v>1.65</v>
@@ -19235,31 +19299,31 @@
         <v>1.65</v>
       </c>
       <c r="S163" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T163" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U163" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V163" t="n">
         <v>8</v>
       </c>
       <c r="W163" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X163" t="n">
         <v>12.5</v>
       </c>
       <c r="Y163" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z163" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA163" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB163" t="n">
         <v>14.5</v>
@@ -19268,25 +19332,25 @@
         <v>60</v>
       </c>
       <c r="AD163" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE163" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF163" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG163" t="n">
         <v>14.5</v>
       </c>
       <c r="AH163" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI163" t="n">
         <v>40</v>
       </c>
       <c r="AJ163" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164">
@@ -19324,10 +19388,10 @@
         <v>1.57</v>
       </c>
       <c r="H164" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I164" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -19346,19 +19410,19 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S164" t="n">
         <v>1.78</v>
       </c>
       <c r="T164" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U164" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="V164" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W164" t="n">
         <v>11.25</v>
@@ -19370,16 +19434,16 @@
         <v>27</v>
       </c>
       <c r="Z164" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA164" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB164" t="n">
         <v>17.5</v>
       </c>
       <c r="AC164" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD164" t="n">
         <v>700</v>
@@ -19388,16 +19452,16 @@
         <v>13.5</v>
       </c>
       <c r="AF164" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG164" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH164" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI164" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ164" t="n">
         <v>55</v>
@@ -19549,13 +19613,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H166" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I166" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -19566,10 +19630,10 @@
         <v>2.75</v>
       </c>
       <c r="N166" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="O166" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="P166" t="n">
         <v>1.4</v>
@@ -19584,52 +19648,52 @@
         <v>1.9</v>
       </c>
       <c r="T166" t="n">
+        <v>8</v>
+      </c>
+      <c r="U166" t="n">
+        <v>12</v>
+      </c>
+      <c r="V166" t="n">
+        <v>10</v>
+      </c>
+      <c r="W166" t="n">
+        <v>23</v>
+      </c>
+      <c r="X166" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z166" t="n">
         <v>8.5</v>
       </c>
-      <c r="U166" t="n">
+      <c r="AA166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG166" t="n">
         <v>11</v>
       </c>
-      <c r="V166" t="n">
-        <v>9</v>
-      </c>
-      <c r="W166" t="n">
-        <v>21</v>
-      </c>
-      <c r="X166" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y166" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z166" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA166" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB166" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC166" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD166" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE166" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF166" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG166" t="n">
-        <v>12</v>
-      </c>
       <c r="AH166" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI166" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ166" t="n">
         <v>34</v>
@@ -19785,13 +19849,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H168" t="n">
         <v>3.25</v>
       </c>
       <c r="I168" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -19802,16 +19866,16 @@
         <v>2.32</v>
       </c>
       <c r="N168" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O168" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P168" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R168" t="n">
         <v>1.9</v>
@@ -19820,55 +19884,55 @@
         <v>1.72</v>
       </c>
       <c r="T168" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U168" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V168" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W168" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X168" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Y168" t="n">
         <v>41</v>
       </c>
       <c r="Z168" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AA168" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB168" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC168" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AD168" t="n">
         <v>301</v>
       </c>
       <c r="AE168" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF168" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AG168" t="n">
         <v>9.5</v>
       </c>
       <c r="AH168" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI168" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ168" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169">
@@ -20141,13 +20205,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="H171" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I171" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -20158,10 +20222,10 @@
         <v>2.75</v>
       </c>
       <c r="N171" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O171" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="P171" t="n">
         <v>1.4</v>
@@ -20176,7 +20240,7 @@
         <v>1.55</v>
       </c>
       <c r="T171" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U171" t="n">
         <v>6</v>
@@ -20185,19 +20249,19 @@
         <v>9</v>
       </c>
       <c r="W171" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X171" t="n">
         <v>13</v>
       </c>
       <c r="Y171" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z171" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA171" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB171" t="n">
         <v>21</v>
@@ -20207,19 +20271,19 @@
       </c>
       <c r="AD171" t="inlineStr"/>
       <c r="AE171" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF171" t="n">
         <v>41</v>
       </c>
       <c r="AG171" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH171" t="n">
         <v>101</v>
       </c>
       <c r="AI171" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ171" t="n">
         <v>67</v>
@@ -20278,10 +20342,10 @@
         <v>4.5</v>
       </c>
       <c r="N172" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O172" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P172" t="n">
         <v>1.29</v>
@@ -20501,13 +20565,13 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>3.1</v>
       </c>
       <c r="I174" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J174" t="n">
         <v>1.08</v>
@@ -20540,7 +20604,7 @@
         <v>1.8</v>
       </c>
       <c r="T174" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U174" t="n">
         <v>11</v>
@@ -20573,16 +20637,16 @@
         <v>351</v>
       </c>
       <c r="AE174" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF174" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG174" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH174" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI174" t="n">
         <v>26</v>
@@ -20745,13 +20809,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>3.5</v>
       </c>
       <c r="I176" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J176" t="n">
         <v>1.04</v>
@@ -20766,10 +20830,10 @@
         <v>4.33</v>
       </c>
       <c r="N176" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O176" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P176" t="n">
         <v>1.3</v>
@@ -20805,7 +20869,7 @@
         <v>13</v>
       </c>
       <c r="AA176" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB176" t="n">
         <v>12</v>
@@ -21010,10 +21074,10 @@
         <v>5.5</v>
       </c>
       <c r="N178" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O178" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P178" t="n">
         <v>1.25</v>
@@ -22099,19 +22163,19 @@
         <v>1.03</v>
       </c>
       <c r="K188" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L188" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M188" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N188" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O188" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P188" t="n">
         <v>1.29</v>
@@ -22159,16 +22223,16 @@
         <v>301</v>
       </c>
       <c r="AE188" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF188" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG188" t="n">
         <v>26</v>
       </c>
       <c r="AH188" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI188" t="n">
         <v>67</v>
@@ -22596,10 +22660,10 @@
         <v>4.33</v>
       </c>
       <c r="N192" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O192" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P192" t="n">
         <v>1.3</v>
@@ -22697,13 +22761,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H193" t="n">
         <v>3.6</v>
       </c>
       <c r="I193" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J193" t="n">
         <v>1.03</v>
@@ -22724,10 +22788,10 @@
         <v>2.35</v>
       </c>
       <c r="P193" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q193" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R193" t="n">
         <v>1.5</v>
@@ -22742,10 +22806,10 @@
         <v>15</v>
       </c>
       <c r="V193" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W193" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X193" t="n">
         <v>17</v>
@@ -22775,7 +22839,7 @@
         <v>17</v>
       </c>
       <c r="AG193" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH193" t="n">
         <v>29</v>
@@ -22784,7 +22848,7 @@
         <v>19</v>
       </c>
       <c r="AJ193" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194">
@@ -22894,7 +22958,7 @@
         <v>10</v>
       </c>
       <c r="AF194" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG194" t="n">
         <v>15</v>
@@ -22903,7 +22967,7 @@
         <v>41</v>
       </c>
       <c r="AI194" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ194" t="n">
         <v>41</v>
@@ -22941,10 +23005,10 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H195" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I195" t="n">
         <v>4.75</v>
@@ -22962,10 +23026,10 @@
         <v>3.75</v>
       </c>
       <c r="N195" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O195" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P195" t="n">
         <v>1.33</v>
@@ -22998,7 +23062,7 @@
         <v>26</v>
       </c>
       <c r="Z195" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA195" t="n">
         <v>7.5</v>
@@ -23019,7 +23083,7 @@
         <v>26</v>
       </c>
       <c r="AG195" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH195" t="n">
         <v>51</v>
@@ -23072,10 +23136,10 @@
         <v>4</v>
       </c>
       <c r="J196" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K196" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L196" t="n">
         <v>1.36</v>
@@ -23111,13 +23175,13 @@
         <v>9</v>
       </c>
       <c r="W196" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X196" t="n">
         <v>17</v>
       </c>
       <c r="Y196" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z196" t="n">
         <v>8</v>
@@ -23328,10 +23392,10 @@
         <v>3.25</v>
       </c>
       <c r="N198" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O198" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P198" t="n">
         <v>1.44</v>
@@ -23572,10 +23636,10 @@
         <v>4.33</v>
       </c>
       <c r="N200" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O200" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P200" t="n">
         <v>1.3</v>
@@ -23682,10 +23746,10 @@
         <v>3.6</v>
       </c>
       <c r="J201" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K201" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L201" t="n">
         <v>1.33</v>
@@ -23694,10 +23758,10 @@
         <v>3.25</v>
       </c>
       <c r="N201" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O201" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P201" t="n">
         <v>1.44</v>
@@ -23938,10 +24002,10 @@
         <v>3.75</v>
       </c>
       <c r="N203" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O203" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P203" t="n">
         <v>1.36</v>
@@ -24054,16 +24118,16 @@
         <v>11</v>
       </c>
       <c r="L204" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M204" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N204" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O204" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P204" t="n">
         <v>1.36</v>
@@ -24182,10 +24246,10 @@
         <v>3.75</v>
       </c>
       <c r="N205" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O205" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P205" t="n">
         <v>1.36</v>
@@ -24283,19 +24347,19 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H206" t="n">
         <v>3.1</v>
       </c>
       <c r="I206" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J206" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K206" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L206" t="n">
         <v>1.4</v>
@@ -24310,25 +24374,25 @@
         <v>1.62</v>
       </c>
       <c r="P206" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q206" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R206" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S206" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T206" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U206" t="n">
         <v>15</v>
       </c>
       <c r="V206" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W206" t="n">
         <v>34</v>
@@ -24340,25 +24404,25 @@
         <v>41</v>
       </c>
       <c r="Z206" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA206" t="n">
         <v>6</v>
       </c>
       <c r="AB206" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC206" t="n">
         <v>51</v>
       </c>
       <c r="AD206" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE206" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF206" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG206" t="n">
         <v>9.5</v>
@@ -25228,10 +25292,10 @@
         <v>3.5</v>
       </c>
       <c r="N218" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O218" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P218" t="n">
         <v>1.36</v>
@@ -25573,10 +25637,10 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H221" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I221" t="n">
         <v>5.25</v>
@@ -25624,7 +25688,7 @@
         <v>12</v>
       </c>
       <c r="X221" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y221" t="n">
         <v>21</v>
@@ -25817,40 +25881,40 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H223" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I223" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J223" t="n">
         <v>1.05</v>
       </c>
       <c r="K223" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L223" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M223" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N223" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O223" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P223" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q223" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="R223" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S223" t="n">
         <v>1.88</v>
@@ -25865,7 +25929,7 @@
         <v>8</v>
       </c>
       <c r="W223" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="X223" t="n">
         <v>12.5</v>
@@ -25874,10 +25938,10 @@
         <v>25</v>
       </c>
       <c r="Z223" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA223" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB223" t="n">
         <v>16.5</v>
@@ -25889,19 +25953,19 @@
         <v>600</v>
       </c>
       <c r="AE223" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF223" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG223" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH223" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI223" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ223" t="n">
         <v>55</v>
@@ -25942,10 +26006,10 @@
         <v>1.35</v>
       </c>
       <c r="H224" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I224" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="J224" t="n">
         <v>1.02</v>
@@ -25972,10 +26036,10 @@
         <v>3.65</v>
       </c>
       <c r="R224" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S224" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="T224" t="n">
         <v>10.5</v>
@@ -25984,37 +26048,37 @@
         <v>8.5</v>
       </c>
       <c r="V224" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W224" t="n">
         <v>10</v>
       </c>
       <c r="X224" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y224" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z224" t="n">
         <v>10</v>
       </c>
       <c r="AA224" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB224" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC224" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF224" t="n">
         <v>50</v>
-      </c>
-      <c r="AD224" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE224" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF224" t="n">
-        <v>55</v>
       </c>
       <c r="AG224" t="n">
         <v>21</v>
@@ -26026,7 +26090,7 @@
         <v>60</v>
       </c>
       <c r="AJ224" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="225">
@@ -26067,19 +26131,19 @@
         <v>3.3</v>
       </c>
       <c r="I225" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J225" t="n">
         <v>1.05</v>
       </c>
       <c r="K225" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L225" t="n">
         <v>1.26</v>
       </c>
       <c r="M225" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N225" t="n">
         <v>1.78</v>
@@ -26097,10 +26161,10 @@
         <v>1.65</v>
       </c>
       <c r="S225" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T225" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U225" t="n">
         <v>10.5</v>
@@ -26115,10 +26179,10 @@
         <v>15</v>
       </c>
       <c r="Y225" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z225" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA225" t="n">
         <v>6.6</v>
@@ -26127,7 +26191,7 @@
         <v>13</v>
       </c>
       <c r="AC225" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD225" t="n">
         <v>350</v>
@@ -26136,7 +26200,7 @@
         <v>11</v>
       </c>
       <c r="AF225" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG225" t="n">
         <v>11.75</v>
@@ -26183,7 +26247,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H226" t="n">
         <v>5</v>
@@ -26210,7 +26274,7 @@
         <v>4</v>
       </c>
       <c r="P226" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="Q226" t="n">
         <v>5</v>
@@ -26305,7 +26369,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="H227" t="n">
         <v>5</v>
@@ -26332,7 +26396,7 @@
         <v>4.2</v>
       </c>
       <c r="P227" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Q227" t="n">
         <v>5.5</v>
@@ -27061,7 +27125,7 @@
         <v>2.1</v>
       </c>
       <c r="O233" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P233" t="n">
         <v>1.44</v>
@@ -27174,16 +27238,16 @@
         <v>8</v>
       </c>
       <c r="L234" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M234" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N234" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O234" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="P234" t="n">
         <v>1.5</v>
@@ -27296,16 +27360,16 @@
         <v>9</v>
       </c>
       <c r="L235" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M235" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N235" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O235" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="P235" t="n">
         <v>1.44</v>
@@ -27412,22 +27476,22 @@
         <v>3.3</v>
       </c>
       <c r="J236" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K236" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L236" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M236" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N236" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O236" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P236" t="n">
         <v>1.4</v>
@@ -27525,13 +27589,13 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H237" t="n">
         <v>4.5</v>
       </c>
       <c r="I237" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J237" t="n">
         <v>1.03</v>
@@ -27546,10 +27610,10 @@
         <v>4.33</v>
       </c>
       <c r="N237" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O237" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P237" t="n">
         <v>1.3</v>
@@ -27558,10 +27622,10 @@
         <v>3.4</v>
       </c>
       <c r="R237" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S237" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T237" t="n">
         <v>7.5</v>
@@ -27582,13 +27646,13 @@
         <v>26</v>
       </c>
       <c r="Z237" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA237" t="n">
         <v>9.5</v>
       </c>
       <c r="AB237" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC237" t="n">
         <v>51</v>
@@ -27597,22 +27661,22 @@
         <v>301</v>
       </c>
       <c r="AE237" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG237" t="n">
         <v>19</v>
       </c>
-      <c r="AF237" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG237" t="n">
-        <v>21</v>
-      </c>
       <c r="AH237" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI237" t="n">
         <v>51</v>
       </c>
       <c r="AJ237" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238">
@@ -27778,10 +27842,10 @@
         <v>3.3</v>
       </c>
       <c r="J239" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K239" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L239" t="n">
         <v>1.3</v>
@@ -27912,10 +27976,10 @@
         <v>3</v>
       </c>
       <c r="N240" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O240" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P240" t="n">
         <v>1.44</v>
@@ -27924,10 +27988,10 @@
         <v>2.63</v>
       </c>
       <c r="R240" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S240" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T240" t="n">
         <v>6</v>
@@ -27939,7 +28003,7 @@
         <v>9</v>
       </c>
       <c r="W240" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X240" t="n">
         <v>17</v>
@@ -28034,10 +28098,10 @@
         <v>2.75</v>
       </c>
       <c r="N241" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O241" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P241" t="n">
         <v>1.44</v>
@@ -28133,31 +28197,31 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H242" t="n">
         <v>3.1</v>
       </c>
       <c r="I242" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J242" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K242" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="L242" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M242" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N242" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O242" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P242" t="n">
         <v>1.4</v>
@@ -28172,7 +28236,7 @@
         <v>1.91</v>
       </c>
       <c r="T242" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U242" t="n">
         <v>15</v>
@@ -28184,7 +28248,7 @@
         <v>29</v>
       </c>
       <c r="X242" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y242" t="n">
         <v>34</v>
@@ -28202,7 +28266,7 @@
         <v>51</v>
       </c>
       <c r="AD242" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE242" t="n">
         <v>8</v>
@@ -28211,7 +28275,7 @@
         <v>11</v>
       </c>
       <c r="AG242" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH242" t="n">
         <v>21</v>
@@ -28255,31 +28319,31 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H243" t="n">
         <v>3.4</v>
       </c>
       <c r="I243" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J243" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K243" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L243" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M243" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N243" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O243" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P243" t="n">
         <v>1.44</v>
@@ -28288,58 +28352,58 @@
         <v>2.63</v>
       </c>
       <c r="R243" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S243" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T243" t="n">
         <v>7.5</v>
       </c>
       <c r="U243" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V243" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W243" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X243" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y243" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z243" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA243" t="n">
         <v>7</v>
       </c>
       <c r="AB243" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC243" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD243" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE243" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF243" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG243" t="n">
         <v>11</v>
       </c>
-      <c r="AG243" t="n">
-        <v>10</v>
-      </c>
       <c r="AH243" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI243" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ243" t="n">
         <v>34</v>
@@ -28508,10 +28572,10 @@
         <v>2.5</v>
       </c>
       <c r="J245" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K245" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L245" t="n">
         <v>1.44</v>
@@ -28556,7 +28620,7 @@
         <v>41</v>
       </c>
       <c r="Z245" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA245" t="n">
         <v>6.5</v>
@@ -28874,10 +28938,10 @@
         <v>2.4</v>
       </c>
       <c r="J248" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K248" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L248" t="n">
         <v>1.4</v>
@@ -28937,13 +29001,13 @@
         <v>700</v>
       </c>
       <c r="AE248" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF248" t="n">
         <v>11</v>
       </c>
       <c r="AG248" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH248" t="n">
         <v>23</v>
@@ -28996,10 +29060,10 @@
         <v>3.5</v>
       </c>
       <c r="J249" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K249" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L249" t="n">
         <v>1.4</v>
@@ -29014,10 +29078,10 @@
         <v>1.62</v>
       </c>
       <c r="P249" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q249" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R249" t="n">
         <v>2</v>
@@ -29035,7 +29099,7 @@
         <v>9.5</v>
       </c>
       <c r="W249" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X249" t="n">
         <v>19</v>
@@ -29053,13 +29117,13 @@
         <v>17</v>
       </c>
       <c r="AC249" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD249" t="n">
         <v>800</v>
       </c>
       <c r="AE249" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF249" t="n">
         <v>17</v>
@@ -29738,10 +29802,10 @@
         <v>3.5</v>
       </c>
       <c r="N255" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O255" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P255" t="n">
         <v>1.4</v>
@@ -29860,10 +29924,10 @@
         <v>3.75</v>
       </c>
       <c r="N256" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O256" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P256" t="n">
         <v>1.33</v>
@@ -29872,13 +29936,13 @@
         <v>3.25</v>
       </c>
       <c r="R256" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S256" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T256" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U256" t="n">
         <v>7</v>
@@ -29890,7 +29954,7 @@
         <v>10</v>
       </c>
       <c r="X256" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y256" t="n">
         <v>26</v>
@@ -29908,7 +29972,7 @@
         <v>67</v>
       </c>
       <c r="AD256" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE256" t="n">
         <v>13</v>
@@ -29961,13 +30025,13 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H257" t="n">
         <v>3.5</v>
       </c>
       <c r="I257" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J257" t="n">
         <v>1.03</v>
@@ -30089,7 +30153,7 @@
         <v>3.6</v>
       </c>
       <c r="I258" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="J258" t="n">
         <v>1.03</v>
@@ -30104,22 +30168,22 @@
         <v>5</v>
       </c>
       <c r="N258" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O258" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P258" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q258" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R258" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S258" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T258" t="n">
         <v>12</v>
@@ -30134,7 +30198,7 @@
         <v>23</v>
       </c>
       <c r="X258" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y258" t="n">
         <v>21</v>
@@ -30143,7 +30207,7 @@
         <v>17</v>
       </c>
       <c r="AA258" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB258" t="n">
         <v>11</v>
@@ -30155,10 +30219,10 @@
         <v>101</v>
       </c>
       <c r="AE258" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF258" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG258" t="n">
         <v>11</v>
@@ -30458,10 +30522,10 @@
         <v>19</v>
       </c>
       <c r="J261" t="n">
+        <v>41</v>
+      </c>
+      <c r="K261" t="n">
         <v>1.01</v>
-      </c>
-      <c r="K261" t="n">
-        <v>34</v>
       </c>
       <c r="L261" t="n">
         <v>1.04</v>
@@ -30571,31 +30635,31 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H262" t="n">
         <v>7</v>
       </c>
       <c r="I262" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J262" t="n">
         <v>1.01</v>
       </c>
       <c r="K262" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L262" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M262" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N262" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O262" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P262" t="n">
         <v>1.18</v>
@@ -30604,28 +30668,28 @@
         <v>4.5</v>
       </c>
       <c r="R262" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S262" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T262" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U262" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V262" t="n">
+        <v>9</v>
+      </c>
+      <c r="W262" t="n">
         <v>9.5</v>
-      </c>
-      <c r="W262" t="n">
-        <v>9</v>
       </c>
       <c r="X262" t="n">
         <v>10</v>
       </c>
       <c r="Y262" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z262" t="n">
         <v>29</v>
@@ -30640,7 +30704,7 @@
         <v>51</v>
       </c>
       <c r="AD262" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE262" t="n">
         <v>26</v>
@@ -30655,7 +30719,7 @@
         <v>81</v>
       </c>
       <c r="AI262" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ262" t="n">
         <v>41</v>
@@ -31080,7 +31144,7 @@
         <v>2.05</v>
       </c>
       <c r="P266" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q266" t="n">
         <v>3.25</v>
@@ -31411,94 +31475,94 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="H269" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I269" t="n">
-        <v>2.87</v>
+        <v>3.35</v>
       </c>
       <c r="J269" t="n">
         <v>1.04</v>
       </c>
       <c r="K269" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L269" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M269" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="N269" t="n">
         <v>1.6</v>
       </c>
       <c r="O269" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="P269" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Q269" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R269" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S269" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T269" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="U269" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="V269" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W269" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="X269" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y269" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z269" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA269" t="n">
         <v>7.2</v>
       </c>
       <c r="AB269" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC269" t="n">
         <v>40</v>
       </c>
       <c r="AD269" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE269" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF269" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AG269" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH269" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AI269" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AJ269" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -802,10 +802,10 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
         <v>9.5</v>
@@ -844,16 +844,16 @@
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
@@ -906,10 +906,10 @@
         <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N4" t="n">
         <v>1.67</v>
@@ -1025,7 +1025,7 @@
         <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
         <v>1.17</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1162,10 +1162,10 @@
         <v>2.1</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
         <v>1.62</v>
@@ -1177,19 +1177,19 @@
         <v>10</v>
       </c>
       <c r="U6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
         <v>13</v>
@@ -1207,19 +1207,19 @@
         <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
         <v>34</v>
@@ -1522,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P9" t="n">
         <v>1.25</v>
@@ -2010,10 +2010,10 @@
         <v>3.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O13" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -2496,10 +2496,10 @@
         <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O17" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P17" t="n">
         <v>1.22</v>
@@ -2612,10 +2612,10 @@
         <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
         <v>1.75</v>
@@ -2719,19 +2719,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
         <v>1.5</v>
@@ -2740,10 +2740,10 @@
         <v>2.63</v>
       </c>
       <c r="N19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
         <v>1.53</v>
@@ -2752,13 +2752,13 @@
         <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U19" t="n">
         <v>10</v>
@@ -2782,7 +2782,7 @@
         <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
         <v>67</v>
@@ -2797,13 +2797,13 @@
         <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>41</v>
@@ -2853,19 +2853,19 @@
         <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P20" t="n">
         <v>1.18</v>
@@ -3104,10 +3104,10 @@
         <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O22" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="P22" t="n">
         <v>1.33</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H27" t="n">
         <v>2.75</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J27" t="n">
         <v>1.17</v>
@@ -3733,7 +3733,7 @@
         <v>13</v>
       </c>
       <c r="W27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X27" t="n">
         <v>34</v>
@@ -3758,10 +3758,10 @@
         <v>6</v>
       </c>
       <c r="AF27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG27" t="n">
         <v>12</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>29</v>
@@ -4782,16 +4782,16 @@
         <v>13</v>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N36" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P36" t="n">
         <v>1.33</v>
@@ -5333,7 +5333,7 @@
         <v>1.04</v>
       </c>
       <c r="K43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L43" t="n">
         <v>1.25</v>
@@ -5396,19 +5396,19 @@
         <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG43" t="n">
         <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI43" t="n">
         <v>26</v>
       </c>
       <c r="AJ43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H45" t="n">
         <v>3.7</v>
@@ -5613,7 +5613,7 @@
         <v>12</v>
       </c>
       <c r="W45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X45" t="n">
         <v>23</v>
@@ -5687,13 +5687,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J46" t="n">
         <v>1.03</v>
@@ -5702,16 +5702,16 @@
         <v>15</v>
       </c>
       <c r="L46" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N46" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O46" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P46" t="n">
         <v>1.3</v>
@@ -5729,16 +5729,16 @@
         <v>11</v>
       </c>
       <c r="U46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
         <v>23</v>
@@ -5759,7 +5759,7 @@
         <v>126</v>
       </c>
       <c r="AE46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF46" t="n">
         <v>15</v>
@@ -5768,10 +5768,10 @@
         <v>10</v>
       </c>
       <c r="AH46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="n">
         <v>23</v>
@@ -5815,7 +5815,7 @@
         <v>7</v>
       </c>
       <c r="I47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J47" t="n">
         <v>1.02</v>
@@ -5842,10 +5842,10 @@
         <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T47" t="n">
         <v>9</v>
@@ -6293,86 +6293,86 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="H51" t="n">
         <v>4.8</v>
       </c>
       <c r="I51" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M51" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N51" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S51" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="T51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U51" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="V51" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="W51" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="X51" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="Y51" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Z51" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC51" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD51" t="n">
         <v>900</v>
       </c>
       <c r="AE51" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AF51" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AG51" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH51" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AI51" t="n">
         <v>11.5</v>
       </c>
       <c r="AJ51" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
@@ -6410,22 +6410,22 @@
         <v>2.55</v>
       </c>
       <c r="H52" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I52" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J52" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N52" t="n">
         <v>2.4</v>
@@ -6434,25 +6434,25 @@
         <v>1.53</v>
       </c>
       <c r="P52" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S52" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U52" t="n">
         <v>11</v>
       </c>
       <c r="V52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W52" t="n">
         <v>26</v>
@@ -6467,22 +6467,22 @@
         <v>7</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC52" t="n">
         <v>67</v>
       </c>
       <c r="AD52" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG52" t="n">
         <v>11</v>
@@ -6785,7 +6785,7 @@
         <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L55" t="n">
         <v>1.4</v>
@@ -6898,16 +6898,16 @@
         <v>1.47</v>
       </c>
       <c r="H56" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I56" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J56" t="n">
         <v>1.08</v>
       </c>
       <c r="K56" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L56" t="n">
         <v>1.39</v>
@@ -6922,13 +6922,13 @@
         <v>1.62</v>
       </c>
       <c r="P56" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q56" t="n">
         <v>2.57</v>
       </c>
       <c r="R56" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="S56" t="n">
         <v>1.55</v>
@@ -6940,7 +6940,7 @@
         <v>5.7</v>
       </c>
       <c r="V56" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W56" t="n">
         <v>9.5</v>
@@ -6952,13 +6952,13 @@
         <v>40</v>
       </c>
       <c r="Z56" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC56" t="n">
         <v>150</v>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H59" t="n">
         <v>3.25</v>
       </c>
       <c r="I59" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J59" t="n">
         <v>1.09</v>
@@ -7290,25 +7290,25 @@
         <v>2.5</v>
       </c>
       <c r="R59" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S59" t="n">
         <v>1.7</v>
       </c>
       <c r="T59" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="U59" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="V59" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W59" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X59" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y59" t="n">
         <v>35</v>
@@ -7317,10 +7317,10 @@
         <v>6.1</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB59" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC59" t="n">
         <v>110</v>
@@ -7329,22 +7329,22 @@
         <v>900</v>
       </c>
       <c r="AE59" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF59" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG59" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ59" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
@@ -7379,13 +7379,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H60" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I60" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="J60" t="n">
         <v>1.07</v>
@@ -7412,19 +7412,19 @@
         <v>2.63</v>
       </c>
       <c r="R60" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S60" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W60" t="n">
         <v>51</v>
@@ -7433,7 +7433,7 @@
         <v>41</v>
       </c>
       <c r="Y60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z60" t="n">
         <v>9</v>
@@ -7454,19 +7454,19 @@
         <v>6</v>
       </c>
       <c r="AF60" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG60" t="n">
         <v>8.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI60" t="n">
         <v>15</v>
       </c>
       <c r="AJ60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -8244,7 +8244,7 @@
         <v>3.5</v>
       </c>
       <c r="H71" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I71" t="n">
         <v>2.1</v>
@@ -8262,10 +8262,10 @@
         <v>3.75</v>
       </c>
       <c r="N71" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O71" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P71" t="n">
         <v>1.36</v>
@@ -8274,10 +8274,10 @@
         <v>3</v>
       </c>
       <c r="R71" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S71" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T71" t="n">
         <v>12</v>
@@ -8384,10 +8384,10 @@
         <v>4</v>
       </c>
       <c r="N72" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P72" t="n">
         <v>1.33</v>
@@ -8497,7 +8497,7 @@
         <v>1.04</v>
       </c>
       <c r="K73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L73" t="n">
         <v>1.25</v>
@@ -9073,13 +9073,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I78" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J78" t="n">
         <v>1.11</v>
@@ -9112,16 +9112,16 @@
         <v>1.67</v>
       </c>
       <c r="T78" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U78" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V78" t="n">
         <v>11</v>
       </c>
       <c r="W78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X78" t="n">
         <v>26</v>
@@ -9130,13 +9130,13 @@
         <v>41</v>
       </c>
       <c r="Z78" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA78" t="n">
         <v>6</v>
       </c>
-      <c r="AA78" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC78" t="n">
         <v>67</v>
@@ -9146,7 +9146,7 @@
         <v>7</v>
       </c>
       <c r="AF78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG78" t="n">
         <v>12</v>
@@ -9193,13 +9193,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="H79" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="I79" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="J79" t="n">
         <v>1.04</v>
@@ -9208,77 +9208,79 @@
         <v>12</v>
       </c>
       <c r="L79" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M79" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N79" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S79" t="n">
         <v>1.67</v>
       </c>
-      <c r="O79" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P79" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R79" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S79" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T79" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U79" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V79" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W79" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X79" t="n">
         <v>12</v>
       </c>
       <c r="Y79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z79" t="n">
         <v>12</v>
       </c>
       <c r="AA79" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC79" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD79" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>1000</v>
+      </c>
       <c r="AE79" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="n">
         <v>23</v>
       </c>
-      <c r="AF79" t="n">
+      <c r="AH79" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI79" t="n">
         <v>51</v>
       </c>
-      <c r="AG79" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>151</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>81</v>
-      </c>
       <c r="AJ79" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80">
@@ -9934,10 +9936,10 @@
         <v>3</v>
       </c>
       <c r="N85" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O85" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P85" t="n">
         <v>1.44</v>
@@ -10157,13 +10159,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H87" t="n">
         <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J87" t="n">
         <v>1.13</v>
@@ -10196,13 +10198,13 @@
         <v>1.4</v>
       </c>
       <c r="T87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U87" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V87" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W87" t="n">
         <v>81</v>
@@ -10217,7 +10219,7 @@
         <v>5.5</v>
       </c>
       <c r="AA87" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB87" t="n">
         <v>29</v>
@@ -10233,16 +10235,16 @@
         <v>6</v>
       </c>
       <c r="AG87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH87" t="n">
         <v>11</v>
       </c>
       <c r="AI87" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ87" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
@@ -10327,7 +10329,7 @@
         <v>30</v>
       </c>
       <c r="Y88" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z88" t="n">
         <v>8</v>
@@ -10345,7 +10347,7 @@
         <v>400</v>
       </c>
       <c r="AE88" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF88" t="n">
         <v>11.75</v>
@@ -10506,10 +10508,10 @@
         <v>1.35</v>
       </c>
       <c r="H90" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I90" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -10523,7 +10525,7 @@
         <v>1.75</v>
       </c>
       <c r="O90" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P90" t="n">
         <v>1.38</v>
@@ -10541,7 +10543,7 @@
         <v>6.1</v>
       </c>
       <c r="U90" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="V90" t="n">
         <v>8.5</v>
@@ -10571,7 +10573,7 @@
         <v>700</v>
       </c>
       <c r="AE90" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF90" t="n">
         <v>55</v>
@@ -10580,7 +10582,7 @@
         <v>26</v>
       </c>
       <c r="AH90" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI90" t="n">
         <v>110</v>
@@ -10633,7 +10635,7 @@
         <v>1.03</v>
       </c>
       <c r="K91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L91" t="n">
         <v>1.18</v>
@@ -10642,10 +10644,10 @@
         <v>4.5</v>
       </c>
       <c r="N91" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O91" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P91" t="n">
         <v>1.29</v>
@@ -10743,13 +10745,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H92" t="n">
         <v>3.5</v>
       </c>
       <c r="I92" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J92" t="n">
         <v>1.06</v>
@@ -10776,10 +10778,10 @@
         <v>2.63</v>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S92" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T92" t="n">
         <v>6.5</v>
@@ -10788,13 +10790,13 @@
         <v>8</v>
       </c>
       <c r="V92" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W92" t="n">
         <v>15</v>
       </c>
       <c r="X92" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y92" t="n">
         <v>29</v>
@@ -10809,13 +10811,13 @@
         <v>17</v>
       </c>
       <c r="AC92" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD92" t="n">
         <v>401</v>
       </c>
       <c r="AE92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF92" t="n">
         <v>21</v>
@@ -10824,7 +10826,7 @@
         <v>15</v>
       </c>
       <c r="AH92" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI92" t="n">
         <v>41</v>
@@ -11231,31 +11233,31 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H96" t="n">
         <v>3.25</v>
       </c>
       <c r="I96" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K96" t="n">
         <v>13</v>
       </c>
       <c r="L96" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M96" t="n">
         <v>4.33</v>
       </c>
       <c r="N96" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O96" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P96" t="n">
         <v>1.3</v>
@@ -11264,10 +11266,10 @@
         <v>3.4</v>
       </c>
       <c r="R96" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S96" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T96" t="n">
         <v>10</v>
@@ -11282,7 +11284,7 @@
         <v>21</v>
       </c>
       <c r="X96" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y96" t="n">
         <v>21</v>
@@ -11297,7 +11299,7 @@
         <v>11</v>
       </c>
       <c r="AC96" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD96" t="n">
         <v>126</v>
@@ -11318,7 +11320,7 @@
         <v>23</v>
       </c>
       <c r="AJ96" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
@@ -11362,13 +11364,13 @@
         <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K97" t="n">
         <v>12</v>
       </c>
       <c r="L97" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M97" t="n">
         <v>3.5</v>
@@ -11484,13 +11486,13 @@
         <v>3.4</v>
       </c>
       <c r="J98" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K98" t="n">
         <v>12</v>
       </c>
       <c r="L98" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
@@ -11606,13 +11608,13 @@
         <v>2.55</v>
       </c>
       <c r="J99" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K99" t="n">
         <v>8.5</v>
       </c>
       <c r="L99" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M99" t="n">
         <v>2.75</v>
@@ -11728,13 +11730,13 @@
         <v>3.3</v>
       </c>
       <c r="J100" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K100" t="n">
         <v>9</v>
       </c>
       <c r="L100" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M100" t="n">
         <v>3.25</v>
@@ -12106,10 +12108,10 @@
         <v>5</v>
       </c>
       <c r="N103" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O103" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P103" t="n">
         <v>1.29</v>
@@ -12207,13 +12209,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H104" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I104" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J104" t="n">
         <v>1.05</v>
@@ -12228,34 +12230,34 @@
         <v>3.5</v>
       </c>
       <c r="N104" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O104" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P104" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R104" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S104" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T104" t="n">
         <v>8</v>
       </c>
       <c r="U104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V104" t="n">
         <v>9</v>
       </c>
       <c r="W104" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X104" t="n">
         <v>17</v>
@@ -12267,7 +12269,7 @@
         <v>10</v>
       </c>
       <c r="AA104" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB104" t="n">
         <v>13</v>
@@ -12288,10 +12290,10 @@
         <v>12</v>
       </c>
       <c r="AH104" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI104" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ104" t="n">
         <v>34</v>
@@ -13177,19 +13179,19 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I112" t="n">
         <v>3</v>
       </c>
-      <c r="I112" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J112" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L112" t="n">
         <v>1.4</v>
@@ -13228,7 +13230,7 @@
         <v>23</v>
       </c>
       <c r="X112" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y112" t="n">
         <v>34</v>
@@ -13237,7 +13239,7 @@
         <v>7</v>
       </c>
       <c r="AA112" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB112" t="n">
         <v>15</v>
@@ -13252,7 +13254,7 @@
         <v>8</v>
       </c>
       <c r="AF112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG112" t="n">
         <v>12</v>
@@ -13299,13 +13301,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H113" t="n">
         <v>3.25</v>
       </c>
       <c r="I113" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J113" t="n">
         <v>1.06</v>
@@ -13640,28 +13642,28 @@
         <v>5.5</v>
       </c>
       <c r="H116" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I116" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J116" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K116" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L116" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M116" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N116" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O116" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P116" t="n">
         <v>1.36</v>
@@ -13670,16 +13672,16 @@
         <v>3</v>
       </c>
       <c r="R116" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S116" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T116" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U116" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V116" t="n">
         <v>17</v>
@@ -13694,7 +13696,7 @@
         <v>41</v>
       </c>
       <c r="Z116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA116" t="n">
         <v>7.5</v>
@@ -13706,10 +13708,10 @@
         <v>51</v>
       </c>
       <c r="AD116" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE116" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF116" t="n">
         <v>7.5</v>
@@ -13759,13 +13761,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I117" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -13786,19 +13788,19 @@
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U117" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="V117" t="n">
         <v>7.1</v>
       </c>
       <c r="W117" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X117" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y117" t="n">
         <v>24</v>
@@ -13807,31 +13809,31 @@
         <v>9</v>
       </c>
       <c r="AA117" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB117" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC117" t="n">
         <v>70</v>
       </c>
       <c r="AD117" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE117" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF117" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG117" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH117" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI117" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ117" t="n">
         <v>45</v>
@@ -13869,13 +13871,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H118" t="n">
         <v>3.05</v>
       </c>
       <c r="I118" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -13896,31 +13898,31 @@
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U118" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="V118" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="W118" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="X118" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y118" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z118" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA118" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB118" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC118" t="n">
         <v>55</v>
@@ -13929,22 +13931,22 @@
         <v>400</v>
       </c>
       <c r="AE118" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AF118" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG118" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH118" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ118" t="n">
         <v>29</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="119">
@@ -14601,19 +14603,19 @@
         <v>1.03</v>
       </c>
       <c r="K124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L124" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M124" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N124" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O124" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P124" t="n">
         <v>1.29</v>
@@ -14744,10 +14746,10 @@
         <v>2.63</v>
       </c>
       <c r="R125" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S125" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T125" t="n">
         <v>8</v>
@@ -14854,10 +14856,10 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O126" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P126" t="n">
         <v>1.4</v>
@@ -14866,10 +14868,10 @@
         <v>2.75</v>
       </c>
       <c r="R126" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S126" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T126" t="n">
         <v>7.5</v>
@@ -15075,13 +15077,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I128" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J128" t="n">
         <v>1.05</v>
@@ -15090,10 +15092,10 @@
         <v>11</v>
       </c>
       <c r="L128" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M128" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N128" t="n">
         <v>1.93</v>
@@ -15108,7 +15110,7 @@
         <v>3</v>
       </c>
       <c r="R128" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S128" t="n">
         <v>2</v>
@@ -15132,7 +15134,7 @@
         <v>26</v>
       </c>
       <c r="Z128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA128" t="n">
         <v>6.5</v>
@@ -15230,7 +15232,7 @@
         <v>3.25</v>
       </c>
       <c r="R129" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S129" t="n">
         <v>2.1</v>
@@ -15322,10 +15324,10 @@
         <v>4.75</v>
       </c>
       <c r="H130" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I130" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J130" t="n">
         <v>1.03</v>
@@ -15346,7 +15348,7 @@
         <v>2.52</v>
       </c>
       <c r="P130" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="Q130" t="n">
         <v>3.45</v>
@@ -15355,10 +15357,10 @@
         <v>1.53</v>
       </c>
       <c r="S130" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T130" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="U130" t="n">
         <v>35</v>
@@ -15382,13 +15384,13 @@
         <v>8.75</v>
       </c>
       <c r="AB130" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC130" t="n">
         <v>40</v>
       </c>
       <c r="AD130" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE130" t="n">
         <v>10.25</v>
@@ -15918,13 +15920,13 @@
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K135" t="n">
         <v>15</v>
       </c>
       <c r="L135" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M135" t="n">
         <v>4.5</v>
@@ -15942,10 +15944,10 @@
         <v>3.5</v>
       </c>
       <c r="R135" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S135" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T135" t="n">
         <v>13</v>
@@ -16058,10 +16060,10 @@
         <v>1.78</v>
       </c>
       <c r="P136" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R136" t="n">
         <v>1.7</v>
@@ -16070,10 +16072,10 @@
         <v>2.05</v>
       </c>
       <c r="T136" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U136" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="V136" t="n">
         <v>9</v>
@@ -16082,7 +16084,7 @@
         <v>26</v>
       </c>
       <c r="X136" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y136" t="n">
         <v>27</v>
@@ -16097,16 +16099,16 @@
         <v>12</v>
       </c>
       <c r="AC136" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD136" t="n">
         <v>400</v>
       </c>
       <c r="AE136" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF136" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG136" t="n">
         <v>10.5</v>
@@ -16118,7 +16120,7 @@
         <v>26</v>
       </c>
       <c r="AJ136" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -16171,7 +16173,7 @@
         <v>1.39</v>
       </c>
       <c r="M137" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="N137" t="n">
         <v>2.15</v>
@@ -16189,10 +16191,10 @@
         <v>1.82</v>
       </c>
       <c r="S137" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T137" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U137" t="n">
         <v>12</v>
@@ -16225,7 +16227,7 @@
         <v>600</v>
       </c>
       <c r="AE137" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF137" t="n">
         <v>14.5</v>
@@ -16237,7 +16239,7 @@
         <v>37</v>
       </c>
       <c r="AI137" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ137" t="n">
         <v>37</v>
@@ -16281,7 +16283,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J138" t="n">
         <v>1.08</v>
@@ -16311,10 +16313,10 @@
         <v>1.83</v>
       </c>
       <c r="S138" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T138" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U138" t="n">
         <v>10.5</v>
@@ -16347,7 +16349,7 @@
         <v>600</v>
       </c>
       <c r="AE138" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF138" t="n">
         <v>16.5</v>
@@ -16397,7 +16399,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H139" t="n">
         <v>2.77</v>
@@ -16436,7 +16438,7 @@
         <v>1.7</v>
       </c>
       <c r="T139" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U139" t="n">
         <v>11.25</v>
@@ -16476,7 +16478,7 @@
         <v>11.25</v>
       </c>
       <c r="AH139" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI139" t="n">
         <v>32</v>
@@ -16532,10 +16534,10 @@
         <v>5.6</v>
       </c>
       <c r="L140" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M140" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="N140" t="n">
         <v>2.35</v>
@@ -16556,22 +16558,22 @@
         <v>1.78</v>
       </c>
       <c r="T140" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="U140" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="V140" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W140" t="n">
         <v>24</v>
       </c>
       <c r="X140" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y140" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z140" t="n">
         <v>5.6</v>
@@ -16589,22 +16591,22 @@
         <v>900</v>
       </c>
       <c r="AE140" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AF140" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG140" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH140" t="n">
         <v>50</v>
       </c>
       <c r="AI140" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ140" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141">
@@ -16660,10 +16662,10 @@
         <v>3.5</v>
       </c>
       <c r="N141" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O141" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -16672,7 +16674,7 @@
         <v>2.75</v>
       </c>
       <c r="R141" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S141" t="n">
         <v>2</v>
@@ -16761,13 +16763,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H142" t="n">
         <v>3.25</v>
       </c>
       <c r="I142" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J142" t="n">
         <v>1.1</v>
@@ -16785,25 +16787,25 @@
         <v>2.6</v>
       </c>
       <c r="O142" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P142" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R142" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S142" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
       </c>
       <c r="U142" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V142" t="n">
         <v>12</v>
@@ -16812,7 +16814,7 @@
         <v>34</v>
       </c>
       <c r="X142" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y142" t="n">
         <v>41</v>
@@ -16836,13 +16838,13 @@
         <v>6</v>
       </c>
       <c r="AF142" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG142" t="n">
         <v>10</v>
       </c>
       <c r="AH142" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI142" t="n">
         <v>23</v>
@@ -16904,10 +16906,10 @@
         <v>3</v>
       </c>
       <c r="N143" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O143" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="P143" t="n">
         <v>1.44</v>
@@ -16916,10 +16918,10 @@
         <v>2.63</v>
       </c>
       <c r="R143" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S143" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -17005,19 +17007,19 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H144" t="n">
         <v>3.4</v>
       </c>
       <c r="I144" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J144" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L144" t="n">
         <v>1.4</v>
@@ -17062,7 +17064,7 @@
         <v>41</v>
       </c>
       <c r="Z144" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA144" t="n">
         <v>6.5</v>
@@ -17255,7 +17257,7 @@
         <v>3.6</v>
       </c>
       <c r="I146" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J146" t="n">
         <v>1.06</v>
@@ -17273,7 +17275,7 @@
         <v>2.05</v>
       </c>
       <c r="O146" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P146" t="n">
         <v>1.4</v>
@@ -17309,7 +17311,7 @@
         <v>10</v>
       </c>
       <c r="AA146" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB146" t="n">
         <v>15</v>
@@ -17318,7 +17320,7 @@
         <v>51</v>
       </c>
       <c r="AD146" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE146" t="n">
         <v>7.5</v>
@@ -17630,10 +17632,10 @@
         <v>13</v>
       </c>
       <c r="L149" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M149" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N149" t="n">
         <v>1.7</v>
@@ -17880,10 +17882,10 @@
         <v>2.75</v>
       </c>
       <c r="N151" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O151" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P151" t="n">
         <v>1.5</v>
@@ -18809,13 +18811,13 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="H159" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I159" t="n">
         <v>2.77</v>
-      </c>
-      <c r="I159" t="n">
-        <v>2.7</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -18842,19 +18844,19 @@
         <v>9.25</v>
       </c>
       <c r="V159" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W159" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X159" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y159" t="n">
         <v>37</v>
       </c>
       <c r="Z159" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA159" t="n">
         <v>5</v>
@@ -18873,16 +18875,16 @@
         <v>10</v>
       </c>
       <c r="AG159" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH159" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI159" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ159" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160">
@@ -19036,10 +19038,10 @@
         <v>4.75</v>
       </c>
       <c r="J161" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K161" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L161" t="n">
         <v>1.29</v>
@@ -19060,10 +19062,10 @@
         <v>3</v>
       </c>
       <c r="R161" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S161" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T161" t="n">
         <v>7.5</v>
@@ -19158,10 +19160,10 @@
         <v>4.5</v>
       </c>
       <c r="J162" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K162" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L162" t="n">
         <v>1.25</v>
@@ -19170,10 +19172,10 @@
         <v>3.75</v>
       </c>
       <c r="N162" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O162" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P162" t="n">
         <v>1.36</v>
@@ -19182,10 +19184,10 @@
         <v>3</v>
       </c>
       <c r="R162" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S162" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T162" t="n">
         <v>7.5</v>
@@ -19299,13 +19301,13 @@
         <v>1.65</v>
       </c>
       <c r="S163" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T163" t="n">
         <v>8</v>
       </c>
       <c r="U163" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V163" t="n">
         <v>8</v>
@@ -19320,7 +19322,7 @@
         <v>22</v>
       </c>
       <c r="Z163" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA163" t="n">
         <v>7.4</v>
@@ -19410,13 +19412,13 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S164" t="n">
         <v>1.78</v>
       </c>
       <c r="T164" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="U164" t="n">
         <v>7.3</v>
@@ -19464,7 +19466,7 @@
         <v>55</v>
       </c>
       <c r="AJ164" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165">
@@ -19510,7 +19512,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M165" t="n">
         <v>3.2</v>
@@ -19633,7 +19635,7 @@
         <v>2.1</v>
       </c>
       <c r="O166" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P166" t="n">
         <v>1.4</v>
@@ -19860,25 +19862,25 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M168" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="N168" t="n">
         <v>2.5</v>
       </c>
       <c r="O168" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P168" t="n">
         <v>1.5</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R168" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S168" t="n">
         <v>1.72</v>
@@ -19967,13 +19969,13 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="H169" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I169" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="J169" t="n">
         <v>1.11</v>
@@ -19991,7 +19993,7 @@
         <v>2.6</v>
       </c>
       <c r="O169" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P169" t="n">
         <v>1.53</v>
@@ -20000,25 +20002,25 @@
         <v>2.38</v>
       </c>
       <c r="R169" t="n">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="S169" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="T169" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="U169" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="V169" t="n">
         <v>9.5</v>
       </c>
       <c r="W169" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X169" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y169" t="n">
         <v>41</v>
@@ -20027,32 +20029,32 @@
         <v>6.5</v>
       </c>
       <c r="AA169" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB169" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC169" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD169" t="inlineStr"/>
       <c r="AE169" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF169" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG169" t="n">
         <v>21</v>
       </c>
-      <c r="AG169" t="n">
-        <v>15</v>
-      </c>
       <c r="AH169" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI169" t="n">
         <v>51</v>
       </c>
-      <c r="AI169" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ169" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170">
@@ -20107,7 +20109,7 @@
         <v>2.05</v>
       </c>
       <c r="O170" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P170" t="n">
         <v>1.45</v>
@@ -20342,7 +20344,7 @@
         <v>4.5</v>
       </c>
       <c r="N172" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O172" t="n">
         <v>2.25</v>
@@ -20589,7 +20591,7 @@
         <v>2.25</v>
       </c>
       <c r="O174" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P174" t="n">
         <v>1.5</v>
@@ -20809,13 +20811,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H176" t="n">
         <v>3.5</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J176" t="n">
         <v>1.04</v>
@@ -20851,13 +20853,13 @@
         <v>10</v>
       </c>
       <c r="U176" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V176" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W176" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X176" t="n">
         <v>17</v>
@@ -20890,7 +20892,7 @@
         <v>11</v>
       </c>
       <c r="AH176" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI176" t="n">
         <v>21</v>
@@ -21419,13 +21421,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H181" t="n">
         <v>3.5</v>
       </c>
       <c r="I181" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J181" t="n">
         <v>1.04</v>
@@ -21440,10 +21442,10 @@
         <v>4</v>
       </c>
       <c r="N181" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O181" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P181" t="n">
         <v>1.33</v>
@@ -21458,19 +21460,19 @@
         <v>2.2</v>
       </c>
       <c r="T181" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U181" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V181" t="n">
         <v>9.5</v>
       </c>
       <c r="W181" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X181" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y181" t="n">
         <v>23</v>
@@ -21482,7 +21484,7 @@
         <v>7</v>
       </c>
       <c r="AB181" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC181" t="n">
         <v>41</v>
@@ -21562,7 +21564,7 @@
         <v>4</v>
       </c>
       <c r="N182" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O182" t="n">
         <v>2</v>
@@ -21687,7 +21689,7 @@
         <v>2.15</v>
       </c>
       <c r="O183" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P183" t="n">
         <v>1.44</v>
@@ -21807,7 +21809,7 @@
         <v>2.1</v>
       </c>
       <c r="O184" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P184" t="n">
         <v>1.44</v>
@@ -22029,7 +22031,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H187" t="n">
         <v>3.25</v>
@@ -22050,10 +22052,10 @@
         <v>3.5</v>
       </c>
       <c r="N187" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O187" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="P187" t="n">
         <v>1.4</v>
@@ -22151,7 +22153,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="H188" t="n">
         <v>5.75</v>
@@ -22172,7 +22174,7 @@
         <v>5</v>
       </c>
       <c r="N188" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O188" t="n">
         <v>2.35</v>
@@ -22273,7 +22275,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H189" t="n">
         <v>3.1</v>
@@ -22294,10 +22296,10 @@
         <v>3.75</v>
       </c>
       <c r="N189" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O189" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="P189" t="n">
         <v>1.36</v>
@@ -22395,7 +22397,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H190" t="n">
         <v>4.33</v>
@@ -22416,10 +22418,10 @@
         <v>3.5</v>
       </c>
       <c r="N190" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O190" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P190" t="n">
         <v>1.36</v>
@@ -22568,7 +22570,7 @@
         <v>19</v>
       </c>
       <c r="X191" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y191" t="n">
         <v>26</v>
@@ -22601,7 +22603,7 @@
         <v>41</v>
       </c>
       <c r="AI191" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ191" t="n">
         <v>34</v>
@@ -22761,13 +22763,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H193" t="n">
         <v>3.6</v>
       </c>
       <c r="I193" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J193" t="n">
         <v>1.03</v>
@@ -22776,16 +22778,16 @@
         <v>17</v>
       </c>
       <c r="L193" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M193" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N193" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O193" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P193" t="n">
         <v>1.25</v>
@@ -22794,22 +22796,22 @@
         <v>3.75</v>
       </c>
       <c r="R193" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S193" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T193" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U193" t="n">
         <v>15</v>
       </c>
       <c r="V193" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W193" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X193" t="n">
         <v>17</v>
@@ -22827,7 +22829,7 @@
         <v>11</v>
       </c>
       <c r="AC193" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD193" t="n">
         <v>101</v>
@@ -22839,7 +22841,7 @@
         <v>17</v>
       </c>
       <c r="AG193" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH193" t="n">
         <v>29</v>
@@ -22848,7 +22850,7 @@
         <v>19</v>
       </c>
       <c r="AJ193" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
@@ -23615,7 +23617,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H200" t="n">
         <v>4.5</v>
@@ -23636,10 +23638,10 @@
         <v>4.33</v>
       </c>
       <c r="N200" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O200" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P200" t="n">
         <v>1.3</v>
@@ -23758,10 +23760,10 @@
         <v>3.25</v>
       </c>
       <c r="N201" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O201" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P201" t="n">
         <v>1.44</v>
@@ -23859,19 +23861,19 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I202" t="n">
         <v>3.4</v>
       </c>
       <c r="J202" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K202" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L202" t="n">
         <v>1.29</v>
@@ -23880,43 +23882,43 @@
         <v>3.5</v>
       </c>
       <c r="N202" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O202" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P202" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q202" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R202" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S202" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T202" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U202" t="n">
+        <v>11</v>
+      </c>
+      <c r="V202" t="n">
+        <v>9</v>
+      </c>
+      <c r="W202" t="n">
+        <v>19</v>
+      </c>
+      <c r="X202" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z202" t="n">
         <v>10</v>
-      </c>
-      <c r="V202" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W202" t="n">
-        <v>21</v>
-      </c>
-      <c r="X202" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y202" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z202" t="n">
-        <v>9</v>
       </c>
       <c r="AA202" t="n">
         <v>6</v>
@@ -23934,16 +23936,16 @@
         <v>11</v>
       </c>
       <c r="AF202" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG202" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH202" t="n">
         <v>41</v>
       </c>
       <c r="AI202" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ202" t="n">
         <v>34</v>
@@ -23981,7 +23983,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H203" t="n">
         <v>4.5</v>
@@ -24103,7 +24105,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H204" t="n">
         <v>3.5</v>
@@ -24225,13 +24227,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H205" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I205" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J205" t="n">
         <v>1.05</v>
@@ -24240,16 +24242,16 @@
         <v>11</v>
       </c>
       <c r="L205" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M205" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N205" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O205" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="P205" t="n">
         <v>1.36</v>
@@ -24264,16 +24266,16 @@
         <v>2.1</v>
       </c>
       <c r="T205" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U205" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V205" t="n">
         <v>11</v>
       </c>
       <c r="W205" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X205" t="n">
         <v>23</v>
@@ -24282,10 +24284,10 @@
         <v>29</v>
       </c>
       <c r="Z205" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA205" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB205" t="n">
         <v>13</v>
@@ -24294,7 +24296,7 @@
         <v>41</v>
       </c>
       <c r="AD205" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE205" t="n">
         <v>9</v>
@@ -24306,10 +24308,10 @@
         <v>9.5</v>
       </c>
       <c r="AH205" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI205" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ205" t="n">
         <v>26</v>
@@ -24347,19 +24349,19 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H206" t="n">
         <v>3.1</v>
       </c>
       <c r="I206" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J206" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K206" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L206" t="n">
         <v>1.4</v>
@@ -24380,13 +24382,13 @@
         <v>2.63</v>
       </c>
       <c r="R206" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S206" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T206" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U206" t="n">
         <v>15</v>
@@ -24422,10 +24424,10 @@
         <v>7</v>
       </c>
       <c r="AF206" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG206" t="n">
         <v>10</v>
-      </c>
-      <c r="AG206" t="n">
-        <v>9.5</v>
       </c>
       <c r="AH206" t="n">
         <v>21</v>
@@ -24469,70 +24471,70 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.35</v>
+        <v>2.67</v>
       </c>
       <c r="H207" t="n">
         <v>3.1</v>
       </c>
       <c r="I207" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="J207" t="n">
         <v>1.08</v>
       </c>
       <c r="K207" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L207" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M207" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="N207" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O207" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P207" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R207" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S207" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T207" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="U207" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="V207" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="W207" t="n">
+        <v>30</v>
+      </c>
+      <c r="X207" t="n">
         <v>24</v>
       </c>
-      <c r="X207" t="n">
-        <v>21</v>
-      </c>
       <c r="Y207" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z207" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA207" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB207" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC207" t="n">
         <v>70</v>
@@ -24541,22 +24543,22 @@
         <v>600</v>
       </c>
       <c r="AE207" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AF207" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG207" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH207" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AI207" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AJ207" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208">
@@ -25271,7 +25273,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H218" t="n">
         <v>3.6</v>
@@ -25280,10 +25282,10 @@
         <v>3.1</v>
       </c>
       <c r="J218" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K218" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L218" t="n">
         <v>1.29</v>
@@ -25316,7 +25318,7 @@
         <v>10</v>
       </c>
       <c r="V218" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W218" t="n">
         <v>19</v>
@@ -25325,7 +25327,7 @@
         <v>17</v>
       </c>
       <c r="Y218" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z218" t="n">
         <v>11</v>
@@ -25346,7 +25348,7 @@
         <v>10</v>
       </c>
       <c r="AF218" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG218" t="n">
         <v>12</v>
@@ -25515,7 +25517,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H220" t="n">
         <v>4.75</v>
@@ -25554,13 +25556,13 @@
         <v>2.1</v>
       </c>
       <c r="T220" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U220" t="n">
         <v>9</v>
       </c>
       <c r="V220" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W220" t="n">
         <v>11</v>
@@ -25649,7 +25651,7 @@
         <v>1.03</v>
       </c>
       <c r="K221" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L221" t="n">
         <v>1.17</v>
@@ -25762,70 +25764,70 @@
         <v>2.25</v>
       </c>
       <c r="H222" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I222" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J222" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K222" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L222" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M222" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="N222" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O222" t="n">
         <v>1.7</v>
       </c>
       <c r="P222" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q222" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="R222" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S222" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T222" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="U222" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V222" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W222" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X222" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y222" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z222" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA222" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB222" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC222" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD222" t="n">
         <v>600</v>
@@ -25834,16 +25836,16 @@
         <v>8.75</v>
       </c>
       <c r="AF222" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG222" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH222" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI222" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ222" t="n">
         <v>37</v>
@@ -25884,10 +25886,10 @@
         <v>1.57</v>
       </c>
       <c r="H223" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I223" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J223" t="n">
         <v>1.05</v>
@@ -25923,13 +25925,13 @@
         <v>7</v>
       </c>
       <c r="U223" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="V223" t="n">
         <v>8</v>
       </c>
       <c r="W223" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X223" t="n">
         <v>12.5</v>
@@ -25953,7 +25955,7 @@
         <v>600</v>
       </c>
       <c r="AE223" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF223" t="n">
         <v>32</v>
@@ -26006,10 +26008,10 @@
         <v>1.35</v>
       </c>
       <c r="H224" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I224" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J224" t="n">
         <v>1.02</v>
@@ -26051,13 +26053,13 @@
         <v>8.75</v>
       </c>
       <c r="W224" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X224" t="n">
         <v>10.25</v>
       </c>
       <c r="Y224" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z224" t="n">
         <v>10</v>
@@ -26075,7 +26077,7 @@
         <v>300</v>
       </c>
       <c r="AE224" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF224" t="n">
         <v>50</v>
@@ -26125,13 +26127,13 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="H225" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I225" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="J225" t="n">
         <v>1.05</v>
@@ -26155,40 +26157,40 @@
         <v>1.39</v>
       </c>
       <c r="Q225" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="R225" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S225" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T225" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U225" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="V225" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="W225" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X225" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y225" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z225" t="n">
         <v>7.7</v>
       </c>
       <c r="AA225" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB225" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC225" t="n">
         <v>50</v>
@@ -26197,22 +26199,22 @@
         <v>350</v>
       </c>
       <c r="AE225" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AF225" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AG225" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH225" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AI225" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ225" t="n">
         <v>30</v>
-      </c>
-      <c r="AJ225" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="226">
@@ -26274,7 +26276,7 @@
         <v>4</v>
       </c>
       <c r="P226" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Q226" t="n">
         <v>5</v>
@@ -26369,7 +26371,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H227" t="n">
         <v>5</v>
@@ -26735,43 +26737,43 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H230" t="n">
         <v>3.05</v>
       </c>
       <c r="I230" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="J230" t="n">
         <v>1.07</v>
       </c>
       <c r="K230" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L230" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M230" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N230" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O230" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P230" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q230" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R230" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S230" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T230" t="n">
         <v>8</v>
@@ -26792,37 +26794,37 @@
         <v>28</v>
       </c>
       <c r="Z230" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA230" t="n">
         <v>5.9</v>
       </c>
       <c r="AB230" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC230" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD230" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE230" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF230" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG230" t="n">
         <v>10</v>
       </c>
       <c r="AH230" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI230" t="n">
         <v>23</v>
       </c>
       <c r="AJ230" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="231">
@@ -26857,13 +26859,13 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H231" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="I231" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J231" t="n">
         <v>1.03</v>
@@ -26875,28 +26877,28 @@
         <v>1.18</v>
       </c>
       <c r="M231" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="N231" t="n">
         <v>1.55</v>
       </c>
       <c r="O231" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="P231" t="n">
         <v>1.29</v>
       </c>
       <c r="Q231" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R231" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S231" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T231" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U231" t="n">
         <v>6.8</v>
@@ -26908,37 +26910,37 @@
         <v>8.5</v>
       </c>
       <c r="X231" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y231" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z231" t="n">
         <v>9</v>
       </c>
       <c r="AA231" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB231" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC231" t="n">
         <v>80</v>
       </c>
       <c r="AD231" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE231" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF231" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG231" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH231" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI231" t="n">
         <v>90</v>
@@ -26985,7 +26987,7 @@
         <v>3.4</v>
       </c>
       <c r="I232" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J232" t="n">
         <v>1.05</v>
@@ -27345,13 +27347,13 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H235" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I235" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J235" t="n">
         <v>1.07</v>
@@ -27396,7 +27398,7 @@
         <v>41</v>
       </c>
       <c r="X235" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y235" t="n">
         <v>41</v>
@@ -27420,10 +27422,10 @@
         <v>6.5</v>
       </c>
       <c r="AF235" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG235" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH235" t="n">
         <v>19</v>
@@ -27467,7 +27469,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H236" t="n">
         <v>3.4</v>
@@ -27589,19 +27591,19 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H237" t="n">
         <v>4.5</v>
       </c>
       <c r="I237" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J237" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K237" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L237" t="n">
         <v>1.2</v>
@@ -27622,10 +27624,10 @@
         <v>3.4</v>
       </c>
       <c r="R237" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S237" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T237" t="n">
         <v>7.5</v>
@@ -27646,13 +27648,13 @@
         <v>26</v>
       </c>
       <c r="Z237" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA237" t="n">
         <v>9.5</v>
       </c>
       <c r="AB237" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC237" t="n">
         <v>51</v>
@@ -27661,22 +27663,22 @@
         <v>301</v>
       </c>
       <c r="AE237" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF237" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG237" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH237" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI237" t="n">
         <v>51</v>
       </c>
       <c r="AJ237" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="238">
@@ -27711,19 +27713,19 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.25</v>
+        <v>2.01</v>
       </c>
       <c r="H238" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I238" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J238" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K238" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L238" t="n">
         <v>1.29</v>
@@ -27753,16 +27755,16 @@
         <v>8</v>
       </c>
       <c r="U238" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V238" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W238" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X238" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y238" t="n">
         <v>26</v>
@@ -27774,28 +27776,28 @@
         <v>6.5</v>
       </c>
       <c r="AB238" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC238" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD238" t="n">
         <v>201</v>
       </c>
       <c r="AE238" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF238" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG238" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH238" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI238" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ238" t="n">
         <v>34</v>
@@ -27833,22 +27835,22 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H239" t="n">
         <v>3.4</v>
       </c>
       <c r="I239" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J239" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K239" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L239" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M239" t="n">
         <v>3.4</v>
@@ -27881,7 +27883,7 @@
         <v>9</v>
       </c>
       <c r="W239" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X239" t="n">
         <v>17</v>
@@ -27917,7 +27919,7 @@
         <v>34</v>
       </c>
       <c r="AI239" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ239" t="n">
         <v>34</v>
@@ -27961,16 +27963,16 @@
         <v>3.6</v>
       </c>
       <c r="I240" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J240" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K240" t="n">
         <v>8.5</v>
       </c>
       <c r="L240" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M240" t="n">
         <v>3</v>
@@ -27997,13 +27999,13 @@
         <v>6</v>
       </c>
       <c r="U240" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V240" t="n">
         <v>9</v>
       </c>
       <c r="W240" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X240" t="n">
         <v>17</v>
@@ -28083,25 +28085,25 @@
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J241" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K241" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L241" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M241" t="n">
         <v>2.75</v>
       </c>
       <c r="N241" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O241" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P241" t="n">
         <v>1.44</v>
@@ -28110,10 +28112,10 @@
         <v>2.63</v>
       </c>
       <c r="R241" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S241" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T241" t="n">
         <v>5</v>
@@ -28125,7 +28127,7 @@
         <v>9</v>
       </c>
       <c r="W241" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X241" t="n">
         <v>15</v>
@@ -28140,7 +28142,7 @@
         <v>8</v>
       </c>
       <c r="AB241" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC241" t="n">
         <v>101</v>
@@ -28206,13 +28208,13 @@
         <v>2.25</v>
       </c>
       <c r="J242" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K242" t="n">
         <v>8.5</v>
       </c>
       <c r="L242" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M242" t="n">
         <v>3.5</v>
@@ -28331,10 +28333,10 @@
         <v>1.04</v>
       </c>
       <c r="K243" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L243" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M243" t="n">
         <v>3</v>
@@ -28450,13 +28452,13 @@
         <v>5</v>
       </c>
       <c r="J244" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K244" t="n">
         <v>8</v>
       </c>
       <c r="L244" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M244" t="n">
         <v>3.25</v>
@@ -28572,16 +28574,16 @@
         <v>2.5</v>
       </c>
       <c r="J245" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K245" t="n">
         <v>7.5</v>
       </c>
       <c r="L245" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M245" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N245" t="n">
         <v>2.35</v>
@@ -28694,13 +28696,13 @@
         <v>5.5</v>
       </c>
       <c r="J246" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K246" t="n">
         <v>9.5</v>
       </c>
       <c r="L246" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M246" t="n">
         <v>3.5</v>
@@ -28807,13 +28809,13 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H247" t="n">
         <v>3</v>
       </c>
       <c r="I247" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J247" t="n">
         <v>1.06</v>
@@ -28885,7 +28887,7 @@
         <v>10</v>
       </c>
       <c r="AG247" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH247" t="n">
         <v>21</v>
@@ -28938,10 +28940,10 @@
         <v>2.4</v>
       </c>
       <c r="J248" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K248" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L248" t="n">
         <v>1.4</v>
@@ -29120,7 +29122,7 @@
         <v>51</v>
       </c>
       <c r="AD249" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE249" t="n">
         <v>9.5</v>
@@ -29295,7 +29297,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H251" t="n">
         <v>3.25</v>
@@ -29415,10 +29417,10 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H252" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I252" t="n">
         <v>6.5</v>
@@ -29436,34 +29438,34 @@
         <v>5.5</v>
       </c>
       <c r="N252" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O252" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P252" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q252" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R252" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S252" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T252" t="n">
         <v>9.5</v>
       </c>
       <c r="U252" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V252" t="n">
         <v>8.5</v>
       </c>
       <c r="W252" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X252" t="n">
         <v>11</v>
@@ -29478,7 +29480,7 @@
         <v>9.5</v>
       </c>
       <c r="AB252" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC252" t="n">
         <v>41</v>
@@ -29662,28 +29664,28 @@
         <v>4.33</v>
       </c>
       <c r="H254" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I254" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J254" t="n">
         <v>1.04</v>
       </c>
       <c r="K254" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L254" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M254" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N254" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="O254" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P254" t="n">
         <v>1.33</v>
@@ -29713,7 +29715,7 @@
         <v>34</v>
       </c>
       <c r="Y254" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z254" t="n">
         <v>12</v>
@@ -29802,10 +29804,10 @@
         <v>3.5</v>
       </c>
       <c r="N255" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O255" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P255" t="n">
         <v>1.4</v>
@@ -29903,19 +29905,19 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="H256" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I256" t="n">
         <v>4.75</v>
-      </c>
-      <c r="I256" t="n">
-        <v>5.5</v>
       </c>
       <c r="J256" t="n">
         <v>1.04</v>
       </c>
       <c r="K256" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L256" t="n">
         <v>1.25</v>
@@ -29924,10 +29926,10 @@
         <v>3.75</v>
       </c>
       <c r="N256" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O256" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P256" t="n">
         <v>1.33</v>
@@ -29936,22 +29938,22 @@
         <v>3.25</v>
       </c>
       <c r="R256" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S256" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="T256" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U256" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V256" t="n">
         <v>8.5</v>
       </c>
       <c r="W256" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X256" t="n">
         <v>13</v>
@@ -29960,31 +29962,31 @@
         <v>26</v>
       </c>
       <c r="Z256" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA256" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB256" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC256" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD256" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE256" t="n">
         <v>13</v>
       </c>
       <c r="AF256" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG256" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH256" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI256" t="n">
         <v>41</v>
@@ -30058,7 +30060,7 @@
         <v>3.5</v>
       </c>
       <c r="R257" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S257" t="n">
         <v>2.5</v>
@@ -30150,22 +30152,22 @@
         <v>2.25</v>
       </c>
       <c r="H258" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I258" t="n">
         <v>2.9</v>
       </c>
       <c r="J258" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K258" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L258" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M258" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N258" t="n">
         <v>1.53</v>
@@ -30180,16 +30182,16 @@
         <v>3.75</v>
       </c>
       <c r="R258" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="S258" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T258" t="n">
         <v>12</v>
       </c>
       <c r="U258" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V258" t="n">
         <v>9.5</v>
@@ -30204,7 +30206,7 @@
         <v>21</v>
       </c>
       <c r="Z258" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA258" t="n">
         <v>7.5</v>
@@ -30213,7 +30215,7 @@
         <v>11</v>
       </c>
       <c r="AC258" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD258" t="n">
         <v>101</v>
@@ -30546,16 +30548,16 @@
         <v>6.5</v>
       </c>
       <c r="R261" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S261" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T261" t="n">
         <v>19</v>
       </c>
       <c r="U261" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V261" t="n">
         <v>13</v>
@@ -30579,7 +30581,7 @@
         <v>29</v>
       </c>
       <c r="AC261" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD261" t="n">
         <v>201</v>
@@ -30769,31 +30771,31 @@
         <v>1.03</v>
       </c>
       <c r="K263" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="L263" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="M263" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="N263" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O263" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P263" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Q263" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="R263" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="S263" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="T263" t="n">
         <v>10</v>
@@ -31117,7 +31119,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H266" t="n">
         <v>3.7</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-11.xlsx
@@ -1022,13 +1022,13 @@
         <v>2.45</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
         <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -1144,13 +1144,13 @@
         <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
         <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="n">
         <v>4.33</v>
@@ -1266,13 +1266,13 @@
         <v>2.38</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
         <v>19</v>
       </c>
       <c r="L7" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M7" t="n">
         <v>5.5</v>
@@ -1388,13 +1388,13 @@
         <v>5.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
         <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
@@ -1510,13 +1510,13 @@
         <v>5.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
         <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -1632,22 +1632,22 @@
         <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
         <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O10" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1745,22 +1745,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
@@ -1772,10 +1772,10 @@
         <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
         <v>1.95</v>
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V11" t="n">
         <v>9.5</v>
@@ -1796,7 +1796,7 @@
         <v>21</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
         <v>34</v>
@@ -1817,7 +1817,7 @@
         <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>17</v>
@@ -1829,7 +1829,7 @@
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -2010,10 +2010,10 @@
         <v>3.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="O13" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2130,34 +2130,34 @@
         <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O14" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V14" t="n">
         <v>10</v>
       </c>
       <c r="W14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X14" t="n">
         <v>19</v>
@@ -2166,13 +2166,13 @@
         <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>34</v>
@@ -2181,7 +2181,7 @@
         <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>15</v>
@@ -2190,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2401,10 +2401,10 @@
         <v>9.5</v>
       </c>
       <c r="W16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
         <v>21</v>
@@ -2425,19 +2425,19 @@
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
@@ -2496,10 +2496,10 @@
         <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.22</v>
@@ -2734,10 +2734,10 @@
         <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N19" t="n">
         <v>2.5</v>
@@ -2847,7 +2847,7 @@
         <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
         <v>1.01</v>
@@ -2868,25 +2868,25 @@
         <v>3.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T20" t="n">
         <v>17</v>
       </c>
       <c r="U20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
         <v>21</v>
@@ -2901,19 +2901,19 @@
         <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE20" t="n">
         <v>23</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>21</v>
       </c>
       <c r="AF20" t="n">
         <v>26</v>
@@ -2925,7 +2925,7 @@
         <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
         <v>21</v>
@@ -2963,43 +2963,43 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M21" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="N21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T21" t="n">
         <v>5.5</v>
@@ -3011,7 +3011,7 @@
         <v>9.5</v>
       </c>
       <c r="W21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -3020,7 +3020,7 @@
         <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA21" t="n">
         <v>6</v>
@@ -3029,11 +3029,11 @@
         <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
         <v>19</v>
@@ -3454,13 +3454,13 @@
         <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K25" t="n">
         <v>5.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M25" t="n">
         <v>2.1</v>
@@ -3565,25 +3565,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N26" t="n">
         <v>4</v>
@@ -3604,7 +3604,7 @@
         <v>1.4</v>
       </c>
       <c r="T26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U26" t="n">
         <v>11</v>
@@ -3694,13 +3694,13 @@
         <v>2.75</v>
       </c>
       <c r="J27" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K27" t="n">
         <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M27" t="n">
         <v>2.1</v>
@@ -3805,22 +3805,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H28" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I28" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J28" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K28" t="n">
         <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M28" t="n">
         <v>2.2</v>
@@ -3832,10 +3832,10 @@
         <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
         <v>2.38</v>
@@ -3844,16 +3844,16 @@
         <v>1.53</v>
       </c>
       <c r="T28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V28" t="n">
         <v>17</v>
       </c>
       <c r="W28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X28" t="n">
         <v>41</v>
@@ -3865,26 +3865,26 @@
         <v>5</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB28" t="n">
         <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>23</v>
@@ -3925,22 +3925,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K29" t="n">
         <v>8.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M29" t="n">
         <v>2.75</v>
@@ -3967,7 +3967,7 @@
         <v>5.5</v>
       </c>
       <c r="U29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V29" t="n">
         <v>9</v>
@@ -3985,7 +3985,7 @@
         <v>8.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB29" t="n">
         <v>26</v>
@@ -4001,7 +4001,7 @@
         <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>67</v>
@@ -4054,16 +4054,16 @@
         <v>3.7</v>
       </c>
       <c r="J30" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="K30" t="n">
         <v>4.33</v>
       </c>
       <c r="L30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="M30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N30" t="n">
         <v>3.6</v>
@@ -4174,13 +4174,13 @@
         <v>4.2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K31" t="n">
         <v>5.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="M31" t="n">
         <v>2.25</v>
@@ -4654,10 +4654,10 @@
         <v>5.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L35" t="n">
         <v>1.3</v>
@@ -4666,10 +4666,10 @@
         <v>3.4</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O35" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P35" t="n">
         <v>1.4</v>
@@ -4922,13 +4922,13 @@
         <v>3.75</v>
       </c>
       <c r="R37" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T37" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="U37" t="n">
         <v>8</v>
@@ -4976,7 +4976,7 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -5333,7 +5333,7 @@
         <v>1.04</v>
       </c>
       <c r="K43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L43" t="n">
         <v>1.25</v>
@@ -5443,13 +5443,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H44" t="n">
         <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J44" t="n">
         <v>1.03</v>
@@ -5494,13 +5494,13 @@
         <v>26</v>
       </c>
       <c r="X44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA44" t="n">
         <v>7</v>
@@ -5515,22 +5515,22 @@
         <v>101</v>
       </c>
       <c r="AE44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG44" t="n">
         <v>10</v>
       </c>
       <c r="AH44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI44" t="n">
         <v>19</v>
       </c>
       <c r="AJ44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -5824,10 +5824,10 @@
         <v>19</v>
       </c>
       <c r="L47" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N47" t="n">
         <v>1.48</v>
@@ -6056,40 +6056,40 @@
         <v>2.7</v>
       </c>
       <c r="H49" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J49" t="n">
         <v>1.03</v>
       </c>
       <c r="K49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L49" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O49" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="P49" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R49" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S49" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T49" t="n">
         <v>13</v>
@@ -6110,22 +6110,22 @@
         <v>23</v>
       </c>
       <c r="Z49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD49" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF49" t="n">
         <v>15</v>
@@ -6137,10 +6137,10 @@
         <v>26</v>
       </c>
       <c r="AI49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
@@ -6416,22 +6416,22 @@
         <v>2.88</v>
       </c>
       <c r="J52" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K52" t="n">
         <v>7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M52" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="N52" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O52" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="P52" t="n">
         <v>1.5</v>
@@ -6529,31 +6529,31 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M53" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N53" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O53" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P53" t="n">
         <v>1.5</v>
@@ -6562,16 +6562,16 @@
         <v>2.5</v>
       </c>
       <c r="R53" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S53" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T53" t="n">
         <v>6</v>
       </c>
       <c r="U53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V53" t="n">
         <v>9</v>
@@ -6592,7 +6592,7 @@
         <v>6.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC53" t="n">
         <v>67</v>
@@ -6601,13 +6601,13 @@
         <v>501</v>
       </c>
       <c r="AE53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF53" t="n">
         <v>19</v>
       </c>
       <c r="AG53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH53" t="n">
         <v>41</v>
@@ -6651,31 +6651,31 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M54" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="N54" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O54" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P54" t="n">
         <v>1.53</v>
@@ -6696,7 +6696,7 @@
         <v>6.5</v>
       </c>
       <c r="V54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W54" t="n">
         <v>12</v>
@@ -6782,13 +6782,13 @@
         <v>3.5</v>
       </c>
       <c r="J55" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K55" t="n">
         <v>9</v>
       </c>
       <c r="L55" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
@@ -6797,7 +6797,7 @@
         <v>2.15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="P55" t="n">
         <v>1.44</v>
@@ -7510,22 +7510,22 @@
         <v>4.2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K61" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L61" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M61" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O61" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P61" t="n">
         <v>1.5</v>
@@ -8247,7 +8247,7 @@
         <v>3.3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J71" t="n">
         <v>1.05</v>
@@ -8280,7 +8280,7 @@
         <v>2.05</v>
       </c>
       <c r="T71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U71" t="n">
         <v>19</v>
@@ -8310,7 +8310,7 @@
         <v>41</v>
       </c>
       <c r="AD71" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE71" t="n">
         <v>8.5</v>
@@ -8328,7 +8328,7 @@
         <v>17</v>
       </c>
       <c r="AJ71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H72" t="n">
         <v>3.7</v>
@@ -8405,7 +8405,7 @@
         <v>8.5</v>
       </c>
       <c r="U72" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V72" t="n">
         <v>8.5</v>
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H73" t="n">
         <v>3.4</v>
@@ -8497,7 +8497,7 @@
         <v>1.04</v>
       </c>
       <c r="K73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L73" t="n">
         <v>1.25</v>
@@ -8527,7 +8527,7 @@
         <v>9</v>
       </c>
       <c r="U73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V73" t="n">
         <v>9</v>
@@ -8563,7 +8563,7 @@
         <v>17</v>
       </c>
       <c r="AG73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH73" t="n">
         <v>34</v>
@@ -9109,7 +9109,7 @@
         <v>2.1</v>
       </c>
       <c r="S78" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T78" t="n">
         <v>6.5</v>
@@ -9193,19 +9193,19 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H79" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J79" t="n">
         <v>1.04</v>
       </c>
       <c r="K79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L79" t="n">
         <v>1.22</v>
@@ -9229,7 +9229,7 @@
         <v>2.1</v>
       </c>
       <c r="S79" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T79" t="n">
         <v>6.5</v>
@@ -9265,19 +9265,19 @@
         <v>1000</v>
       </c>
       <c r="AE79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF79" t="n">
         <v>41</v>
       </c>
       <c r="AG79" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH79" t="n">
         <v>101</v>
       </c>
       <c r="AI79" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ79" t="n">
         <v>51</v>
@@ -9315,10 +9315,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H80" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I80" t="n">
         <v>3.2</v>
@@ -9348,10 +9348,10 @@
         <v>2.5</v>
       </c>
       <c r="R80" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S80" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -9682,13 +9682,13 @@
         <v>4.5</v>
       </c>
       <c r="J83" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K83" t="n">
         <v>9</v>
       </c>
       <c r="L83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M83" t="n">
         <v>3.25</v>
@@ -9697,7 +9697,7 @@
         <v>2.05</v>
       </c>
       <c r="O83" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P83" t="n">
         <v>1.4</v>
@@ -9706,10 +9706,10 @@
         <v>2.75</v>
       </c>
       <c r="R83" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S83" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T83" t="n">
         <v>6.5</v>
@@ -9804,22 +9804,22 @@
         <v>1.9</v>
       </c>
       <c r="J84" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L84" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M84" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N84" t="n">
         <v>2.4</v>
       </c>
       <c r="O84" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P84" t="n">
         <v>1.5</v>
@@ -9831,7 +9831,7 @@
         <v>2.2</v>
       </c>
       <c r="S84" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T84" t="n">
         <v>9</v>
@@ -9924,13 +9924,13 @@
         <v>1.65</v>
       </c>
       <c r="J85" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K85" t="n">
         <v>9</v>
       </c>
       <c r="L85" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
@@ -9939,7 +9939,7 @@
         <v>2.15</v>
       </c>
       <c r="O85" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P85" t="n">
         <v>1.44</v>
@@ -9951,7 +9951,7 @@
         <v>2.2</v>
       </c>
       <c r="S85" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T85" t="n">
         <v>12</v>
@@ -10046,13 +10046,13 @@
         <v>4.2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K86" t="n">
         <v>6.5</v>
       </c>
       <c r="L86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M86" t="n">
         <v>2.5</v>
@@ -10061,7 +10061,7 @@
         <v>2.5</v>
       </c>
       <c r="O86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P86" t="n">
         <v>1.53</v>
@@ -10073,7 +10073,7 @@
         <v>2.1</v>
       </c>
       <c r="S86" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T86" t="n">
         <v>6</v>
@@ -10168,13 +10168,13 @@
         <v>1.62</v>
       </c>
       <c r="J87" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K87" t="n">
         <v>5.5</v>
       </c>
       <c r="L87" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="M87" t="n">
         <v>2.25</v>
@@ -10183,7 +10183,7 @@
         <v>2.75</v>
       </c>
       <c r="O87" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P87" t="n">
         <v>1.62</v>
@@ -10195,7 +10195,7 @@
         <v>2.75</v>
       </c>
       <c r="S87" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T87" t="n">
         <v>11</v>
@@ -10314,7 +10314,7 @@
         <v>1.98</v>
       </c>
       <c r="T88" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U88" t="n">
         <v>19</v>
@@ -10329,10 +10329,10 @@
         <v>30</v>
       </c>
       <c r="Y88" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z88" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA88" t="n">
         <v>5.5</v>
@@ -10347,7 +10347,7 @@
         <v>400</v>
       </c>
       <c r="AE88" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AF88" t="n">
         <v>11.75</v>
@@ -10397,10 +10397,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="H89" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="I89" t="n">
         <v>26</v>
@@ -10413,39 +10413,39 @@
         <v>1.47</v>
       </c>
       <c r="O89" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="S89" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T89" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U89" t="n">
         <v>5.4</v>
       </c>
       <c r="V89" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W89" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X89" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y89" t="n">
         <v>45</v>
       </c>
       <c r="Z89" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB89" t="n">
         <v>45</v>
@@ -10467,7 +10467,7 @@
         <v>900</v>
       </c>
       <c r="AI89" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ89" t="n">
         <v>350</v>
@@ -10623,13 +10623,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H91" t="n">
         <v>4.2</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J91" t="n">
         <v>1.03</v>
@@ -10638,16 +10638,16 @@
         <v>15</v>
       </c>
       <c r="L91" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M91" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N91" t="n">
         <v>1.62</v>
       </c>
       <c r="O91" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P91" t="n">
         <v>1.29</v>
@@ -10656,10 +10656,10 @@
         <v>3.5</v>
       </c>
       <c r="R91" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S91" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T91" t="n">
         <v>9</v>
@@ -10710,7 +10710,7 @@
         <v>29</v>
       </c>
       <c r="AJ91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
@@ -10769,7 +10769,7 @@
         <v>2.1</v>
       </c>
       <c r="O92" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P92" t="n">
         <v>1.44</v>
@@ -10888,10 +10888,10 @@
         <v>4</v>
       </c>
       <c r="N93" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O93" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P93" t="n">
         <v>1.33</v>
@@ -10998,22 +10998,22 @@
         <v>5.25</v>
       </c>
       <c r="J94" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K94" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L94" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M94" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N94" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="O94" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="P94" t="n">
         <v>1.3</v>
@@ -11233,13 +11233,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I96" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J96" t="n">
         <v>1.04</v>
@@ -11272,22 +11272,22 @@
         <v>2.38</v>
       </c>
       <c r="T96" t="n">
+        <v>11</v>
+      </c>
+      <c r="U96" t="n">
+        <v>15</v>
+      </c>
+      <c r="V96" t="n">
         <v>10</v>
       </c>
-      <c r="U96" t="n">
-        <v>12</v>
-      </c>
-      <c r="V96" t="n">
-        <v>9</v>
-      </c>
       <c r="W96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X96" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z96" t="n">
         <v>13</v>
@@ -11305,19 +11305,19 @@
         <v>126</v>
       </c>
       <c r="AE96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF96" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH96" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI96" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ96" t="n">
         <v>26</v>
@@ -11599,19 +11599,19 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H99" t="n">
         <v>3.3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J99" t="n">
         <v>1.07</v>
       </c>
       <c r="K99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L99" t="n">
         <v>1.4</v>
@@ -11641,19 +11641,19 @@
         <v>7.5</v>
       </c>
       <c r="U99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W99" t="n">
+        <v>29</v>
+      </c>
+      <c r="X99" t="n">
         <v>26</v>
       </c>
-      <c r="X99" t="n">
-        <v>23</v>
-      </c>
       <c r="Y99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z99" t="n">
         <v>8.5</v>
@@ -11671,19 +11671,19 @@
         <v>900</v>
       </c>
       <c r="AE99" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF99" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG99" t="n">
         <v>10</v>
       </c>
       <c r="AH99" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ99" t="n">
         <v>34</v>
@@ -11855,7 +11855,7 @@
         <v>1.03</v>
       </c>
       <c r="K101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L101" t="n">
         <v>1.18</v>
@@ -11864,10 +11864,10 @@
         <v>4.5</v>
       </c>
       <c r="N101" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O101" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P101" t="n">
         <v>1.29</v>
@@ -11968,10 +11968,10 @@
         <v>1.8</v>
       </c>
       <c r="H102" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J102" t="n">
         <v>1.03</v>
@@ -11986,7 +11986,7 @@
         <v>4.5</v>
       </c>
       <c r="N102" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O102" t="n">
         <v>2.25</v>
@@ -11998,10 +11998,10 @@
         <v>3.5</v>
       </c>
       <c r="R102" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S102" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T102" t="n">
         <v>9.5</v>
@@ -12034,7 +12034,7 @@
         <v>41</v>
       </c>
       <c r="AD102" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE102" t="n">
         <v>15</v>
@@ -12087,19 +12087,19 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H103" t="n">
         <v>3.5</v>
       </c>
       <c r="I103" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
         <v>1.03</v>
       </c>
       <c r="K103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L103" t="n">
         <v>1.17</v>
@@ -12108,7 +12108,7 @@
         <v>5</v>
       </c>
       <c r="N103" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O103" t="n">
         <v>2.35</v>
@@ -12120,31 +12120,31 @@
         <v>3.5</v>
       </c>
       <c r="R103" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S103" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U103" t="n">
         <v>13</v>
       </c>
       <c r="V103" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y103" t="n">
         <v>21</v>
       </c>
       <c r="Z103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA103" t="n">
         <v>7</v>
@@ -12174,7 +12174,7 @@
         <v>21</v>
       </c>
       <c r="AJ103" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
@@ -12209,13 +12209,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I104" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J104" t="n">
         <v>1.05</v>
@@ -12224,16 +12224,16 @@
         <v>11</v>
       </c>
       <c r="L104" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M104" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N104" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O104" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P104" t="n">
         <v>1.36</v>
@@ -12242,13 +12242,13 @@
         <v>3</v>
       </c>
       <c r="R104" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S104" t="n">
         <v>2.05</v>
       </c>
       <c r="T104" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U104" t="n">
         <v>11</v>
@@ -12257,19 +12257,19 @@
         <v>9</v>
       </c>
       <c r="W104" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X104" t="n">
         <v>17</v>
       </c>
       <c r="Y104" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA104" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB104" t="n">
         <v>13</v>
@@ -12278,19 +12278,19 @@
         <v>41</v>
       </c>
       <c r="AD104" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE104" t="n">
         <v>11</v>
       </c>
       <c r="AF104" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG104" t="n">
         <v>12</v>
       </c>
       <c r="AH104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI104" t="n">
         <v>26</v>
@@ -12340,10 +12340,10 @@
         <v>3.7</v>
       </c>
       <c r="J105" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K105" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L105" t="n">
         <v>1.25</v>
@@ -12352,10 +12352,10 @@
         <v>3.75</v>
       </c>
       <c r="N105" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O105" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P105" t="n">
         <v>1.33</v>
@@ -12364,7 +12364,7 @@
         <v>3.25</v>
       </c>
       <c r="R105" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S105" t="n">
         <v>2.1</v>
@@ -12486,10 +12486,10 @@
         <v>2.63</v>
       </c>
       <c r="R106" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S106" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T106" t="n">
         <v>8.5</v>
@@ -12581,7 +12581,7 @@
         <v>3.6</v>
       </c>
       <c r="I107" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J107" t="n">
         <v>1.05</v>
@@ -12608,7 +12608,7 @@
         <v>3</v>
       </c>
       <c r="R107" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S107" t="n">
         <v>2</v>
@@ -12647,7 +12647,7 @@
         <v>201</v>
       </c>
       <c r="AE107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF107" t="n">
         <v>17</v>
@@ -12656,7 +12656,7 @@
         <v>12</v>
       </c>
       <c r="AH107" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI107" t="n">
         <v>26</v>
@@ -12730,10 +12730,10 @@
         <v>2.63</v>
       </c>
       <c r="R108" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S108" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -12819,92 +12819,92 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="H109" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="I109" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J109" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="K109" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L109" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M109" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N109" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O109" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P109" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R109" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="S109" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T109" t="n">
         <v>5</v>
       </c>
       <c r="U109" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V109" t="n">
         <v>10.5</v>
       </c>
       <c r="W109" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X109" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y109" t="n">
         <v>60</v>
       </c>
       <c r="Z109" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AA109" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AB109" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC109" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD109" t="inlineStr"/>
       <c r="AE109" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AF109" t="n">
         <v>18</v>
       </c>
       <c r="AG109" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH109" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI109" t="n">
         <v>50</v>
       </c>
       <c r="AJ109" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110">
@@ -12939,13 +12939,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.15</v>
+        <v>2.62</v>
       </c>
       <c r="H110" t="n">
         <v>2.42</v>
       </c>
       <c r="I110" t="n">
-        <v>2.87</v>
+        <v>3.45</v>
       </c>
       <c r="J110" t="n">
         <v>1.19</v>
@@ -12954,10 +12954,10 @@
         <v>4.15</v>
       </c>
       <c r="L110" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="M110" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N110" t="n">
         <v>3.15</v>
@@ -12978,28 +12978,28 @@
         <v>1.55</v>
       </c>
       <c r="T110" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="U110" t="n">
-        <v>14.5</v>
+        <v>11.25</v>
       </c>
       <c r="V110" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="W110" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="X110" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Y110" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z110" t="n">
         <v>4.15</v>
       </c>
       <c r="AA110" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AB110" t="n">
         <v>20</v>
@@ -13009,22 +13009,22 @@
       </c>
       <c r="AD110" t="inlineStr"/>
       <c r="AE110" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="AF110" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG110" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AH110" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AI110" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ110" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111">
@@ -13203,7 +13203,7 @@
         <v>2.35</v>
       </c>
       <c r="O112" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P112" t="n">
         <v>1.5</v>
@@ -13436,10 +13436,10 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O114" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P114" t="n">
         <v>1.37</v>
@@ -13450,10 +13450,10 @@
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="U114" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="V114" t="n">
         <v>6.9</v>
@@ -13462,22 +13462,22 @@
         <v>9.5</v>
       </c>
       <c r="X114" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y114" t="n">
         <v>21</v>
       </c>
       <c r="Z114" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA114" t="n">
         <v>6.3</v>
       </c>
       <c r="AB114" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC114" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD114" t="n">
         <v>400</v>
@@ -13645,13 +13645,13 @@
         <v>3.9</v>
       </c>
       <c r="I116" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J116" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L116" t="n">
         <v>1.29</v>
@@ -13660,10 +13660,10 @@
         <v>3.5</v>
       </c>
       <c r="N116" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O116" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P116" t="n">
         <v>1.36</v>
@@ -13681,7 +13681,7 @@
         <v>13</v>
       </c>
       <c r="U116" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V116" t="n">
         <v>17</v>
@@ -13708,7 +13708,7 @@
         <v>51</v>
       </c>
       <c r="AD116" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE116" t="n">
         <v>6.5</v>
@@ -13761,20 +13761,20 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H117" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I117" t="n">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O117" t="n">
         <v>1.7</v>
@@ -13791,13 +13791,13 @@
         <v>5.2</v>
       </c>
       <c r="U117" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="V117" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W117" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X117" t="n">
         <v>11.25</v>
@@ -13809,31 +13809,31 @@
         <v>9</v>
       </c>
       <c r="AA117" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB117" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC117" t="n">
         <v>70</v>
       </c>
       <c r="AD117" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE117" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AF117" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG117" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH117" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI117" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ117" t="n">
         <v>45</v>
@@ -13981,13 +13981,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H119" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J119" t="n">
         <v>1.03</v>
@@ -14008,7 +14008,7 @@
         <v>2.3</v>
       </c>
       <c r="P119" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q119" t="n">
         <v>3.5</v>
@@ -14020,7 +14020,7 @@
         <v>2.38</v>
       </c>
       <c r="T119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U119" t="n">
         <v>12</v>
@@ -14053,7 +14053,7 @@
         <v>126</v>
       </c>
       <c r="AE119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF119" t="n">
         <v>17</v>
@@ -14103,7 +14103,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H120" t="n">
         <v>3.9</v>
@@ -14118,10 +14118,10 @@
         <v>19</v>
       </c>
       <c r="L120" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M120" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N120" t="n">
         <v>1.48</v>
@@ -14130,7 +14130,7 @@
         <v>2.6</v>
       </c>
       <c r="P120" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q120" t="n">
         <v>3.75</v>
@@ -14252,13 +14252,13 @@
         <v>2.25</v>
       </c>
       <c r="P121" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q121" t="n">
         <v>3.5</v>
       </c>
       <c r="R121" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S121" t="n">
         <v>2.25</v>
@@ -14374,13 +14374,13 @@
         <v>2.35</v>
       </c>
       <c r="P122" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q122" t="n">
         <v>3.75</v>
       </c>
       <c r="R122" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S122" t="n">
         <v>2</v>
@@ -14496,13 +14496,13 @@
         <v>2.08</v>
       </c>
       <c r="P123" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q123" t="n">
         <v>3.25</v>
       </c>
       <c r="R123" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S123" t="n">
         <v>2.2</v>
@@ -14618,16 +14618,16 @@
         <v>2.35</v>
       </c>
       <c r="P124" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q124" t="n">
         <v>3.5</v>
       </c>
       <c r="R124" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S124" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T124" t="n">
         <v>10</v>
@@ -14713,19 +14713,19 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J125" t="n">
         <v>1.07</v>
       </c>
       <c r="K125" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L125" t="n">
         <v>1.33</v>
@@ -14746,31 +14746,31 @@
         <v>2.63</v>
       </c>
       <c r="R125" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S125" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T125" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U125" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W125" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X125" t="n">
         <v>21</v>
       </c>
       <c r="Y125" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z125" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA125" t="n">
         <v>6</v>
@@ -14785,19 +14785,19 @@
         <v>301</v>
       </c>
       <c r="AE125" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF125" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG125" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH125" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI125" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ125" t="n">
         <v>34</v>
@@ -14835,19 +14835,19 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H126" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I126" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J126" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K126" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L126" t="n">
         <v>1.29</v>
@@ -14856,37 +14856,37 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O126" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P126" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R126" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S126" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T126" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U126" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V126" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y126" t="n">
         <v>26</v>
@@ -14907,19 +14907,19 @@
         <v>251</v>
       </c>
       <c r="AE126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF126" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH126" t="n">
         <v>41</v>
       </c>
       <c r="AI126" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ126" t="n">
         <v>41</v>
@@ -15110,7 +15110,7 @@
         <v>3</v>
       </c>
       <c r="R128" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S128" t="n">
         <v>2</v>
@@ -15211,7 +15211,7 @@
         <v>1.04</v>
       </c>
       <c r="K129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L129" t="n">
         <v>1.22</v>
@@ -15232,7 +15232,7 @@
         <v>3.25</v>
       </c>
       <c r="R129" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S129" t="n">
         <v>2.1</v>
@@ -15321,10 +15321,10 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H130" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I130" t="n">
         <v>1.57</v>
@@ -15351,28 +15351,28 @@
         <v>1.27</v>
       </c>
       <c r="Q130" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="R130" t="n">
         <v>1.53</v>
       </c>
       <c r="S130" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="T130" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="U130" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V130" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="W130" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X130" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y130" t="n">
         <v>32</v>
@@ -15384,19 +15384,19 @@
         <v>8.75</v>
       </c>
       <c r="AB130" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC130" t="n">
         <v>40</v>
       </c>
       <c r="AD130" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE130" t="n">
         <v>10.25</v>
       </c>
       <c r="AF130" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG130" t="n">
         <v>8.25</v>
@@ -15405,10 +15405,10 @@
         <v>13</v>
       </c>
       <c r="AI130" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ130" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="131">
@@ -15576,16 +15576,16 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M132" t="n">
         <v>3.2</v>
       </c>
       <c r="N132" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O132" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
@@ -15596,22 +15596,22 @@
         <v>2.02</v>
       </c>
       <c r="T132" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U132" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V132" t="n">
         <v>9.25</v>
       </c>
       <c r="W132" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X132" t="n">
         <v>18.5</v>
       </c>
       <c r="Y132" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z132" t="n">
         <v>11</v>
@@ -15629,10 +15629,10 @@
         <v>400</v>
       </c>
       <c r="AE132" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF132" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG132" t="n">
         <v>10</v>
@@ -15641,10 +15641,10 @@
         <v>30</v>
       </c>
       <c r="AI132" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ132" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
@@ -15679,13 +15679,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H133" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I133" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -15696,10 +15696,10 @@
         <v>3.25</v>
       </c>
       <c r="N133" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O133" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
@@ -15710,28 +15710,28 @@
         <v>2.07</v>
       </c>
       <c r="T133" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U133" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V133" t="n">
         <v>8.75</v>
       </c>
-      <c r="U133" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="V133" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W133" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X133" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y133" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z133" t="n">
         <v>10.75</v>
       </c>
       <c r="AA133" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB133" t="n">
         <v>12.5</v>
@@ -15743,19 +15743,19 @@
         <v>350</v>
       </c>
       <c r="AE133" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF133" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG133" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH133" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI133" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ133" t="n">
         <v>30</v>
@@ -15793,13 +15793,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H134" t="n">
         <v>3.9</v>
       </c>
       <c r="I134" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -15807,76 +15807,76 @@
         <v>1.24</v>
       </c>
       <c r="M134" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N134" t="n">
         <v>1.72</v>
       </c>
       <c r="O134" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P134" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S134" t="n">
         <v>1.82</v>
       </c>
-      <c r="S134" t="n">
-        <v>1.78</v>
-      </c>
       <c r="T134" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U134" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="V134" t="n">
         <v>8</v>
       </c>
       <c r="W134" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X134" t="n">
         <v>12</v>
       </c>
       <c r="Y134" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z134" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA134" t="n">
         <v>7.7</v>
       </c>
       <c r="AB134" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC134" t="n">
         <v>80</v>
       </c>
       <c r="AD134" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE134" t="n">
         <v>15</v>
       </c>
       <c r="AF134" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG134" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH134" t="n">
         <v>120</v>
       </c>
       <c r="AI134" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ134" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135">
@@ -15920,13 +15920,13 @@
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K135" t="n">
         <v>15</v>
       </c>
       <c r="L135" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M135" t="n">
         <v>4.5</v>
@@ -15944,10 +15944,10 @@
         <v>3.5</v>
       </c>
       <c r="R135" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S135" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T135" t="n">
         <v>13</v>
@@ -16641,13 +16641,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
         <v>3.5</v>
       </c>
       <c r="I141" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J141" t="n">
         <v>1.05</v>
@@ -16662,37 +16662,37 @@
         <v>3.5</v>
       </c>
       <c r="N141" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O141" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P141" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q141" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R141" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S141" t="n">
         <v>2</v>
       </c>
       <c r="T141" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U141" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V141" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W141" t="n">
         <v>29</v>
       </c>
       <c r="X141" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y141" t="n">
         <v>29</v>
@@ -16707,22 +16707,22 @@
         <v>15</v>
       </c>
       <c r="AC141" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD141" t="n">
         <v>201</v>
       </c>
       <c r="AE141" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG141" t="n">
         <v>9.5</v>
       </c>
       <c r="AH141" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI141" t="n">
         <v>19</v>
@@ -16787,10 +16787,10 @@
         <v>2.6</v>
       </c>
       <c r="O142" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P142" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q142" t="n">
         <v>2.25</v>
@@ -16799,7 +16799,7 @@
         <v>2.2</v>
       </c>
       <c r="S142" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -16885,13 +16885,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J143" t="n">
         <v>1.07</v>
@@ -16909,7 +16909,7 @@
         <v>2.15</v>
       </c>
       <c r="O143" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P143" t="n">
         <v>1.44</v>
@@ -16918,10 +16918,10 @@
         <v>2.63</v>
       </c>
       <c r="R143" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S143" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -16933,7 +16933,7 @@
         <v>9.5</v>
       </c>
       <c r="W143" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X143" t="n">
         <v>21</v>
@@ -16954,16 +16954,16 @@
         <v>51</v>
       </c>
       <c r="AD143" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE143" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF143" t="n">
         <v>15</v>
       </c>
       <c r="AG143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH143" t="n">
         <v>34</v>
@@ -16972,7 +16972,7 @@
         <v>26</v>
       </c>
       <c r="AJ143" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144">
@@ -17007,19 +17007,19 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H144" t="n">
         <v>3.4</v>
       </c>
       <c r="I144" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J144" t="n">
         <v>1.07</v>
       </c>
       <c r="K144" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L144" t="n">
         <v>1.4</v>
@@ -17129,13 +17129,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H145" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I145" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J145" t="n">
         <v>1.03</v>
@@ -17144,16 +17144,16 @@
         <v>15</v>
       </c>
       <c r="L145" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M145" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N145" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O145" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P145" t="n">
         <v>1.29</v>
@@ -17171,13 +17171,13 @@
         <v>11</v>
       </c>
       <c r="U145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V145" t="n">
         <v>9</v>
       </c>
       <c r="W145" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X145" t="n">
         <v>15</v>
@@ -17201,19 +17201,19 @@
         <v>101</v>
       </c>
       <c r="AE145" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF145" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG145" t="n">
         <v>12</v>
       </c>
       <c r="AH145" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI145" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ145" t="n">
         <v>26</v>
@@ -17495,13 +17495,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>3.4</v>
       </c>
       <c r="I148" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="J148" t="n">
         <v>1.05</v>
@@ -17516,16 +17516,16 @@
         <v>3.5</v>
       </c>
       <c r="N148" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O148" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P148" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R148" t="n">
         <v>1.73</v>
@@ -17534,55 +17534,55 @@
         <v>2</v>
       </c>
       <c r="T148" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U148" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V148" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W148" t="n">
+        <v>26</v>
+      </c>
+      <c r="X148" t="n">
         <v>21</v>
-      </c>
-      <c r="X148" t="n">
-        <v>19</v>
       </c>
       <c r="Y148" t="n">
         <v>29</v>
       </c>
       <c r="Z148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA148" t="n">
         <v>6.5</v>
       </c>
       <c r="AB148" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC148" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD148" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE148" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF148" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG148" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH148" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ148" t="n">
         <v>29</v>
-      </c>
-      <c r="AI148" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ148" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="149">
@@ -17617,13 +17617,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>3.6</v>
       </c>
       <c r="I149" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J149" t="n">
         <v>1.04</v>
@@ -17632,10 +17632,10 @@
         <v>13</v>
       </c>
       <c r="L149" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M149" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N149" t="n">
         <v>1.7</v>
@@ -17650,13 +17650,13 @@
         <v>3.4</v>
       </c>
       <c r="R149" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S149" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T149" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U149" t="n">
         <v>11</v>
@@ -17665,7 +17665,7 @@
         <v>9</v>
       </c>
       <c r="W149" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X149" t="n">
         <v>15</v>
@@ -17698,10 +17698,10 @@
         <v>12</v>
       </c>
       <c r="AH149" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI149" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ149" t="n">
         <v>29</v>
@@ -17739,13 +17739,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H150" t="n">
         <v>3.4</v>
       </c>
       <c r="I150" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J150" t="n">
         <v>1.05</v>
@@ -17778,13 +17778,13 @@
         <v>1.91</v>
       </c>
       <c r="T150" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U150" t="n">
         <v>12</v>
       </c>
       <c r="V150" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W150" t="n">
         <v>23</v>
@@ -17796,7 +17796,7 @@
         <v>29</v>
       </c>
       <c r="Z150" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA150" t="n">
         <v>6.5</v>
@@ -17817,16 +17817,16 @@
         <v>13</v>
       </c>
       <c r="AG150" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH150" t="n">
         <v>29</v>
       </c>
       <c r="AI150" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ150" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151">
@@ -17861,13 +17861,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H151" t="n">
         <v>3</v>
       </c>
       <c r="I151" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J151" t="n">
         <v>1.08</v>
@@ -17918,34 +17918,34 @@
         <v>34</v>
       </c>
       <c r="Z151" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA151" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB151" t="n">
         <v>17</v>
       </c>
       <c r="AC151" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD151" t="n">
         <v>351</v>
       </c>
       <c r="AE151" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF151" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH151" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI151" t="n">
         <v>34</v>
-      </c>
-      <c r="AI151" t="n">
-        <v>29</v>
       </c>
       <c r="AJ151" t="n">
         <v>41</v>
@@ -18105,46 +18105,46 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H153" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I153" t="n">
         <v>3.9</v>
       </c>
       <c r="J153" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K153" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S153" t="n">
         <v>1.53</v>
       </c>
-      <c r="M153" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N153" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O153" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P153" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R153" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S153" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T153" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U153" t="n">
         <v>8</v>
@@ -18153,7 +18153,7 @@
         <v>10</v>
       </c>
       <c r="W153" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X153" t="n">
         <v>21</v>
@@ -18180,7 +18180,7 @@
         <v>8</v>
       </c>
       <c r="AF153" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG153" t="n">
         <v>15</v>
@@ -18227,13 +18227,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H154" t="n">
         <v>3.9</v>
       </c>
       <c r="I154" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J154" t="n">
         <v>1.03</v>
@@ -18296,7 +18296,7 @@
         <v>41</v>
       </c>
       <c r="AD154" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE154" t="n">
         <v>13</v>
@@ -18305,7 +18305,7 @@
         <v>19</v>
       </c>
       <c r="AG154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH154" t="n">
         <v>34</v>
@@ -18349,31 +18349,31 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H155" t="n">
         <v>3</v>
       </c>
       <c r="I155" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J155" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K155" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L155" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M155" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N155" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O155" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P155" t="n">
         <v>1.57</v>
@@ -18382,22 +18382,22 @@
         <v>2.25</v>
       </c>
       <c r="R155" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S155" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T155" t="n">
         <v>6.5</v>
       </c>
       <c r="U155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V155" t="n">
         <v>11</v>
       </c>
       <c r="W155" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X155" t="n">
         <v>26</v>
@@ -18431,7 +18431,7 @@
         <v>29</v>
       </c>
       <c r="AI155" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ155" t="n">
         <v>41</v>
@@ -19029,10 +19029,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I161" t="n">
         <v>4.75</v>
@@ -19044,28 +19044,28 @@
         <v>11</v>
       </c>
       <c r="L161" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M161" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N161" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O161" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="P161" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q161" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R161" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S161" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T161" t="n">
         <v>7.5</v>
@@ -19080,13 +19080,13 @@
         <v>15</v>
       </c>
       <c r="X161" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y161" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z161" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA161" t="n">
         <v>6.5</v>
@@ -19095,7 +19095,7 @@
         <v>15</v>
       </c>
       <c r="AC161" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD161" t="n">
         <v>201</v>
@@ -19157,13 +19157,13 @@
         <v>3.7</v>
       </c>
       <c r="I162" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J162" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K162" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L162" t="n">
         <v>1.25</v>
@@ -19184,10 +19184,10 @@
         <v>3</v>
       </c>
       <c r="R162" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S162" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T162" t="n">
         <v>7.5</v>
@@ -19205,7 +19205,7 @@
         <v>13</v>
       </c>
       <c r="Y162" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z162" t="n">
         <v>11</v>
@@ -19220,7 +19220,7 @@
         <v>51</v>
       </c>
       <c r="AD162" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE162" t="n">
         <v>13</v>
@@ -19390,7 +19390,7 @@
         <v>1.57</v>
       </c>
       <c r="H164" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I164" t="n">
         <v>5.2</v>
@@ -19412,13 +19412,13 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S164" t="n">
         <v>1.78</v>
       </c>
       <c r="T164" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U164" t="n">
         <v>7.3</v>
@@ -19427,7 +19427,7 @@
         <v>8</v>
       </c>
       <c r="W164" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X164" t="n">
         <v>12.5</v>
@@ -19442,7 +19442,7 @@
         <v>7.5</v>
       </c>
       <c r="AB164" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC164" t="n">
         <v>80</v>
@@ -19466,7 +19466,7 @@
         <v>55</v>
       </c>
       <c r="AJ164" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165">
@@ -19635,7 +19635,7 @@
         <v>2.1</v>
       </c>
       <c r="O166" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P166" t="n">
         <v>1.4</v>
@@ -19862,22 +19862,22 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M168" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="N168" t="n">
         <v>2.5</v>
       </c>
       <c r="O168" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P168" t="n">
         <v>1.5</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R168" t="n">
         <v>1.88</v>
@@ -19993,7 +19993,7 @@
         <v>2.6</v>
       </c>
       <c r="O169" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P169" t="n">
         <v>1.53</v>
@@ -20002,10 +20002,10 @@
         <v>2.38</v>
       </c>
       <c r="R169" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S169" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T169" t="n">
         <v>4.75</v>
@@ -20109,7 +20109,7 @@
         <v>2.05</v>
       </c>
       <c r="O170" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P170" t="n">
         <v>1.45</v>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H172" t="n">
         <v>3.75</v>
@@ -20344,7 +20344,7 @@
         <v>4.5</v>
       </c>
       <c r="N172" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O172" t="n">
         <v>2.25</v>
@@ -20362,10 +20362,10 @@
         <v>2.38</v>
       </c>
       <c r="T172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V172" t="n">
         <v>9</v>
@@ -20374,7 +20374,7 @@
         <v>21</v>
       </c>
       <c r="X172" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y172" t="n">
         <v>21</v>
@@ -20591,7 +20591,7 @@
         <v>2.25</v>
       </c>
       <c r="O174" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P174" t="n">
         <v>1.5</v>
@@ -21442,10 +21442,10 @@
         <v>4</v>
       </c>
       <c r="N181" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O181" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P181" t="n">
         <v>1.33</v>
@@ -21555,7 +21555,7 @@
         <v>1.04</v>
       </c>
       <c r="K182" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L182" t="n">
         <v>1.22</v>
@@ -21564,7 +21564,7 @@
         <v>4</v>
       </c>
       <c r="N182" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O182" t="n">
         <v>2</v>
@@ -21689,7 +21689,7 @@
         <v>2.15</v>
       </c>
       <c r="O183" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P183" t="n">
         <v>1.44</v>
@@ -21800,16 +21800,16 @@
         <v>10</v>
       </c>
       <c r="L184" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M184" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N184" t="n">
         <v>2.1</v>
       </c>
       <c r="O184" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P184" t="n">
         <v>1.44</v>
@@ -21906,36 +21906,90 @@
           <t>Fernando de la Mora</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I185" t="n">
+        <v>2.72</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
-      <c r="T185" t="inlineStr"/>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
-      <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
-      <c r="Z185" t="inlineStr"/>
-      <c r="AA185" t="inlineStr"/>
-      <c r="AB185" t="inlineStr"/>
-      <c r="AC185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P185" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T185" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U185" t="n">
+        <v>11</v>
+      </c>
+      <c r="V185" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W185" t="n">
+        <v>27</v>
+      </c>
+      <c r="X185" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>120</v>
+      </c>
       <c r="AD185" t="inlineStr"/>
-      <c r="AE185" t="inlineStr"/>
-      <c r="AF185" t="inlineStr"/>
-      <c r="AG185" t="inlineStr"/>
-      <c r="AH185" t="inlineStr"/>
-      <c r="AI185" t="inlineStr"/>
-      <c r="AJ185" t="inlineStr"/>
+      <c r="AE185" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -21968,36 +22022,90 @@
           <t>Encarnacion FC</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I186" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr"/>
-      <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
-      <c r="W186" t="inlineStr"/>
-      <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
-      <c r="Z186" t="inlineStr"/>
-      <c r="AA186" t="inlineStr"/>
-      <c r="AB186" t="inlineStr"/>
-      <c r="AC186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R186" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T186" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U186" t="n">
+        <v>12</v>
+      </c>
+      <c r="V186" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W186" t="n">
+        <v>32</v>
+      </c>
+      <c r="X186" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>100</v>
+      </c>
       <c r="AD186" t="inlineStr"/>
-      <c r="AE186" t="inlineStr"/>
-      <c r="AF186" t="inlineStr"/>
-      <c r="AG186" t="inlineStr"/>
-      <c r="AH186" t="inlineStr"/>
-      <c r="AI186" t="inlineStr"/>
-      <c r="AJ186" t="inlineStr"/>
+      <c r="AE186" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -22031,7 +22139,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H187" t="n">
         <v>3.25</v>
@@ -22052,10 +22160,10 @@
         <v>3.5</v>
       </c>
       <c r="N187" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O187" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="P187" t="n">
         <v>1.4</v>
@@ -22153,7 +22261,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H188" t="n">
         <v>5.75</v>
@@ -22174,7 +22282,7 @@
         <v>5</v>
       </c>
       <c r="N188" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O188" t="n">
         <v>2.35</v>
@@ -22189,7 +22297,7 @@
         <v>2</v>
       </c>
       <c r="S188" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T188" t="n">
         <v>7.5</v>
@@ -22275,7 +22383,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H189" t="n">
         <v>3.1</v>
@@ -22296,10 +22404,10 @@
         <v>3.75</v>
       </c>
       <c r="N189" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O189" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="P189" t="n">
         <v>1.36</v>
@@ -22308,7 +22416,7 @@
         <v>3</v>
       </c>
       <c r="R189" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S189" t="n">
         <v>2.1</v>
@@ -22397,19 +22505,19 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H190" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I190" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J190" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K190" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L190" t="n">
         <v>1.29</v>
@@ -22418,10 +22526,10 @@
         <v>3.5</v>
       </c>
       <c r="N190" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O190" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P190" t="n">
         <v>1.36</v>
@@ -22433,19 +22541,19 @@
         <v>2.2</v>
       </c>
       <c r="S190" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T190" t="n">
         <v>6</v>
       </c>
       <c r="U190" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V190" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W190" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X190" t="n">
         <v>13</v>
@@ -22457,7 +22565,7 @@
         <v>10</v>
       </c>
       <c r="AA190" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB190" t="n">
         <v>23</v>
@@ -22552,7 +22660,7 @@
         <v>3</v>
       </c>
       <c r="R191" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S191" t="n">
         <v>2.05</v>
@@ -22674,7 +22782,7 @@
         <v>3.4</v>
       </c>
       <c r="R192" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S192" t="n">
         <v>2.25</v>
@@ -23739,13 +23847,13 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H201" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I201" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J201" t="n">
         <v>1.06</v>
@@ -23754,22 +23862,22 @@
         <v>10</v>
       </c>
       <c r="L201" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M201" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N201" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O201" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P201" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q201" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R201" t="n">
         <v>1.83</v>
@@ -23796,7 +23904,7 @@
         <v>29</v>
       </c>
       <c r="Z201" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA201" t="n">
         <v>6.5</v>
@@ -23808,10 +23916,10 @@
         <v>51</v>
       </c>
       <c r="AD201" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE201" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF201" t="n">
         <v>19</v>
@@ -23983,7 +24091,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H203" t="n">
         <v>4.5</v>
@@ -24105,7 +24213,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H204" t="n">
         <v>3.5</v>
@@ -24242,16 +24350,16 @@
         <v>11</v>
       </c>
       <c r="L205" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M205" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N205" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O205" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P205" t="n">
         <v>1.36</v>
@@ -24382,10 +24490,10 @@
         <v>2.63</v>
       </c>
       <c r="R206" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S206" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T206" t="n">
         <v>8.5</v>
@@ -24474,7 +24582,7 @@
         <v>2.67</v>
       </c>
       <c r="H207" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I207" t="n">
         <v>2.6</v>
@@ -24483,19 +24591,19 @@
         <v>1.08</v>
       </c>
       <c r="K207" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L207" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M207" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="N207" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O207" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P207" t="n">
         <v>1.47</v>
@@ -24504,16 +24612,16 @@
         <v>2.5</v>
       </c>
       <c r="R207" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S207" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T207" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="U207" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V207" t="n">
         <v>10</v>
@@ -24528,28 +24636,28 @@
         <v>35</v>
       </c>
       <c r="Z207" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA207" t="n">
         <v>6</v>
       </c>
       <c r="AB207" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC207" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD207" t="n">
         <v>600</v>
       </c>
       <c r="AE207" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF207" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG207" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH207" t="n">
         <v>29</v>
@@ -25151,13 +25259,13 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H217" t="n">
         <v>4.2</v>
       </c>
       <c r="I217" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J217" t="n">
         <v>1.02</v>
@@ -25193,7 +25301,7 @@
         <v>19</v>
       </c>
       <c r="U217" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V217" t="n">
         <v>15</v>
@@ -25223,7 +25331,7 @@
         <v>101</v>
       </c>
       <c r="AE217" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF217" t="n">
         <v>11</v>
@@ -25526,10 +25634,10 @@
         <v>4.75</v>
       </c>
       <c r="J220" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="K220" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L220" t="n">
         <v>1.14</v>
@@ -25651,7 +25759,7 @@
         <v>1.03</v>
       </c>
       <c r="K221" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L221" t="n">
         <v>1.17</v>
@@ -25672,7 +25780,7 @@
         <v>3.75</v>
       </c>
       <c r="R221" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S221" t="n">
         <v>2.2</v>
@@ -26127,13 +26235,13 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="H225" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I225" t="n">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
       <c r="J225" t="n">
         <v>1.05</v>
@@ -26157,64 +26265,64 @@
         <v>1.39</v>
       </c>
       <c r="Q225" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="R225" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S225" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T225" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U225" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V225" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W225" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X225" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y225" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z225" t="n">
         <v>7.7</v>
       </c>
       <c r="AA225" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB225" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC225" t="n">
         <v>50</v>
       </c>
       <c r="AD225" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE225" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF225" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG225" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH225" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AI225" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AJ225" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226">
@@ -26276,7 +26384,7 @@
         <v>4</v>
       </c>
       <c r="P226" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="Q226" t="n">
         <v>5</v>
@@ -26371,7 +26479,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="H227" t="n">
         <v>5</v>
@@ -26987,7 +27095,7 @@
         <v>3.4</v>
       </c>
       <c r="I232" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J232" t="n">
         <v>1.05</v>
@@ -27103,13 +27211,13 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H233" t="n">
         <v>3.2</v>
       </c>
       <c r="I233" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J233" t="n">
         <v>1.07</v>
@@ -27118,10 +27226,10 @@
         <v>9</v>
       </c>
       <c r="L233" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M233" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N233" t="n">
         <v>2.1</v>
@@ -27142,19 +27250,19 @@
         <v>1.83</v>
       </c>
       <c r="T233" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U233" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V233" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W233" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X233" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y233" t="n">
         <v>34</v>
@@ -27172,25 +27280,25 @@
         <v>51</v>
       </c>
       <c r="AD233" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE233" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF233" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG233" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH233" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI233" t="n">
         <v>21</v>
       </c>
       <c r="AJ233" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="234">
@@ -27225,7 +27333,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H234" t="n">
         <v>3.1</v>
@@ -27240,16 +27348,16 @@
         <v>8</v>
       </c>
       <c r="L234" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M234" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N234" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O234" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P234" t="n">
         <v>1.5</v>
@@ -27362,16 +27470,16 @@
         <v>9</v>
       </c>
       <c r="L235" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M235" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N235" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O235" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="P235" t="n">
         <v>1.44</v>
@@ -27469,7 +27577,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H236" t="n">
         <v>3.4</v>
@@ -27478,22 +27586,22 @@
         <v>3.3</v>
       </c>
       <c r="J236" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K236" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L236" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M236" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N236" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O236" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P236" t="n">
         <v>1.4</v>
@@ -27591,7 +27699,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H237" t="n">
         <v>4.5</v>
@@ -27600,10 +27708,10 @@
         <v>6.25</v>
       </c>
       <c r="J237" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K237" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L237" t="n">
         <v>1.2</v>
@@ -27612,7 +27720,7 @@
         <v>4.33</v>
       </c>
       <c r="N237" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O237" t="n">
         <v>2.15</v>
@@ -27713,19 +27821,19 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.01</v>
+        <v>2.25</v>
       </c>
       <c r="H238" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I238" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J238" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K238" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L238" t="n">
         <v>1.29</v>
@@ -27734,16 +27842,16 @@
         <v>3.5</v>
       </c>
       <c r="N238" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O238" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P238" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q238" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R238" t="n">
         <v>1.73</v>
@@ -27752,52 +27860,52 @@
         <v>2</v>
       </c>
       <c r="T238" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U238" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V238" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W238" t="n">
+        <v>21</v>
+      </c>
+      <c r="X238" t="n">
         <v>19</v>
-      </c>
-      <c r="X238" t="n">
-        <v>17</v>
       </c>
       <c r="Y238" t="n">
         <v>26</v>
       </c>
       <c r="Z238" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA238" t="n">
         <v>6.5</v>
       </c>
       <c r="AB238" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC238" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD238" t="n">
         <v>201</v>
       </c>
       <c r="AE238" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG238" t="n">
         <v>11</v>
       </c>
-      <c r="AF238" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG238" t="n">
-        <v>12</v>
-      </c>
       <c r="AH238" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI238" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ238" t="n">
         <v>34</v>
@@ -27844,13 +27952,13 @@
         <v>3.25</v>
       </c>
       <c r="J239" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K239" t="n">
         <v>11</v>
       </c>
       <c r="L239" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M239" t="n">
         <v>3.4</v>
@@ -27966,13 +28074,13 @@
         <v>4.33</v>
       </c>
       <c r="J240" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K240" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L240" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M240" t="n">
         <v>3</v>
@@ -27981,7 +28089,7 @@
         <v>2.15</v>
       </c>
       <c r="O240" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P240" t="n">
         <v>1.44</v>
@@ -28088,13 +28196,13 @@
         <v>7</v>
       </c>
       <c r="J241" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K241" t="n">
         <v>8</v>
       </c>
       <c r="L241" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M241" t="n">
         <v>2.75</v>
@@ -28103,7 +28211,7 @@
         <v>2.25</v>
       </c>
       <c r="O241" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P241" t="n">
         <v>1.44</v>
@@ -28199,22 +28307,22 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H242" t="n">
         <v>3.1</v>
       </c>
       <c r="I242" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J242" t="n">
         <v>1.03</v>
       </c>
       <c r="K242" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L242" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M242" t="n">
         <v>3.5</v>
@@ -28232,52 +28340,52 @@
         <v>2.75</v>
       </c>
       <c r="R242" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S242" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T242" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U242" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V242" t="n">
         <v>12</v>
       </c>
       <c r="W242" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X242" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y242" t="n">
         <v>34</v>
       </c>
       <c r="Z242" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA242" t="n">
         <v>6.5</v>
       </c>
       <c r="AB242" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC242" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD242" t="n">
         <v>450</v>
       </c>
       <c r="AE242" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF242" t="n">
         <v>11</v>
       </c>
       <c r="AG242" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH242" t="n">
         <v>21</v>
@@ -28330,13 +28438,13 @@
         <v>2.5</v>
       </c>
       <c r="J243" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K243" t="n">
         <v>8</v>
       </c>
       <c r="L243" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M243" t="n">
         <v>3</v>
@@ -28452,13 +28560,13 @@
         <v>5</v>
       </c>
       <c r="J244" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K244" t="n">
         <v>8</v>
       </c>
       <c r="L244" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M244" t="n">
         <v>3.25</v>
@@ -28574,16 +28682,16 @@
         <v>2.5</v>
       </c>
       <c r="J245" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K245" t="n">
         <v>7.5</v>
       </c>
       <c r="L245" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M245" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N245" t="n">
         <v>2.35</v>
@@ -28696,13 +28804,13 @@
         <v>5.5</v>
       </c>
       <c r="J246" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K246" t="n">
         <v>9.5</v>
       </c>
       <c r="L246" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M246" t="n">
         <v>3.5</v>
@@ -28931,19 +29039,19 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H248" t="n">
         <v>3</v>
       </c>
       <c r="I248" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J248" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K248" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L248" t="n">
         <v>1.4</v>
@@ -28970,7 +29078,7 @@
         <v>1.8</v>
       </c>
       <c r="T248" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U248" t="n">
         <v>13</v>
@@ -29003,19 +29111,19 @@
         <v>700</v>
       </c>
       <c r="AE248" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF248" t="n">
         <v>11</v>
       </c>
       <c r="AG248" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH248" t="n">
         <v>23</v>
       </c>
       <c r="AI248" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ248" t="n">
         <v>34</v>
@@ -29175,13 +29283,13 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H250" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I250" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J250" t="n">
         <v>1.07</v>
@@ -29202,10 +29310,10 @@
         <v>1.62</v>
       </c>
       <c r="P250" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q250" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R250" t="n">
         <v>2.1</v>
@@ -29217,13 +29325,13 @@
         <v>6</v>
       </c>
       <c r="U250" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V250" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W250" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X250" t="n">
         <v>17</v>
@@ -29250,7 +29358,7 @@
         <v>11</v>
       </c>
       <c r="AF250" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG250" t="n">
         <v>17</v>
@@ -29297,7 +29405,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H251" t="n">
         <v>3.25</v>
@@ -29417,7 +29525,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H252" t="n">
         <v>4.75</v>
@@ -29682,7 +29790,7 @@
         <v>4</v>
       </c>
       <c r="N254" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O254" t="n">
         <v>2.05</v>
@@ -29917,7 +30025,7 @@
         <v>1.04</v>
       </c>
       <c r="K256" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L256" t="n">
         <v>1.25</v>
@@ -29926,10 +30034,10 @@
         <v>3.75</v>
       </c>
       <c r="N256" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O256" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P256" t="n">
         <v>1.33</v>
@@ -30060,7 +30168,7 @@
         <v>3.5</v>
       </c>
       <c r="R257" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S257" t="n">
         <v>2.5</v>
@@ -30158,10 +30266,10 @@
         <v>2.9</v>
       </c>
       <c r="J258" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K258" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L258" t="n">
         <v>1.14</v>
@@ -30170,10 +30278,10 @@
         <v>5.5</v>
       </c>
       <c r="N258" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O258" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P258" t="n">
         <v>1.25</v>
@@ -30182,10 +30290,10 @@
         <v>3.75</v>
       </c>
       <c r="R258" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S258" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T258" t="n">
         <v>12</v>
@@ -30393,19 +30501,19 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H260" t="n">
         <v>3.2</v>
       </c>
       <c r="I260" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J260" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K260" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L260" t="n">
         <v>1.33</v>
@@ -30435,7 +30543,7 @@
         <v>7.5</v>
       </c>
       <c r="U260" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V260" t="n">
         <v>9.5</v>
@@ -30456,7 +30564,7 @@
         <v>6</v>
       </c>
       <c r="AB260" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC260" t="n">
         <v>51</v>
@@ -30465,7 +30573,7 @@
         <v>251</v>
       </c>
       <c r="AE260" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF260" t="n">
         <v>17</v>
@@ -30477,7 +30585,7 @@
         <v>34</v>
       </c>
       <c r="AI260" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ260" t="n">
         <v>34</v>
@@ -30524,10 +30632,10 @@
         <v>19</v>
       </c>
       <c r="J261" t="n">
-        <v>41</v>
+        <v>1.01</v>
       </c>
       <c r="K261" t="n">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="L261" t="n">
         <v>1.04</v>
@@ -30670,10 +30778,10 @@
         <v>4.5</v>
       </c>
       <c r="R262" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S262" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T262" t="n">
         <v>12</v>
@@ -30682,7 +30790,7 @@
         <v>9</v>
       </c>
       <c r="V262" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W262" t="n">
         <v>9.5</v>
@@ -30691,7 +30799,7 @@
         <v>10</v>
       </c>
       <c r="Y262" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z262" t="n">
         <v>29</v>
@@ -30759,13 +30867,13 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="H263" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I263" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="J263" t="n">
         <v>1.03</v>
@@ -30777,7 +30885,7 @@
         <v>1.14</v>
       </c>
       <c r="M263" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="N263" t="n">
         <v>1.44</v>
@@ -30798,10 +30906,10 @@
         <v>2.37</v>
       </c>
       <c r="T263" t="n">
+        <v>11</v>
+      </c>
+      <c r="U263" t="n">
         <v>10</v>
-      </c>
-      <c r="U263" t="n">
-        <v>9</v>
       </c>
       <c r="V263" t="n">
         <v>8.5</v>
@@ -30810,34 +30918,34 @@
         <v>13</v>
       </c>
       <c r="X263" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y263" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z263" t="n">
         <v>21</v>
       </c>
-      <c r="Z263" t="n">
-        <v>19</v>
-      </c>
       <c r="AA263" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB263" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC263" t="n">
         <v>41</v>
       </c>
       <c r="AD263" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE263" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG263" t="n">
         <v>17</v>
-      </c>
-      <c r="AF263" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG263" t="n">
-        <v>15</v>
       </c>
       <c r="AH263" t="n">
         <v>51</v>
@@ -31119,7 +31227,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H266" t="n">
         <v>3.7</v>
